--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F646"/>
+  <dimension ref="A1:F657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13368,7 +13368,227 @@
         <v>30299.25</v>
       </c>
       <c r="F646" t="n">
-        <v>5563.06207757</v>
+        <v>5566.35789109</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45116.41666666666</v>
+      </c>
+      <c r="B647" t="n">
+        <v>30299.25</v>
+      </c>
+      <c r="C647" t="n">
+        <v>30453.27</v>
+      </c>
+      <c r="D647" t="n">
+        <v>30080.24</v>
+      </c>
+      <c r="E647" t="n">
+        <v>30174.62</v>
+      </c>
+      <c r="F647" t="n">
+        <v>5874.45936717</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45117.41666666666</v>
+      </c>
+      <c r="B648" t="n">
+        <v>30175.34</v>
+      </c>
+      <c r="C648" t="n">
+        <v>31042.51</v>
+      </c>
+      <c r="D648" t="n">
+        <v>29965.03</v>
+      </c>
+      <c r="E648" t="n">
+        <v>30423.95</v>
+      </c>
+      <c r="F648" t="n">
+        <v>18369.45647798</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45118.41666666666</v>
+      </c>
+      <c r="B649" t="n">
+        <v>30422.95</v>
+      </c>
+      <c r="C649" t="n">
+        <v>30809.56</v>
+      </c>
+      <c r="D649" t="n">
+        <v>30320.36</v>
+      </c>
+      <c r="E649" t="n">
+        <v>30631.36</v>
+      </c>
+      <c r="F649" t="n">
+        <v>14390.16504579</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45119.41666666666</v>
+      </c>
+      <c r="B650" t="n">
+        <v>30633.89</v>
+      </c>
+      <c r="C650" t="n">
+        <v>30982</v>
+      </c>
+      <c r="D650" t="n">
+        <v>30227.25</v>
+      </c>
+      <c r="E650" t="n">
+        <v>30396.78</v>
+      </c>
+      <c r="F650" t="n">
+        <v>20184.77143358</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45120.41666666666</v>
+      </c>
+      <c r="B651" t="n">
+        <v>30395.64</v>
+      </c>
+      <c r="C651" t="n">
+        <v>31829</v>
+      </c>
+      <c r="D651" t="n">
+        <v>30258.46</v>
+      </c>
+      <c r="E651" t="n">
+        <v>31482.21</v>
+      </c>
+      <c r="F651" t="n">
+        <v>36831.45497786</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45121.41666666666</v>
+      </c>
+      <c r="B652" t="n">
+        <v>31483.23</v>
+      </c>
+      <c r="C652" t="n">
+        <v>31644.47</v>
+      </c>
+      <c r="D652" t="n">
+        <v>29940.08</v>
+      </c>
+      <c r="E652" t="n">
+        <v>30333.65</v>
+      </c>
+      <c r="F652" t="n">
+        <v>28504.11311169</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45122.41666666666</v>
+      </c>
+      <c r="B653" t="n">
+        <v>30332.66</v>
+      </c>
+      <c r="C653" t="n">
+        <v>30403.97</v>
+      </c>
+      <c r="D653" t="n">
+        <v>30267.04</v>
+      </c>
+      <c r="E653" t="n">
+        <v>30299</v>
+      </c>
+      <c r="F653" t="n">
+        <v>4039.37147264</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45123.41666666666</v>
+      </c>
+      <c r="B654" t="n">
+        <v>30300.6</v>
+      </c>
+      <c r="C654" t="n">
+        <v>30457.63</v>
+      </c>
+      <c r="D654" t="n">
+        <v>30078.23</v>
+      </c>
+      <c r="E654" t="n">
+        <v>30250.49</v>
+      </c>
+      <c r="F654" t="n">
+        <v>6357.2037676</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45124.41666666666</v>
+      </c>
+      <c r="B655" t="n">
+        <v>30248.97</v>
+      </c>
+      <c r="C655" t="n">
+        <v>30342.59</v>
+      </c>
+      <c r="D655" t="n">
+        <v>29678.15</v>
+      </c>
+      <c r="E655" t="n">
+        <v>30154.32</v>
+      </c>
+      <c r="F655" t="n">
+        <v>16010.77083874</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45125.41666666666</v>
+      </c>
+      <c r="B656" t="n">
+        <v>30152.07</v>
+      </c>
+      <c r="C656" t="n">
+        <v>30243.7</v>
+      </c>
+      <c r="D656" t="n">
+        <v>29522.25</v>
+      </c>
+      <c r="E656" t="n">
+        <v>29868.81</v>
+      </c>
+      <c r="F656" t="n">
+        <v>16104.96081001</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45126.41666666666</v>
+      </c>
+      <c r="B657" t="n">
+        <v>29863.81</v>
+      </c>
+      <c r="C657" t="n">
+        <v>30201.29</v>
+      </c>
+      <c r="D657" t="n">
+        <v>29770.34</v>
+      </c>
+      <c r="E657" t="n">
+        <v>29921.83</v>
+      </c>
+      <c r="F657" t="n">
+        <v>12551.08599458</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -13485,10 +13485,10 @@
         <v>29940.08</v>
       </c>
       <c r="E652" t="n">
-        <v>30333.65</v>
+        <v>30333.56</v>
       </c>
       <c r="F652" t="n">
-        <v>28504.11311169</v>
+        <v>28515.09146102</v>
       </c>
     </row>
     <row r="653">
@@ -13505,10 +13505,10 @@
         <v>30267.04</v>
       </c>
       <c r="E653" t="n">
-        <v>30299</v>
+        <v>30299.26</v>
       </c>
       <c r="F653" t="n">
-        <v>4039.37147264</v>
+        <v>4039.75613123</v>
       </c>
     </row>
     <row r="654">
@@ -13528,7 +13528,7 @@
         <v>30250.49</v>
       </c>
       <c r="F654" t="n">
-        <v>6357.2037676</v>
+        <v>6357.23094211</v>
       </c>
     </row>
     <row r="655">
@@ -13545,10 +13545,10 @@
         <v>29678.15</v>
       </c>
       <c r="E655" t="n">
-        <v>30154.32</v>
+        <v>30154.28</v>
       </c>
       <c r="F655" t="n">
-        <v>16010.77083874</v>
+        <v>16010.66775375</v>
       </c>
     </row>
     <row r="656">
@@ -13588,7 +13588,7 @@
         <v>29921.83</v>
       </c>
       <c r="F657" t="n">
-        <v>12551.08599458</v>
+        <v>12545.98946082</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F657"/>
+  <dimension ref="A1:F661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13468,7 +13468,7 @@
         <v>31482.21</v>
       </c>
       <c r="F651" t="n">
-        <v>36831.45497786</v>
+        <v>36819.40100528</v>
       </c>
     </row>
     <row r="652">
@@ -13488,7 +13488,7 @@
         <v>30333.56</v>
       </c>
       <c r="F652" t="n">
-        <v>28515.09146102</v>
+        <v>28515.16158245</v>
       </c>
     </row>
     <row r="653">
@@ -13545,10 +13545,10 @@
         <v>29678.15</v>
       </c>
       <c r="E655" t="n">
-        <v>30154.28</v>
+        <v>30154.32</v>
       </c>
       <c r="F655" t="n">
-        <v>16010.66775375</v>
+        <v>16010.77083874</v>
       </c>
     </row>
     <row r="656">
@@ -13568,7 +13568,7 @@
         <v>29868.81</v>
       </c>
       <c r="F656" t="n">
-        <v>16104.96081001</v>
+        <v>16105.3199611</v>
       </c>
     </row>
     <row r="657">
@@ -13588,7 +13588,87 @@
         <v>29921.83</v>
       </c>
       <c r="F657" t="n">
-        <v>12545.98946082</v>
+        <v>12551.34551351</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45127.41666666666</v>
+      </c>
+      <c r="B658" t="n">
+        <v>29920.35</v>
+      </c>
+      <c r="C658" t="n">
+        <v>30419.8</v>
+      </c>
+      <c r="D658" t="n">
+        <v>29571.85</v>
+      </c>
+      <c r="E658" t="n">
+        <v>29813.01</v>
+      </c>
+      <c r="F658" t="n">
+        <v>16410.00835658</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45128.41666666666</v>
+      </c>
+      <c r="B659" t="n">
+        <v>29813.51</v>
+      </c>
+      <c r="C659" t="n">
+        <v>30063.87</v>
+      </c>
+      <c r="D659" t="n">
+        <v>29738.7</v>
+      </c>
+      <c r="E659" t="n">
+        <v>29917.77</v>
+      </c>
+      <c r="F659" t="n">
+        <v>11200.58487254</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45129.41666666666</v>
+      </c>
+      <c r="B660" t="n">
+        <v>29917.56</v>
+      </c>
+      <c r="C660" t="n">
+        <v>30003.12</v>
+      </c>
+      <c r="D660" t="n">
+        <v>29645.97</v>
+      </c>
+      <c r="E660" t="n">
+        <v>29792.96</v>
+      </c>
+      <c r="F660" t="n">
+        <v>5088.45257458</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45130.41666666666</v>
+      </c>
+      <c r="B661" t="n">
+        <v>29792.83</v>
+      </c>
+      <c r="C661" t="n">
+        <v>30351.55</v>
+      </c>
+      <c r="D661" t="n">
+        <v>29749.59</v>
+      </c>
+      <c r="E661" t="n">
+        <v>30092.75</v>
+      </c>
+      <c r="F661" t="n">
+        <v>6612.68825291</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F661"/>
+  <dimension ref="A1:F671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13671,6 +13671,206 @@
         <v>6612.68825291</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45131.41666666666</v>
+      </c>
+      <c r="B662" t="n">
+        <v>30091.5</v>
+      </c>
+      <c r="C662" t="n">
+        <v>30102.82</v>
+      </c>
+      <c r="D662" t="n">
+        <v>28874</v>
+      </c>
+      <c r="E662" t="n">
+        <v>29189.1</v>
+      </c>
+      <c r="F662" t="n">
+        <v>21487.26359591</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45132.41666666666</v>
+      </c>
+      <c r="B663" t="n">
+        <v>29188.72</v>
+      </c>
+      <c r="C663" t="n">
+        <v>29378.38</v>
+      </c>
+      <c r="D663" t="n">
+        <v>29065.48</v>
+      </c>
+      <c r="E663" t="n">
+        <v>29236.54</v>
+      </c>
+      <c r="F663" t="n">
+        <v>9918.333340929999</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45133.41666666666</v>
+      </c>
+      <c r="B664" t="n">
+        <v>29235.78</v>
+      </c>
+      <c r="C664" t="n">
+        <v>29690.93</v>
+      </c>
+      <c r="D664" t="n">
+        <v>29111.01</v>
+      </c>
+      <c r="E664" t="n">
+        <v>29358.33</v>
+      </c>
+      <c r="F664" t="n">
+        <v>13931.08744133</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45134.41666666666</v>
+      </c>
+      <c r="B665" t="n">
+        <v>29358</v>
+      </c>
+      <c r="C665" t="n">
+        <v>29572.18</v>
+      </c>
+      <c r="D665" t="n">
+        <v>29087.68</v>
+      </c>
+      <c r="E665" t="n">
+        <v>29225.73</v>
+      </c>
+      <c r="F665" t="n">
+        <v>10636.17094649</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45135.41666666666</v>
+      </c>
+      <c r="B666" t="n">
+        <v>29224.23</v>
+      </c>
+      <c r="C666" t="n">
+        <v>29535.39</v>
+      </c>
+      <c r="D666" t="n">
+        <v>29129.53</v>
+      </c>
+      <c r="E666" t="n">
+        <v>29328.09</v>
+      </c>
+      <c r="F666" t="n">
+        <v>9764.89835609</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45136.41666666666</v>
+      </c>
+      <c r="B667" t="n">
+        <v>29327.86</v>
+      </c>
+      <c r="C667" t="n">
+        <v>29412.87</v>
+      </c>
+      <c r="D667" t="n">
+        <v>29267.84</v>
+      </c>
+      <c r="E667" t="n">
+        <v>29369.53</v>
+      </c>
+      <c r="F667" t="n">
+        <v>4075.55845071</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45137.41666666666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>29369.79</v>
+      </c>
+      <c r="C668" t="n">
+        <v>29456.1</v>
+      </c>
+      <c r="D668" t="n">
+        <v>29053.2</v>
+      </c>
+      <c r="E668" t="n">
+        <v>29288.27</v>
+      </c>
+      <c r="F668" t="n">
+        <v>6120.52992371</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45138.41666666666</v>
+      </c>
+      <c r="B669" t="n">
+        <v>29288.05</v>
+      </c>
+      <c r="C669" t="n">
+        <v>29524.5</v>
+      </c>
+      <c r="D669" t="n">
+        <v>29122.39</v>
+      </c>
+      <c r="E669" t="n">
+        <v>29240.57</v>
+      </c>
+      <c r="F669" t="n">
+        <v>11591.19804062</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B670" t="n">
+        <v>29237.8</v>
+      </c>
+      <c r="C670" t="n">
+        <v>29722.98</v>
+      </c>
+      <c r="D670" t="n">
+        <v>28612</v>
+      </c>
+      <c r="E670" t="n">
+        <v>29705.37</v>
+      </c>
+      <c r="F670" t="n">
+        <v>24547.8278278</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45140.41666666666</v>
+      </c>
+      <c r="B671" t="n">
+        <v>29706.04</v>
+      </c>
+      <c r="C671" t="n">
+        <v>30033.5</v>
+      </c>
+      <c r="D671" t="n">
+        <v>28930.67</v>
+      </c>
+      <c r="E671" t="n">
+        <v>29169.38</v>
+      </c>
+      <c r="F671" t="n">
+        <v>24016.90813323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F671"/>
+  <dimension ref="A1:F672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13871,6 +13871,26 @@
         <v>24016.90813323</v>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45141.41666666666</v>
+      </c>
+      <c r="B672" t="n">
+        <v>29170.04</v>
+      </c>
+      <c r="C672" t="n">
+        <v>29408.19</v>
+      </c>
+      <c r="D672" t="n">
+        <v>28952.98</v>
+      </c>
+      <c r="E672" t="n">
+        <v>29185.84</v>
+      </c>
+      <c r="F672" t="n">
+        <v>12819.60955641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F672"/>
+  <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13868,7 +13868,7 @@
         <v>29169.38</v>
       </c>
       <c r="F671" t="n">
-        <v>24016.90813323</v>
+        <v>24034.00581934</v>
       </c>
     </row>
     <row r="672">
@@ -13888,7 +13888,107 @@
         <v>29185.84</v>
       </c>
       <c r="F672" t="n">
-        <v>12819.60955641</v>
+        <v>12820.24962433</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45142.41666666666</v>
+      </c>
+      <c r="B673" t="n">
+        <v>29185.76</v>
+      </c>
+      <c r="C673" t="n">
+        <v>29315.12</v>
+      </c>
+      <c r="D673" t="n">
+        <v>28788.03</v>
+      </c>
+      <c r="E673" t="n">
+        <v>29086.35</v>
+      </c>
+      <c r="F673" t="n">
+        <v>10518.81279115</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45143.41666666666</v>
+      </c>
+      <c r="B674" t="n">
+        <v>29085.76</v>
+      </c>
+      <c r="C674" t="n">
+        <v>29117.94</v>
+      </c>
+      <c r="D674" t="n">
+        <v>28960.97</v>
+      </c>
+      <c r="E674" t="n">
+        <v>29054.56</v>
+      </c>
+      <c r="F674" t="n">
+        <v>3655.28158444</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45144.41666666666</v>
+      </c>
+      <c r="B675" t="n">
+        <v>29054.38</v>
+      </c>
+      <c r="C675" t="n">
+        <v>29168.51</v>
+      </c>
+      <c r="D675" t="n">
+        <v>28969.03</v>
+      </c>
+      <c r="E675" t="n">
+        <v>29053.48</v>
+      </c>
+      <c r="F675" t="n">
+        <v>3794.39760574</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45145.41666666666</v>
+      </c>
+      <c r="B676" t="n">
+        <v>29053.25</v>
+      </c>
+      <c r="C676" t="n">
+        <v>29251</v>
+      </c>
+      <c r="D676" t="n">
+        <v>28669.11</v>
+      </c>
+      <c r="E676" t="n">
+        <v>29190.5</v>
+      </c>
+      <c r="F676" t="n">
+        <v>13724.61262711</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45146.41666666666</v>
+      </c>
+      <c r="B677" t="n">
+        <v>29192.57</v>
+      </c>
+      <c r="C677" t="n">
+        <v>30226.5</v>
+      </c>
+      <c r="D677" t="n">
+        <v>29122.34</v>
+      </c>
+      <c r="E677" t="n">
+        <v>29774.15</v>
+      </c>
+      <c r="F677" t="n">
+        <v>22921.09318132</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F677"/>
+  <dimension ref="A1:F691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13948,7 +13948,7 @@
         <v>29053.48</v>
       </c>
       <c r="F675" t="n">
-        <v>3794.39760574</v>
+        <v>3798.03799633</v>
       </c>
     </row>
     <row r="676">
@@ -13965,10 +13965,10 @@
         <v>28669.11</v>
       </c>
       <c r="E676" t="n">
-        <v>29190.5</v>
+        <v>29190.55</v>
       </c>
       <c r="F676" t="n">
-        <v>13724.61262711</v>
+        <v>13725.97767151</v>
       </c>
     </row>
     <row r="677">
@@ -13988,7 +13988,287 @@
         <v>29774.15</v>
       </c>
       <c r="F677" t="n">
-        <v>22921.09318132</v>
+        <v>22921.12890833</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45147.41666666666</v>
+      </c>
+      <c r="B678" t="n">
+        <v>29775.65</v>
+      </c>
+      <c r="C678" t="n">
+        <v>30129.27</v>
+      </c>
+      <c r="D678" t="n">
+        <v>29365.49</v>
+      </c>
+      <c r="E678" t="n">
+        <v>29573.89</v>
+      </c>
+      <c r="F678" t="n">
+        <v>15359.03749689</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45148.41666666666</v>
+      </c>
+      <c r="B679" t="n">
+        <v>29573.92</v>
+      </c>
+      <c r="C679" t="n">
+        <v>29712.95</v>
+      </c>
+      <c r="D679" t="n">
+        <v>29317.25</v>
+      </c>
+      <c r="E679" t="n">
+        <v>29433.51</v>
+      </c>
+      <c r="F679" t="n">
+        <v>11115.30974098</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45149.41666666666</v>
+      </c>
+      <c r="B680" t="n">
+        <v>29434.01</v>
+      </c>
+      <c r="C680" t="n">
+        <v>29537.54</v>
+      </c>
+      <c r="D680" t="n">
+        <v>29223.42</v>
+      </c>
+      <c r="E680" t="n">
+        <v>29407.86</v>
+      </c>
+      <c r="F680" t="n">
+        <v>8933.77670339</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45150.41666666666</v>
+      </c>
+      <c r="B681" t="n">
+        <v>29407.86</v>
+      </c>
+      <c r="C681" t="n">
+        <v>29473.73</v>
+      </c>
+      <c r="D681" t="n">
+        <v>29361.72</v>
+      </c>
+      <c r="E681" t="n">
+        <v>29422.34</v>
+      </c>
+      <c r="F681" t="n">
+        <v>2842.16799777</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45151.41666666666</v>
+      </c>
+      <c r="B682" t="n">
+        <v>29422.42</v>
+      </c>
+      <c r="C682" t="n">
+        <v>29451.93</v>
+      </c>
+      <c r="D682" t="n">
+        <v>29264.29</v>
+      </c>
+      <c r="E682" t="n">
+        <v>29289.76</v>
+      </c>
+      <c r="F682" t="n">
+        <v>3248.0312529</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45152.41666666666</v>
+      </c>
+      <c r="B683" t="n">
+        <v>29288.97</v>
+      </c>
+      <c r="C683" t="n">
+        <v>29667.77</v>
+      </c>
+      <c r="D683" t="n">
+        <v>29090.49</v>
+      </c>
+      <c r="E683" t="n">
+        <v>29419.22</v>
+      </c>
+      <c r="F683" t="n">
+        <v>10383.36599966</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45153.41666666666</v>
+      </c>
+      <c r="B684" t="n">
+        <v>29419</v>
+      </c>
+      <c r="C684" t="n">
+        <v>29467.16</v>
+      </c>
+      <c r="D684" t="n">
+        <v>29064.65</v>
+      </c>
+      <c r="E684" t="n">
+        <v>29176.89</v>
+      </c>
+      <c r="F684" t="n">
+        <v>8584.02071459</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45154.41666666666</v>
+      </c>
+      <c r="B685" t="n">
+        <v>29176.63</v>
+      </c>
+      <c r="C685" t="n">
+        <v>29232.71</v>
+      </c>
+      <c r="D685" t="n">
+        <v>28701.67</v>
+      </c>
+      <c r="E685" t="n">
+        <v>28707.5</v>
+      </c>
+      <c r="F685" t="n">
+        <v>14000.5675284</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45155.41666666666</v>
+      </c>
+      <c r="B686" t="n">
+        <v>28705.2</v>
+      </c>
+      <c r="C686" t="n">
+        <v>28758.96</v>
+      </c>
+      <c r="D686" t="n">
+        <v>25253.44</v>
+      </c>
+      <c r="E686" t="n">
+        <v>26635.04</v>
+      </c>
+      <c r="F686" t="n">
+        <v>43569.94033756</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45156.41666666666</v>
+      </c>
+      <c r="B687" t="n">
+        <v>26631.58</v>
+      </c>
+      <c r="C687" t="n">
+        <v>26824.09</v>
+      </c>
+      <c r="D687" t="n">
+        <v>25618.28</v>
+      </c>
+      <c r="E687" t="n">
+        <v>26053.12</v>
+      </c>
+      <c r="F687" t="n">
+        <v>28983.00011015</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45157.41666666666</v>
+      </c>
+      <c r="B688" t="n">
+        <v>26054.35</v>
+      </c>
+      <c r="C688" t="n">
+        <v>26267.78</v>
+      </c>
+      <c r="D688" t="n">
+        <v>25800.8</v>
+      </c>
+      <c r="E688" t="n">
+        <v>26097.91</v>
+      </c>
+      <c r="F688" t="n">
+        <v>8854.32722316</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45158.41666666666</v>
+      </c>
+      <c r="B689" t="n">
+        <v>26096.9</v>
+      </c>
+      <c r="C689" t="n">
+        <v>26295.77</v>
+      </c>
+      <c r="D689" t="n">
+        <v>25987.68</v>
+      </c>
+      <c r="E689" t="n">
+        <v>26196.16</v>
+      </c>
+      <c r="F689" t="n">
+        <v>6240.6993679</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45159.41666666666</v>
+      </c>
+      <c r="B690" t="n">
+        <v>26195.97</v>
+      </c>
+      <c r="C690" t="n">
+        <v>26251.06</v>
+      </c>
+      <c r="D690" t="n">
+        <v>25820.83</v>
+      </c>
+      <c r="E690" t="n">
+        <v>26129.39</v>
+      </c>
+      <c r="F690" t="n">
+        <v>13690.79828458</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45160.41666666666</v>
+      </c>
+      <c r="B691" t="n">
+        <v>26129.39</v>
+      </c>
+      <c r="C691" t="n">
+        <v>26138.6</v>
+      </c>
+      <c r="D691" t="n">
+        <v>25361.73</v>
+      </c>
+      <c r="E691" t="n">
+        <v>26046.38</v>
+      </c>
+      <c r="F691" t="n">
+        <v>16916.00830198</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F691"/>
+  <dimension ref="A1:F715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44471.41666666666</v>
+        <v>44471.08333333334</v>
       </c>
       <c r="B2" t="n">
         <v>48172.96</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44472.45833333334</v>
+        <v>44472.08333333334</v>
       </c>
       <c r="B3" t="n">
         <v>47659.6375</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44473.45833333334</v>
+        <v>44473.08333333334</v>
       </c>
       <c r="B4" t="n">
         <v>48232.78</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44474.45833333334</v>
+        <v>44474.08333333334</v>
       </c>
       <c r="B5" t="n">
         <v>49253.8525</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44475.45833333334</v>
+        <v>44475.08333333334</v>
       </c>
       <c r="B6" t="n">
         <v>51501.8725</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44476.45833333334</v>
+        <v>44476.08333333334</v>
       </c>
       <c r="B7" t="n">
         <v>55353.0225</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44477.45833333334</v>
+        <v>44477.08333333334</v>
       </c>
       <c r="B8" t="n">
         <v>53810.2225</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44478.45833333334</v>
+        <v>44478.08333333334</v>
       </c>
       <c r="B9" t="n">
         <v>53961.75</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44479.45833333334</v>
+        <v>44479.08333333334</v>
       </c>
       <c r="B10" t="n">
         <v>54971.6475</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44480.45833333334</v>
+        <v>44480.08333333334</v>
       </c>
       <c r="B11" t="n">
         <v>54677.15</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44481.45833333334</v>
+        <v>44481.08333333334</v>
       </c>
       <c r="B12" t="n">
         <v>57487.2875</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44482.45833333334</v>
+        <v>44482.08333333334</v>
       </c>
       <c r="B13" t="n">
         <v>56004.3125</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44483.45833333334</v>
+        <v>44483.08333333334</v>
       </c>
       <c r="B14" t="n">
         <v>57379.6475</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44484.45833333334</v>
+        <v>44484.08333333334</v>
       </c>
       <c r="B15" t="n">
         <v>57359.2725</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44485.45833333334</v>
+        <v>44485.08333333334</v>
       </c>
       <c r="B16" t="n">
         <v>61688.45</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44486.45833333334</v>
+        <v>44486.08333333334</v>
       </c>
       <c r="B17" t="n">
         <v>60874.1125</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44487.45833333334</v>
+        <v>44487.08333333334</v>
       </c>
       <c r="B18" t="n">
         <v>61527.5475</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44488.45833333334</v>
+        <v>44488.08333333334</v>
       </c>
       <c r="B19" t="n">
         <v>62026.64</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44489.45833333334</v>
+        <v>44489.08333333334</v>
       </c>
       <c r="B20" t="n">
         <v>64292.1875</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44490.45833333334</v>
+        <v>44490.08333333334</v>
       </c>
       <c r="B21" t="n">
         <v>66029.0125</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44491.45833333334</v>
+        <v>44491.08333333334</v>
       </c>
       <c r="B22" t="n">
         <v>62204.89</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44492.45833333334</v>
+        <v>44492.08333333334</v>
       </c>
       <c r="B23" t="n">
         <v>60689.78</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44493.45833333334</v>
+        <v>44493.08333333334</v>
       </c>
       <c r="B24" t="n">
         <v>61301.285</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44494.45833333334</v>
+        <v>44494.08333333334</v>
       </c>
       <c r="B25" t="n">
         <v>60862.76</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44495.45833333334</v>
+        <v>44495.08333333334</v>
       </c>
       <c r="B26" t="n">
         <v>63089.0325</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44496.45833333334</v>
+        <v>44496.08333333334</v>
       </c>
       <c r="B27" t="n">
         <v>60333.04</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44497.45833333334</v>
+        <v>44497.08333333334</v>
       </c>
       <c r="B28" t="n">
         <v>58482.7425</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44498.45833333334</v>
+        <v>44498.08333333334</v>
       </c>
       <c r="B29" t="n">
         <v>60601.56</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44499.45833333334</v>
+        <v>44499.08333333334</v>
       </c>
       <c r="B30" t="n">
         <v>62274.69</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44500.45833333334</v>
+        <v>44500.08333333334</v>
       </c>
       <c r="B31" t="n">
         <v>61898.1475</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44501.45833333334</v>
+        <v>44501.04166666666</v>
       </c>
       <c r="B32" t="n">
         <v>61359.0625</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44502.45833333334</v>
+        <v>44502.04166666666</v>
       </c>
       <c r="B33" t="n">
         <v>60951.91</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44503.45833333334</v>
+        <v>44503.04166666666</v>
       </c>
       <c r="B34" t="n">
         <v>63269.015</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44504.45833333334</v>
+        <v>44504.04166666666</v>
       </c>
       <c r="B35" t="n">
         <v>62937.955</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44505.45833333334</v>
+        <v>44505.04166666666</v>
       </c>
       <c r="B36" t="n">
         <v>61443.3825</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44506.45833333334</v>
+        <v>44506.04166666666</v>
       </c>
       <c r="B37" t="n">
         <v>61008.6225</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44507.45833333334</v>
+        <v>44507.04166666666</v>
       </c>
       <c r="B38" t="n">
         <v>61539.35</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44508.45833333334</v>
+        <v>44508.04166666666</v>
       </c>
       <c r="B39" t="n">
         <v>63313.0675</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44509.45833333334</v>
+        <v>44509.04166666666</v>
       </c>
       <c r="B40" t="n">
         <v>67551.1575</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44510.45833333334</v>
+        <v>44510.04166666666</v>
       </c>
       <c r="B41" t="n">
         <v>66943.36</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44511.45833333334</v>
+        <v>44511.04166666666</v>
       </c>
       <c r="B42" t="n">
         <v>64929.27</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44512.45833333334</v>
+        <v>44512.04166666666</v>
       </c>
       <c r="B43" t="n">
         <v>64805.79</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44513.45833333334</v>
+        <v>44513.04166666666</v>
       </c>
       <c r="B44" t="n">
         <v>64147.49</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44514.45833333334</v>
+        <v>44514.04166666666</v>
       </c>
       <c r="B45" t="n">
         <v>64403.79</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44515.45833333334</v>
+        <v>44515.04166666666</v>
       </c>
       <c r="B46" t="n">
         <v>65502.4725</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44516.45833333334</v>
+        <v>44516.04166666666</v>
       </c>
       <c r="B47" t="n">
         <v>63617.945</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44517.45833333334</v>
+        <v>44517.04166666666</v>
       </c>
       <c r="B48" t="n">
         <v>60114.9425</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44518.45833333334</v>
+        <v>44518.04166666666</v>
       </c>
       <c r="B49" t="n">
         <v>60364.3125</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44519.45833333334</v>
+        <v>44519.04166666666</v>
       </c>
       <c r="B50" t="n">
         <v>56907.94</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44520.45833333334</v>
+        <v>44520.04166666666</v>
       </c>
       <c r="B51" t="n">
         <v>58241.5675</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44521.45833333334</v>
+        <v>44521.04166666666</v>
       </c>
       <c r="B52" t="n">
         <v>59734.23</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44522.45833333334</v>
+        <v>44522.04166666666</v>
       </c>
       <c r="B53" t="n">
         <v>58689.245</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44523.45833333334</v>
+        <v>44523.04166666666</v>
       </c>
       <c r="B54" t="n">
         <v>56340.57</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44524.45833333334</v>
+        <v>44524.04166666666</v>
       </c>
       <c r="B55" t="n">
         <v>57571.15</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44525.45833333334</v>
+        <v>44525.04166666666</v>
       </c>
       <c r="B56" t="n">
         <v>57167.12</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44526.45833333334</v>
+        <v>44526.04166666666</v>
       </c>
       <c r="B57" t="n">
         <v>58983.1475</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44527.45833333334</v>
+        <v>44527.04166666666</v>
       </c>
       <c r="B58" t="n">
         <v>53745.595</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44528.45833333334</v>
+        <v>44528.04166666666</v>
       </c>
       <c r="B59" t="n">
         <v>54760.62</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44529.45833333334</v>
+        <v>44529.04166666666</v>
       </c>
       <c r="B60" t="n">
         <v>57319.83</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44530.45833333334</v>
+        <v>44530.04166666666</v>
       </c>
       <c r="B61" t="n">
         <v>57838.34</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44531.45833333334</v>
+        <v>44531.04166666666</v>
       </c>
       <c r="B62" t="n">
         <v>56962.59</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44532.45833333334</v>
+        <v>44532.04166666666</v>
       </c>
       <c r="B63" t="n">
         <v>57179.74</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44533.45833333334</v>
+        <v>44533.04166666666</v>
       </c>
       <c r="B64" t="n">
         <v>56529.34</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44534.45833333334</v>
+        <v>44534.04166666666</v>
       </c>
       <c r="B65" t="n">
         <v>53687.57</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44535.45833333334</v>
+        <v>44535.04166666666</v>
       </c>
       <c r="B66" t="n">
         <v>49347.03</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44536.45833333334</v>
+        <v>44536.04166666666</v>
       </c>
       <c r="B67" t="n">
         <v>49341.93</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44537.45833333334</v>
+        <v>44537.04166666666</v>
       </c>
       <c r="B68" t="n">
         <v>50543.04</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44538.45833333334</v>
+        <v>44538.04166666666</v>
       </c>
       <c r="B69" t="n">
         <v>50619.87</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44539.45833333334</v>
+        <v>44539.04166666666</v>
       </c>
       <c r="B70" t="n">
         <v>50535.33</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44540.45833333334</v>
+        <v>44540.04166666666</v>
       </c>
       <c r="B71" t="n">
         <v>47572.78</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44541.45833333334</v>
+        <v>44541.04166666666</v>
       </c>
       <c r="B72" t="n">
         <v>47492.5</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44542.45833333334</v>
+        <v>44542.04166666666</v>
       </c>
       <c r="B73" t="n">
         <v>49418.7</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44543.45833333334</v>
+        <v>44543.04166666666</v>
       </c>
       <c r="B74" t="n">
         <v>50020.94</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44544.45833333334</v>
+        <v>44544.04166666666</v>
       </c>
       <c r="B75" t="n">
         <v>46805.64</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44545.45833333334</v>
+        <v>44545.04166666666</v>
       </c>
       <c r="B76" t="n">
         <v>48404.61</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44546.45833333334</v>
+        <v>44546.04166666666</v>
       </c>
       <c r="B77" t="n">
         <v>48910.61</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44547.45833333334</v>
+        <v>44547.04166666666</v>
       </c>
       <c r="B78" t="n">
         <v>47692.79</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44548.45833333334</v>
+        <v>44548.04166666666</v>
       </c>
       <c r="B79" t="n">
         <v>46118.38</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44549.45833333334</v>
+        <v>44549.04166666666</v>
       </c>
       <c r="B80" t="n">
         <v>46860.38</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44550.45833333334</v>
+        <v>44550.04166666666</v>
       </c>
       <c r="B81" t="n">
         <v>46589.44</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44551.45833333334</v>
+        <v>44551.04166666666</v>
       </c>
       <c r="B82" t="n">
         <v>46925.73</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44552.45833333334</v>
+        <v>44552.04166666666</v>
       </c>
       <c r="B83" t="n">
         <v>48920.62</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44553.45833333334</v>
+        <v>44553.04166666666</v>
       </c>
       <c r="B84" t="n">
         <v>48493.68</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44554.45833333334</v>
+        <v>44554.04166666666</v>
       </c>
       <c r="B85" t="n">
         <v>50804.48</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44555.45833333334</v>
+        <v>44555.04166666666</v>
       </c>
       <c r="B86" t="n">
         <v>50858.64</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44556.45833333334</v>
+        <v>44556.04166666666</v>
       </c>
       <c r="B87" t="n">
         <v>50425.83</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44557.45833333334</v>
+        <v>44557.04166666666</v>
       </c>
       <c r="B88" t="n">
         <v>50818.91</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44558.45833333334</v>
+        <v>44558.04166666666</v>
       </c>
       <c r="B89" t="n">
         <v>50610.33</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44559.45833333334</v>
+        <v>44559.04166666666</v>
       </c>
       <c r="B90" t="n">
         <v>47574.12</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44560.45833333334</v>
+        <v>44560.04166666666</v>
       </c>
       <c r="B91" t="n">
         <v>46354.91</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44561.45833333334</v>
+        <v>44561.04166666666</v>
       </c>
       <c r="B92" t="n">
         <v>47143.37</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44562.45833333334</v>
+        <v>44562.04166666666</v>
       </c>
       <c r="B93" t="n">
         <v>46252.09</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44563.45833333334</v>
+        <v>44563.04166666666</v>
       </c>
       <c r="B94" t="n">
         <v>47686.69</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44564.45833333334</v>
+        <v>44564.04166666666</v>
       </c>
       <c r="B95" t="n">
         <v>47274.71</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44565.45833333334</v>
+        <v>44565.04166666666</v>
       </c>
       <c r="B96" t="n">
         <v>46416.36</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44566.45833333334</v>
+        <v>44566.04166666666</v>
       </c>
       <c r="B97" t="n">
         <v>45890.21</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44567.45833333334</v>
+        <v>44567.04166666666</v>
       </c>
       <c r="B98" t="n">
         <v>43482.42</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44568.45833333334</v>
+        <v>44568.04166666666</v>
       </c>
       <c r="B99" t="n">
         <v>43032.41</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44569.45833333334</v>
+        <v>44569.04166666666</v>
       </c>
       <c r="B100" t="n">
         <v>41618.99</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44570.45833333334</v>
+        <v>44570.04166666666</v>
       </c>
       <c r="B101" t="n">
         <v>41666.76</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44571.45833333334</v>
+        <v>44571.04166666666</v>
       </c>
       <c r="B102" t="n">
         <v>41883.5</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44572.45833333334</v>
+        <v>44572.04166666666</v>
       </c>
       <c r="B103" t="n">
         <v>41829.85</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44573.45833333334</v>
+        <v>44573.04166666666</v>
       </c>
       <c r="B104" t="n">
         <v>42794.49</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44574.45833333334</v>
+        <v>44574.04166666666</v>
       </c>
       <c r="B105" t="n">
         <v>43921.14</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44575.45833333334</v>
+        <v>44575.04166666666</v>
       </c>
       <c r="B106" t="n">
         <v>42530</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44576.45833333334</v>
+        <v>44576.04166666666</v>
       </c>
       <c r="B107" t="n">
         <v>43062.33</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44577.45833333334</v>
+        <v>44577.04166666666</v>
       </c>
       <c r="B108" t="n">
         <v>43099.11</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44578.45833333334</v>
+        <v>44578.04166666666</v>
       </c>
       <c r="B109" t="n">
         <v>43077.48</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44579.45833333334</v>
+        <v>44579.04166666666</v>
       </c>
       <c r="B110" t="n">
         <v>42256.15</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44580.45833333334</v>
+        <v>44580.04166666666</v>
       </c>
       <c r="B111" t="n">
         <v>42385.36</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44581.45833333334</v>
+        <v>44581.04166666666</v>
       </c>
       <c r="B112" t="n">
         <v>41706.74</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44582.45833333334</v>
+        <v>44582.04166666666</v>
       </c>
       <c r="B113" t="n">
         <v>40760.06</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44583.45833333334</v>
+        <v>44583.04166666666</v>
       </c>
       <c r="B114" t="n">
         <v>36486.55</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44584.45833333334</v>
+        <v>44584.04166666666</v>
       </c>
       <c r="B115" t="n">
         <v>35141.41</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44585.45833333334</v>
+        <v>44585.04166666666</v>
       </c>
       <c r="B116" t="n">
         <v>36172.62</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44586.45833333334</v>
+        <v>44586.04166666666</v>
       </c>
       <c r="B117" t="n">
         <v>36616.82</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44587.45833333334</v>
+        <v>44587.04166666666</v>
       </c>
       <c r="B118" t="n">
         <v>36974.81</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44588.45833333334</v>
+        <v>44588.04166666666</v>
       </c>
       <c r="B119" t="n">
         <v>36879.06</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44589.45833333334</v>
+        <v>44589.04166666666</v>
       </c>
       <c r="B120" t="n">
         <v>37181.8</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44590.45833333334</v>
+        <v>44590.04166666666</v>
       </c>
       <c r="B121" t="n">
         <v>37756.65</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44591.45833333334</v>
+        <v>44591.04166666666</v>
       </c>
       <c r="B122" t="n">
         <v>38116.16</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44592.45833333334</v>
+        <v>44592.04166666666</v>
       </c>
       <c r="B123" t="n">
         <v>37913.28</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44593.45833333334</v>
+        <v>44593.04166666666</v>
       </c>
       <c r="B124" t="n">
         <v>38497.02</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44594.45833333334</v>
+        <v>44594.04166666666</v>
       </c>
       <c r="B125" t="n">
         <v>38739.08</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44595.45833333334</v>
+        <v>44595.04166666666</v>
       </c>
       <c r="B126" t="n">
         <v>36921.39</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44596.45833333334</v>
+        <v>44596.04166666666</v>
       </c>
       <c r="B127" t="n">
         <v>37325.51</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44597.45833333334</v>
+        <v>44597.04166666666</v>
       </c>
       <c r="B128" t="n">
         <v>41609.07</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44598.45833333334</v>
+        <v>44598.04166666666</v>
       </c>
       <c r="B129" t="n">
         <v>41422.08</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44599.45833333334</v>
+        <v>44599.04166666666</v>
       </c>
       <c r="B130" t="n">
         <v>42419.63</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44600.45833333334</v>
+        <v>44600.04166666666</v>
       </c>
       <c r="B131" t="n">
         <v>43879.07</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44601.45833333334</v>
+        <v>44601.04166666666</v>
       </c>
       <c r="B132" t="n">
         <v>44089.95</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44602.45833333334</v>
+        <v>44602.04166666666</v>
       </c>
       <c r="B133" t="n">
         <v>44416.64</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44603.45833333334</v>
+        <v>44603.04166666666</v>
       </c>
       <c r="B134" t="n">
         <v>43533.39</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44604.45833333334</v>
+        <v>44604.04166666666</v>
       </c>
       <c r="B135" t="n">
         <v>42394.52</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44605.45833333334</v>
+        <v>44605.04166666666</v>
       </c>
       <c r="B136" t="n">
         <v>42239.14</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44606.45833333334</v>
+        <v>44606.04166666666</v>
       </c>
       <c r="B137" t="n">
         <v>42074.56</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44607.45833333334</v>
+        <v>44607.04166666666</v>
       </c>
       <c r="B138" t="n">
         <v>42560.06</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44608.45833333334</v>
+        <v>44608.04166666666</v>
       </c>
       <c r="B139" t="n">
         <v>44574.41</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44609.45833333334</v>
+        <v>44609.04166666666</v>
       </c>
       <c r="B140" t="n">
         <v>43894.58</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44610.45833333334</v>
+        <v>44610.04166666666</v>
       </c>
       <c r="B141" t="n">
         <v>40538.77</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44611.45833333334</v>
+        <v>44611.04166666666</v>
       </c>
       <c r="B142" t="n">
         <v>39996.5</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44612.45833333334</v>
+        <v>44612.04166666666</v>
       </c>
       <c r="B143" t="n">
         <v>40101.21</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44613.45833333334</v>
+        <v>44613.04166666666</v>
       </c>
       <c r="B144" t="n">
         <v>38391.53</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44614.45833333334</v>
+        <v>44614.04166666666</v>
       </c>
       <c r="B145" t="n">
         <v>37026.12</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44615.45833333334</v>
+        <v>44615.04166666666</v>
       </c>
       <c r="B146" t="n">
         <v>38260.84</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44616.45833333334</v>
+        <v>44616.04166666666</v>
       </c>
       <c r="B147" t="n">
         <v>37262.01</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44617.45833333334</v>
+        <v>44617.04166666666</v>
       </c>
       <c r="B148" t="n">
         <v>38351.44</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44618.45833333334</v>
+        <v>44618.04166666666</v>
       </c>
       <c r="B149" t="n">
         <v>39237.21</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44619.45833333334</v>
+        <v>44619.04166666666</v>
       </c>
       <c r="B150" t="n">
         <v>39139.87</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44620.45833333334</v>
+        <v>44620.04166666666</v>
       </c>
       <c r="B151" t="n">
         <v>37712.31</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44621.45833333334</v>
+        <v>44621.04166666666</v>
       </c>
       <c r="B152" t="n">
         <v>43201.82</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44622.45833333334</v>
+        <v>44622.04166666666</v>
       </c>
       <c r="B153" t="n">
         <v>44439.96</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44623.45833333334</v>
+        <v>44623.04166666666</v>
       </c>
       <c r="B154" t="n">
         <v>43925.65</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44624.45833333334</v>
+        <v>44624.04166666666</v>
       </c>
       <c r="B155" t="n">
         <v>42467.35</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44625.45833333334</v>
+        <v>44625.04166666666</v>
       </c>
       <c r="B156" t="n">
         <v>39160.35</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44626.45833333334</v>
+        <v>44626.04166666666</v>
       </c>
       <c r="B157" t="n">
         <v>39401.93</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44627.45833333334</v>
+        <v>44627.04166666666</v>
       </c>
       <c r="B158" t="n">
         <v>38412.97</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44628.45833333334</v>
+        <v>44628.04166666666</v>
       </c>
       <c r="B159" t="n">
         <v>38000.69</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44629.45833333334</v>
+        <v>44629.04166666666</v>
       </c>
       <c r="B160" t="n">
         <v>38753.58</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44630.45833333334</v>
+        <v>44630.04166666666</v>
       </c>
       <c r="B161" t="n">
         <v>41952.6</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44631.45833333334</v>
+        <v>44631.04166666666</v>
       </c>
       <c r="B162" t="n">
         <v>39433.9</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44632.45833333334</v>
+        <v>44632.04166666666</v>
       </c>
       <c r="B163" t="n">
         <v>38734.32</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44633.45833333334</v>
+        <v>44633.04166666666</v>
       </c>
       <c r="B164" t="n">
         <v>38803.72</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44634.45833333334</v>
+        <v>44634.04166666666</v>
       </c>
       <c r="B165" t="n">
         <v>37785.75</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44635.45833333334</v>
+        <v>44635.04166666666</v>
       </c>
       <c r="B166" t="n">
         <v>39679.69</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44636.45833333334</v>
+        <v>44636.04166666666</v>
       </c>
       <c r="B167" t="n">
         <v>39307.23</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44637.45833333334</v>
+        <v>44637.04166666666</v>
       </c>
       <c r="B168" t="n">
         <v>41133.7</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44638.45833333334</v>
+        <v>44638.04166666666</v>
       </c>
       <c r="B169" t="n">
         <v>40950.66</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44639.45833333334</v>
+        <v>44639.04166666666</v>
       </c>
       <c r="B170" t="n">
         <v>41779.98</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44640.45833333334</v>
+        <v>44640.04166666666</v>
       </c>
       <c r="B171" t="n">
         <v>42229.39</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44641.45833333334</v>
+        <v>44641.04166666666</v>
       </c>
       <c r="B172" t="n">
         <v>41291.68</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44642.45833333334</v>
+        <v>44642.04166666666</v>
       </c>
       <c r="B173" t="n">
         <v>41017.81</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44643.45833333334</v>
+        <v>44643.04166666666</v>
       </c>
       <c r="B174" t="n">
         <v>42380.32</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44644.45833333334</v>
+        <v>44644.04166666666</v>
       </c>
       <c r="B175" t="n">
         <v>42906.53</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44645.45833333334</v>
+        <v>44645.04166666666</v>
       </c>
       <c r="B176" t="n">
         <v>44009.1</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44646.45833333334</v>
+        <v>44646.04166666666</v>
       </c>
       <c r="B177" t="n">
         <v>44331.57</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44647.45833333334</v>
+        <v>44647.04166666666</v>
       </c>
       <c r="B178" t="n">
         <v>44545.73</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44648.45833333334</v>
+        <v>44648.08333333334</v>
       </c>
       <c r="B179" t="n">
         <v>46852.57</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44649.45833333334</v>
+        <v>44649.08333333334</v>
       </c>
       <c r="B180" t="n">
         <v>47146.63</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44650.45833333334</v>
+        <v>44650.08333333334</v>
       </c>
       <c r="B181" t="n">
         <v>47450.46</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44651.45833333334</v>
+        <v>44651.08333333334</v>
       </c>
       <c r="B182" t="n">
         <v>47081.31</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44652.45833333334</v>
+        <v>44652.08333333334</v>
       </c>
       <c r="B183" t="n">
         <v>45520.97</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44653.45833333334</v>
+        <v>44653.08333333334</v>
       </c>
       <c r="B184" t="n">
         <v>46305.9</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44654.41666666666</v>
+        <v>44654.08333333334</v>
       </c>
       <c r="B185" t="n">
         <v>45821.98</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44655.41666666666</v>
+        <v>44655.08333333334</v>
       </c>
       <c r="B186" t="n">
         <v>46420.72</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44656.41666666666</v>
+        <v>44656.08333333334</v>
       </c>
       <c r="B187" t="n">
         <v>46580.72</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44657.41666666666</v>
+        <v>44657.08333333334</v>
       </c>
       <c r="B188" t="n">
         <v>45506.57</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44658.41666666666</v>
+        <v>44658.08333333334</v>
       </c>
       <c r="B189" t="n">
         <v>43173.92</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44659.41666666666</v>
+        <v>44659.08333333334</v>
       </c>
       <c r="B190" t="n">
         <v>43458.09</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44660.41666666666</v>
+        <v>44660.08333333334</v>
       </c>
       <c r="B191" t="n">
         <v>42267.51</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44661.41666666666</v>
+        <v>44661.08333333334</v>
       </c>
       <c r="B192" t="n">
         <v>42774.7</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44662.41666666666</v>
+        <v>44662.08333333334</v>
       </c>
       <c r="B193" t="n">
         <v>42161.99</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44663.41666666666</v>
+        <v>44663.08333333334</v>
       </c>
       <c r="B194" t="n">
         <v>39536.79</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44664.41666666666</v>
+        <v>44664.08333333334</v>
       </c>
       <c r="B195" t="n">
         <v>40090.95</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44665.41666666666</v>
+        <v>44665.08333333334</v>
       </c>
       <c r="B196" t="n">
         <v>41149.44</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44666.41666666666</v>
+        <v>44666.08333333334</v>
       </c>
       <c r="B197" t="n">
         <v>39957.1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44667.41666666666</v>
+        <v>44667.08333333334</v>
       </c>
       <c r="B198" t="n">
         <v>40565.32</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44668.41666666666</v>
+        <v>44668.08333333334</v>
       </c>
       <c r="B199" t="n">
         <v>40384.85</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44669.41666666666</v>
+        <v>44669.08333333334</v>
       </c>
       <c r="B200" t="n">
         <v>39674.59</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44670.41666666666</v>
+        <v>44670.08333333334</v>
       </c>
       <c r="B201" t="n">
         <v>40810.1</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44671.41666666666</v>
+        <v>44671.08333333334</v>
       </c>
       <c r="B202" t="n">
         <v>41496.42</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44672.41666666666</v>
+        <v>44672.08333333334</v>
       </c>
       <c r="B203" t="n">
         <v>41375.89</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44673.41666666666</v>
+        <v>44673.08333333334</v>
       </c>
       <c r="B204" t="n">
         <v>40486.74</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44674.41666666666</v>
+        <v>44674.08333333334</v>
       </c>
       <c r="B205" t="n">
         <v>39711.92</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44675.41666666666</v>
+        <v>44675.08333333334</v>
       </c>
       <c r="B206" t="n">
         <v>39448.61</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44676.41666666666</v>
+        <v>44676.08333333334</v>
       </c>
       <c r="B207" t="n">
         <v>39460.95</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44677.41666666666</v>
+        <v>44677.08333333334</v>
       </c>
       <c r="B208" t="n">
         <v>40444.29</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44678.41666666666</v>
+        <v>44678.08333333334</v>
       </c>
       <c r="B209" t="n">
         <v>38117.16</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44679.41666666666</v>
+        <v>44679.08333333334</v>
       </c>
       <c r="B210" t="n">
         <v>39252.42</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44680.41666666666</v>
+        <v>44680.08333333334</v>
       </c>
       <c r="B211" t="n">
         <v>39748.42</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44681.41666666666</v>
+        <v>44681.08333333334</v>
       </c>
       <c r="B212" t="n">
         <v>38595.69</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44682.41666666666</v>
+        <v>44682.08333333334</v>
       </c>
       <c r="B213" t="n">
         <v>37644.98</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44683.41666666666</v>
+        <v>44683.08333333334</v>
       </c>
       <c r="B214" t="n">
         <v>38475.51</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44684.41666666666</v>
+        <v>44684.08333333334</v>
       </c>
       <c r="B215" t="n">
         <v>38507.81</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44685.41666666666</v>
+        <v>44685.08333333334</v>
       </c>
       <c r="B216" t="n">
         <v>37728.01</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44686.41666666666</v>
+        <v>44686.08333333334</v>
       </c>
       <c r="B217" t="n">
         <v>39678.74</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44687.41666666666</v>
+        <v>44687.08333333334</v>
       </c>
       <c r="B218" t="n">
         <v>36540.54</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44688.41666666666</v>
+        <v>44688.08333333334</v>
       </c>
       <c r="B219" t="n">
         <v>36010.16</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44689.41666666666</v>
+        <v>44689.08333333334</v>
       </c>
       <c r="B220" t="n">
         <v>35462.2</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44690.41666666666</v>
+        <v>44690.08333333334</v>
       </c>
       <c r="B221" t="n">
         <v>34035.88</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44691.41666666666</v>
+        <v>44691.08333333334</v>
       </c>
       <c r="B222" t="n">
         <v>30067.43</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44692.41666666666</v>
+        <v>44692.08333333334</v>
       </c>
       <c r="B223" t="n">
         <v>31004.06</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44693.41666666666</v>
+        <v>44693.08333333334</v>
       </c>
       <c r="B224" t="n">
         <v>28993.17</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44694.41666666666</v>
+        <v>44694.08333333334</v>
       </c>
       <c r="B225" t="n">
         <v>28937</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44695.41666666666</v>
+        <v>44695.08333333334</v>
       </c>
       <c r="B226" t="n">
         <v>29237.6</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44696.41666666666</v>
+        <v>44696.08333333334</v>
       </c>
       <c r="B227" t="n">
         <v>30046.96</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44697.41666666666</v>
+        <v>44697.08333333334</v>
       </c>
       <c r="B228" t="n">
         <v>31287.47</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44698.41666666666</v>
+        <v>44698.08333333334</v>
       </c>
       <c r="B229" t="n">
         <v>29838.75</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44699.41666666666</v>
+        <v>44699.08333333334</v>
       </c>
       <c r="B230" t="n">
         <v>30414.26</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44700.41666666666</v>
+        <v>44700.08333333334</v>
       </c>
       <c r="B231" t="n">
         <v>28667.77</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44701.41666666666</v>
+        <v>44701.08333333334</v>
       </c>
       <c r="B232" t="n">
         <v>30278.32</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44702.41666666666</v>
+        <v>44702.08333333334</v>
       </c>
       <c r="B233" t="n">
         <v>29168.29</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44703.41666666666</v>
+        <v>44703.08333333334</v>
       </c>
       <c r="B234" t="n">
         <v>29400.27</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44704.41666666666</v>
+        <v>44704.08333333334</v>
       </c>
       <c r="B235" t="n">
         <v>30260.6</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44705.41666666666</v>
+        <v>44705.08333333334</v>
       </c>
       <c r="B236" t="n">
         <v>29077.88</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44706.41666666666</v>
+        <v>44706.08333333334</v>
       </c>
       <c r="B237" t="n">
         <v>29627.35</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44707.41666666666</v>
+        <v>44707.08333333334</v>
       </c>
       <c r="B238" t="n">
         <v>29511.88</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44708.41666666666</v>
+        <v>44708.08333333334</v>
       </c>
       <c r="B239" t="n">
         <v>29169.81</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44709.41666666666</v>
+        <v>44709.08333333334</v>
       </c>
       <c r="B240" t="n">
         <v>28596.1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44710.41666666666</v>
+        <v>44710.08333333334</v>
       </c>
       <c r="B241" t="n">
         <v>29013.88</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44711.41666666666</v>
+        <v>44711.08333333334</v>
       </c>
       <c r="B242" t="n">
         <v>29451.01</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44712.41666666666</v>
+        <v>44712.08333333334</v>
       </c>
       <c r="B243" t="n">
         <v>31706.31</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44713.41666666666</v>
+        <v>44713.08333333334</v>
       </c>
       <c r="B244" t="n">
         <v>31781.64</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44714.41666666666</v>
+        <v>44714.08333333334</v>
       </c>
       <c r="B245" t="n">
         <v>29789.19</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44715.41666666666</v>
+        <v>44715.08333333334</v>
       </c>
       <c r="B246" t="n">
         <v>30433.56</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44716.41666666666</v>
+        <v>44716.08333333334</v>
       </c>
       <c r="B247" t="n">
         <v>29678.33</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44717.41666666666</v>
+        <v>44717.08333333334</v>
       </c>
       <c r="B248" t="n">
         <v>29839.87</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44718.41666666666</v>
+        <v>44718.08333333334</v>
       </c>
       <c r="B249" t="n">
         <v>29902.42</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44719.41666666666</v>
+        <v>44719.08333333334</v>
       </c>
       <c r="B250" t="n">
         <v>31350.82</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44720.41666666666</v>
+        <v>44720.08333333334</v>
       </c>
       <c r="B251" t="n">
         <v>31104.91</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44721.41666666666</v>
+        <v>44721.08333333334</v>
       </c>
       <c r="B252" t="n">
         <v>30187.24</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44722.41666666666</v>
+        <v>44722.08333333334</v>
       </c>
       <c r="B253" t="n">
         <v>30078.77</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44723.41666666666</v>
+        <v>44723.08333333334</v>
       </c>
       <c r="B254" t="n">
         <v>29059.17</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44724.41666666666</v>
+        <v>44724.08333333334</v>
       </c>
       <c r="B255" t="n">
         <v>28395.94</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44725.41666666666</v>
+        <v>44725.08333333334</v>
       </c>
       <c r="B256" t="n">
         <v>26546.5</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44726.41666666666</v>
+        <v>44726.08333333334</v>
       </c>
       <c r="B257" t="n">
         <v>22445.38</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44727.41666666666</v>
+        <v>44727.08333333334</v>
       </c>
       <c r="B258" t="n">
         <v>22106.02</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44728.41666666666</v>
+        <v>44728.08333333334</v>
       </c>
       <c r="B259" t="n">
         <v>22558.72</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44729.41666666666</v>
+        <v>44729.08333333334</v>
       </c>
       <c r="B260" t="n">
         <v>20375.95</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44730.41666666666</v>
+        <v>44730.08333333334</v>
       </c>
       <c r="B261" t="n">
         <v>20440.54</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44731.41666666666</v>
+        <v>44731.08333333334</v>
       </c>
       <c r="B262" t="n">
         <v>18948.38</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44732.41666666666</v>
+        <v>44732.08333333334</v>
       </c>
       <c r="B263" t="n">
         <v>20550.63</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44733.41666666666</v>
+        <v>44733.08333333334</v>
       </c>
       <c r="B264" t="n">
         <v>20551.51</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44734.41666666666</v>
+        <v>44734.08333333334</v>
       </c>
       <c r="B265" t="n">
         <v>20702.41</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44735.41666666666</v>
+        <v>44735.08333333334</v>
       </c>
       <c r="B266" t="n">
         <v>19964.18</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44736.41666666666</v>
+        <v>44736.08333333334</v>
       </c>
       <c r="B267" t="n">
         <v>21099.88</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44737.41666666666</v>
+        <v>44737.08333333334</v>
       </c>
       <c r="B268" t="n">
         <v>21223.24</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44738.41666666666</v>
+        <v>44738.08333333334</v>
       </c>
       <c r="B269" t="n">
         <v>21478.41</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44739.41666666666</v>
+        <v>44739.08333333334</v>
       </c>
       <c r="B270" t="n">
         <v>21026.47</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44740.41666666666</v>
+        <v>44740.08333333334</v>
       </c>
       <c r="B271" t="n">
         <v>20721.5</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44741.41666666666</v>
+        <v>44741.08333333334</v>
       </c>
       <c r="B272" t="n">
         <v>20253.69</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44742.41666666666</v>
+        <v>44742.08333333334</v>
       </c>
       <c r="B273" t="n">
         <v>20096.49</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44743.41666666666</v>
+        <v>44743.08333333334</v>
       </c>
       <c r="B274" t="n">
         <v>19960.39</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44744.41666666666</v>
+        <v>44744.08333333334</v>
       </c>
       <c r="B275" t="n">
         <v>19254.56</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44745.41666666666</v>
+        <v>44745.08333333334</v>
       </c>
       <c r="B276" t="n">
         <v>19228.29</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44746.41666666666</v>
+        <v>44746.08333333334</v>
       </c>
       <c r="B277" t="n">
         <v>19294.22</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44747.41666666666</v>
+        <v>44747.08333333334</v>
       </c>
       <c r="B278" t="n">
         <v>20209.38</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44748.41666666666</v>
+        <v>44748.08333333334</v>
       </c>
       <c r="B279" t="n">
         <v>20161.75</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44749.41666666666</v>
+        <v>44749.08333333334</v>
       </c>
       <c r="B280" t="n">
         <v>20543.08</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44750.41666666666</v>
+        <v>44750.08333333334</v>
       </c>
       <c r="B281" t="n">
         <v>21617.25</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44751.41666666666</v>
+        <v>44751.08333333334</v>
       </c>
       <c r="B282" t="n">
         <v>21583.22</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44752.41666666666</v>
+        <v>44752.08333333334</v>
       </c>
       <c r="B283" t="n">
         <v>21580.64</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44753.41666666666</v>
+        <v>44753.08333333334</v>
       </c>
       <c r="B284" t="n">
         <v>20845.93</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44754.41666666666</v>
+        <v>44754.08333333334</v>
       </c>
       <c r="B285" t="n">
         <v>19945.38</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44755.41666666666</v>
+        <v>44755.08333333334</v>
       </c>
       <c r="B286" t="n">
         <v>19315.26</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44756.41666666666</v>
+        <v>44756.08333333334</v>
       </c>
       <c r="B287" t="n">
         <v>20222.12</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44757.41666666666</v>
+        <v>44757.08333333334</v>
       </c>
       <c r="B288" t="n">
         <v>20575.24</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44758.41666666666</v>
+        <v>44758.08333333334</v>
       </c>
       <c r="B289" t="n">
         <v>20825.38</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44759.41666666666</v>
+        <v>44759.08333333334</v>
       </c>
       <c r="B290" t="n">
         <v>21190.9</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44760.41666666666</v>
+        <v>44760.08333333334</v>
       </c>
       <c r="B291" t="n">
         <v>20790.02</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44761.41666666666</v>
+        <v>44761.08333333334</v>
       </c>
       <c r="B292" t="n">
         <v>22441.38</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44762.41666666666</v>
+        <v>44762.08333333334</v>
       </c>
       <c r="B293" t="n">
         <v>23399.61</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44763.41666666666</v>
+        <v>44763.08333333334</v>
       </c>
       <c r="B294" t="n">
         <v>23218.69</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44764.41666666666</v>
+        <v>44764.08333333334</v>
       </c>
       <c r="B295" t="n">
         <v>23156.26</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44765.41666666666</v>
+        <v>44765.08333333334</v>
       </c>
       <c r="B296" t="n">
         <v>22690.43</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44766.41666666666</v>
+        <v>44766.08333333334</v>
       </c>
       <c r="B297" t="n">
         <v>22459.72</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44767.41666666666</v>
+        <v>44767.08333333334</v>
       </c>
       <c r="B298" t="n">
         <v>22586.23</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44768.41666666666</v>
+        <v>44768.08333333334</v>
       </c>
       <c r="B299" t="n">
         <v>21308.58</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44769.41666666666</v>
+        <v>44769.08333333334</v>
       </c>
       <c r="B300" t="n">
         <v>21263.12</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44770.41666666666</v>
+        <v>44770.08333333334</v>
       </c>
       <c r="B301" t="n">
         <v>22969.77</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44771.41666666666</v>
+        <v>44771.08333333334</v>
       </c>
       <c r="B302" t="n">
         <v>23852.54</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44772.41666666666</v>
+        <v>44772.08333333334</v>
       </c>
       <c r="B303" t="n">
         <v>23788.07</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44773.41666666666</v>
+        <v>44773.08333333334</v>
       </c>
       <c r="B304" t="n">
         <v>23648.58</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44774.41666666666</v>
+        <v>44774.08333333334</v>
       </c>
       <c r="B305" t="n">
         <v>23304.94</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44775.41666666666</v>
+        <v>44775.08333333334</v>
       </c>
       <c r="B306" t="n">
         <v>23278.74</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44776.41666666666</v>
+        <v>44776.08333333334</v>
       </c>
       <c r="B307" t="n">
         <v>22995.62</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44777.41666666666</v>
+        <v>44777.08333333334</v>
       </c>
       <c r="B308" t="n">
         <v>22826.58</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44778.41666666666</v>
+        <v>44778.08333333334</v>
       </c>
       <c r="B309" t="n">
         <v>22627.17</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44779.41666666666</v>
+        <v>44779.08333333334</v>
       </c>
       <c r="B310" t="n">
         <v>23319.95</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44780.41666666666</v>
+        <v>44780.08333333334</v>
       </c>
       <c r="B311" t="n">
         <v>22957.86</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44781.41666666666</v>
+        <v>44781.08333333334</v>
       </c>
       <c r="B312" t="n">
         <v>23179.86</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44782.41666666666</v>
+        <v>44782.08333333334</v>
       </c>
       <c r="B313" t="n">
         <v>23816.39</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44783.41666666666</v>
+        <v>44783.08333333334</v>
       </c>
       <c r="B314" t="n">
         <v>23157.94</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44784.41666666666</v>
+        <v>44784.08333333334</v>
       </c>
       <c r="B315" t="n">
         <v>23960.8</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44785.41666666666</v>
+        <v>44785.08333333334</v>
       </c>
       <c r="B316" t="n">
         <v>23954.4</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44786.41666666666</v>
+        <v>44786.08333333334</v>
       </c>
       <c r="B317" t="n">
         <v>24417.98</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44787.41666666666</v>
+        <v>44787.08333333334</v>
       </c>
       <c r="B318" t="n">
         <v>24455.15</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44788.41666666666</v>
+        <v>44788.08333333334</v>
       </c>
       <c r="B319" t="n">
         <v>24315.41</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44789.41666666666</v>
+        <v>44789.08333333334</v>
       </c>
       <c r="B320" t="n">
         <v>24100.88</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44790.41666666666</v>
+        <v>44790.08333333334</v>
       </c>
       <c r="B321" t="n">
         <v>23862.83</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44791.41666666666</v>
+        <v>44791.08333333334</v>
       </c>
       <c r="B322" t="n">
         <v>23343.34</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44792.41666666666</v>
+        <v>44792.08333333334</v>
       </c>
       <c r="B323" t="n">
         <v>23192.52</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44793.41666666666</v>
+        <v>44793.08333333334</v>
       </c>
       <c r="B324" t="n">
         <v>20836.46</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44794.41666666666</v>
+        <v>44794.08333333334</v>
       </c>
       <c r="B325" t="n">
         <v>21144.06</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44795.41666666666</v>
+        <v>44795.08333333334</v>
       </c>
       <c r="B326" t="n">
         <v>21519.23</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44796.41666666666</v>
+        <v>44796.08333333334</v>
       </c>
       <c r="B327" t="n">
         <v>21404.18</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44797.41666666666</v>
+        <v>44797.08333333334</v>
       </c>
       <c r="B328" t="n">
         <v>21524.67</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44798.41666666666</v>
+        <v>44798.08333333334</v>
       </c>
       <c r="B329" t="n">
         <v>21368.69</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44799.41666666666</v>
+        <v>44799.08333333334</v>
       </c>
       <c r="B330" t="n">
         <v>21559.81</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44800.41666666666</v>
+        <v>44800.08333333334</v>
       </c>
       <c r="B331" t="n">
         <v>20240.68</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44801.41666666666</v>
+        <v>44801.08333333334</v>
       </c>
       <c r="B332" t="n">
         <v>20038.21</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44802.41666666666</v>
+        <v>44802.08333333334</v>
       </c>
       <c r="B333" t="n">
         <v>19553.98</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44803.41666666666</v>
+        <v>44803.08333333334</v>
       </c>
       <c r="B334" t="n">
         <v>20292.52</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44804.41666666666</v>
+        <v>44804.08333333334</v>
       </c>
       <c r="B335" t="n">
         <v>19821.28</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44805.41666666666</v>
+        <v>44805.08333333334</v>
       </c>
       <c r="B336" t="n">
         <v>20050.07</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44806.41666666666</v>
+        <v>44806.08333333334</v>
       </c>
       <c r="B337" t="n">
         <v>20130.6</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44807.41666666666</v>
+        <v>44807.08333333334</v>
       </c>
       <c r="B338" t="n">
         <v>19953.02</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44808.41666666666</v>
+        <v>44808.08333333334</v>
       </c>
       <c r="B339" t="n">
         <v>19835.06</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44809.41666666666</v>
+        <v>44809.08333333334</v>
       </c>
       <c r="B340" t="n">
         <v>20006.61</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44810.41666666666</v>
+        <v>44810.08333333334</v>
       </c>
       <c r="B341" t="n">
         <v>19794.9</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44811.41666666666</v>
+        <v>44811.08333333334</v>
       </c>
       <c r="B342" t="n">
         <v>18795.9</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44812.41666666666</v>
+        <v>44812.08333333334</v>
       </c>
       <c r="B343" t="n">
         <v>19295.25</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44813.41666666666</v>
+        <v>44813.08333333334</v>
       </c>
       <c r="B344" t="n">
         <v>19323.45</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44814.41666666666</v>
+        <v>44814.08333333334</v>
       </c>
       <c r="B345" t="n">
         <v>21373.53</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44815.41666666666</v>
+        <v>44815.08333333334</v>
       </c>
       <c r="B346" t="n">
         <v>21658.13</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44816.41666666666</v>
+        <v>44816.08333333334</v>
       </c>
       <c r="B347" t="n">
         <v>21834.42</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44817.41666666666</v>
+        <v>44817.08333333334</v>
       </c>
       <c r="B348" t="n">
         <v>22399.41</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44818.41666666666</v>
+        <v>44818.08333333334</v>
       </c>
       <c r="B349" t="n">
         <v>20174.37</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44819.41666666666</v>
+        <v>44819.08333333334</v>
       </c>
       <c r="B350" t="n">
         <v>20229.49</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44820.41666666666</v>
+        <v>44820.08333333334</v>
       </c>
       <c r="B351" t="n">
         <v>19703.79</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44821.41666666666</v>
+        <v>44821.08333333334</v>
       </c>
       <c r="B352" t="n">
         <v>19800.38</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44822.41666666666</v>
+        <v>44822.08333333334</v>
       </c>
       <c r="B353" t="n">
         <v>20117.31</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44823.41666666666</v>
+        <v>44823.08333333334</v>
       </c>
       <c r="B354" t="n">
         <v>19421.18</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44824.41666666666</v>
+        <v>44824.08333333334</v>
       </c>
       <c r="B355" t="n">
         <v>19536.8</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44825.41666666666</v>
+        <v>44825.08333333334</v>
       </c>
       <c r="B356" t="n">
         <v>18875.49</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44826.41666666666</v>
+        <v>44826.08333333334</v>
       </c>
       <c r="B357" t="n">
         <v>18463.28</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44827.41666666666</v>
+        <v>44827.08333333334</v>
       </c>
       <c r="B358" t="n">
         <v>19405.34</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44828.41666666666</v>
+        <v>44828.08333333334</v>
       </c>
       <c r="B359" t="n">
         <v>19288.92</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44829.41666666666</v>
+        <v>44829.08333333334</v>
       </c>
       <c r="B360" t="n">
         <v>18922.73</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44830.41666666666</v>
+        <v>44830.08333333334</v>
       </c>
       <c r="B361" t="n">
         <v>18807.41</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44831.41666666666</v>
+        <v>44831.08333333334</v>
       </c>
       <c r="B362" t="n">
         <v>19229.51</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44832.41666666666</v>
+        <v>44832.08333333334</v>
       </c>
       <c r="B363" t="n">
         <v>19082.54</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44833.41666666666</v>
+        <v>44833.08333333334</v>
       </c>
       <c r="B364" t="n">
         <v>19406.77</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44834.41666666666</v>
+        <v>44834.08333333334</v>
       </c>
       <c r="B365" t="n">
         <v>19596.28</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44835.41666666666</v>
+        <v>44835.08333333334</v>
       </c>
       <c r="B366" t="n">
         <v>19423.86</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44836.45833333334</v>
+        <v>44836.08333333334</v>
       </c>
       <c r="B367" t="n">
         <v>19313.69</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44837.45833333334</v>
+        <v>44837.08333333334</v>
       </c>
       <c r="B368" t="n">
         <v>19061.28</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44838.45833333334</v>
+        <v>44838.08333333334</v>
       </c>
       <c r="B369" t="n">
         <v>19633.27</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44839.45833333334</v>
+        <v>44839.08333333334</v>
       </c>
       <c r="B370" t="n">
         <v>20344.06</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44840.45833333334</v>
+        <v>44840.08333333334</v>
       </c>
       <c r="B371" t="n">
         <v>20161.99</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44841.45833333334</v>
+        <v>44841.08333333334</v>
       </c>
       <c r="B372" t="n">
         <v>19960.63</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44842.45833333334</v>
+        <v>44842.08333333334</v>
       </c>
       <c r="B373" t="n">
         <v>19533.12</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44843.45833333334</v>
+        <v>44843.08333333334</v>
       </c>
       <c r="B374" t="n">
         <v>19421.01</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44844.45833333334</v>
+        <v>44844.08333333334</v>
       </c>
       <c r="B375" t="n">
         <v>19442.08</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44845.45833333334</v>
+        <v>44845.08333333334</v>
       </c>
       <c r="B376" t="n">
         <v>19131.19</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44846.45833333334</v>
+        <v>44846.08333333334</v>
       </c>
       <c r="B377" t="n">
         <v>19057.97</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44847.45833333334</v>
+        <v>44847.08333333334</v>
       </c>
       <c r="B378" t="n">
         <v>19155.81</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44848.45833333334</v>
+        <v>44848.08333333334</v>
       </c>
       <c r="B379" t="n">
         <v>19378.24</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44849.45833333334</v>
+        <v>44849.08333333334</v>
       </c>
       <c r="B380" t="n">
         <v>19181.89</v>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44850.45833333334</v>
+        <v>44850.08333333334</v>
       </c>
       <c r="B381" t="n">
         <v>19071.81</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44851.45833333334</v>
+        <v>44851.08333333334</v>
       </c>
       <c r="B382" t="n">
         <v>19262.52</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44852.45833333334</v>
+        <v>44852.08333333334</v>
       </c>
       <c r="B383" t="n">
         <v>19549.83</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44853.45833333334</v>
+        <v>44853.08333333334</v>
       </c>
       <c r="B384" t="n">
         <v>19329.63</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44854.45833333334</v>
+        <v>44854.08333333334</v>
       </c>
       <c r="B385" t="n">
         <v>19127.11</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44855.45833333334</v>
+        <v>44855.08333333334</v>
       </c>
       <c r="B386" t="n">
         <v>19043.92</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44856.45833333334</v>
+        <v>44856.08333333334</v>
       </c>
       <c r="B387" t="n">
         <v>19169.34</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44857.45833333334</v>
+        <v>44857.08333333334</v>
       </c>
       <c r="B388" t="n">
         <v>19206.9</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44858.45833333334</v>
+        <v>44858.08333333334</v>
       </c>
       <c r="B389" t="n">
         <v>19573.54</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44859.45833333334</v>
+        <v>44859.08333333334</v>
       </c>
       <c r="B390" t="n">
         <v>19332.62</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44860.45833333334</v>
+        <v>44860.08333333334</v>
       </c>
       <c r="B391" t="n">
         <v>20089.41</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44861.45833333334</v>
+        <v>44861.08333333334</v>
       </c>
       <c r="B392" t="n">
         <v>20774.83</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44862.45833333334</v>
+        <v>44862.08333333334</v>
       </c>
       <c r="B393" t="n">
         <v>20292.45</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44863.45833333334</v>
+        <v>44863.08333333334</v>
       </c>
       <c r="B394" t="n">
         <v>20598.95</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44864.45833333334</v>
+        <v>44864.08333333334</v>
       </c>
       <c r="B395" t="n">
         <v>20819.83</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44865.45833333334</v>
+        <v>44865.04166666666</v>
       </c>
       <c r="B396" t="n">
         <v>20628.02</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44866.45833333334</v>
+        <v>44866.04166666666</v>
       </c>
       <c r="B397" t="n">
         <v>20493.23</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44867.45833333334</v>
+        <v>44867.04166666666</v>
       </c>
       <c r="B398" t="n">
         <v>20481.35</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44868.45833333334</v>
+        <v>44868.04166666666</v>
       </c>
       <c r="B399" t="n">
         <v>20152.86</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44869.45833333334</v>
+        <v>44869.04166666666</v>
       </c>
       <c r="B400" t="n">
         <v>20208.54</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44870.45833333334</v>
+        <v>44870.04166666666</v>
       </c>
       <c r="B401" t="n">
         <v>21152.19</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44871.45833333334</v>
+        <v>44871.04166666666</v>
       </c>
       <c r="B402" t="n">
         <v>21300.8</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44872.45833333334</v>
+        <v>44872.04166666666</v>
       </c>
       <c r="B403" t="n">
         <v>20906.7</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44873.45833333334</v>
+        <v>44873.04166666666</v>
       </c>
       <c r="B404" t="n">
         <v>20573</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44874.45833333334</v>
+        <v>44874.04166666666</v>
       </c>
       <c r="B405" t="n">
         <v>18544.75</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44875.45833333334</v>
+        <v>44875.04166666666</v>
       </c>
       <c r="B406" t="n">
         <v>15892.93</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44876.45833333334</v>
+        <v>44876.04166666666</v>
       </c>
       <c r="B407" t="n">
         <v>17556.68</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44877.45833333334</v>
+        <v>44877.04166666666</v>
       </c>
       <c r="B408" t="n">
         <v>16998.57</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44878.45833333334</v>
+        <v>44878.04166666666</v>
       </c>
       <c r="B409" t="n">
         <v>16777.98</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44879.45833333334</v>
+        <v>44879.04166666666</v>
       </c>
       <c r="B410" t="n">
         <v>16302.19</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44880.45833333334</v>
+        <v>44880.04166666666</v>
       </c>
       <c r="B411" t="n">
         <v>16589.69</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44881.45833333334</v>
+        <v>44881.04166666666</v>
       </c>
       <c r="B412" t="n">
         <v>16879.1</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44882.45833333334</v>
+        <v>44882.04166666666</v>
       </c>
       <c r="B413" t="n">
         <v>16651.97</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44883.45833333334</v>
+        <v>44883.04166666666</v>
       </c>
       <c r="B414" t="n">
         <v>16678.18</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44884.45833333334</v>
+        <v>44884.04166666666</v>
       </c>
       <c r="B415" t="n">
         <v>16684.05</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44885.45833333334</v>
+        <v>44885.04166666666</v>
       </c>
       <c r="B416" t="n">
         <v>16684.22</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44886.45833333334</v>
+        <v>44886.04166666666</v>
       </c>
       <c r="B417" t="n">
         <v>16253.6</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44887.45833333334</v>
+        <v>44887.04166666666</v>
       </c>
       <c r="B418" t="n">
         <v>15758.89</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44888.45833333334</v>
+        <v>44888.04166666666</v>
       </c>
       <c r="B419" t="n">
         <v>16198.75</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44889.45833333334</v>
+        <v>44889.04166666666</v>
       </c>
       <c r="B420" t="n">
         <v>16592.59</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44890.45833333334</v>
+        <v>44890.04166666666</v>
       </c>
       <c r="B421" t="n">
         <v>16587.42</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44891.45833333334</v>
+        <v>44891.04166666666</v>
       </c>
       <c r="B422" t="n">
         <v>16510.55</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44892.45833333334</v>
+        <v>44892.04166666666</v>
       </c>
       <c r="B423" t="n">
         <v>16451.83</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44893.45833333334</v>
+        <v>44893.04166666666</v>
       </c>
       <c r="B424" t="n">
         <v>16420.78</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44894.45833333334</v>
+        <v>44894.04166666666</v>
       </c>
       <c r="B425" t="n">
         <v>16207</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44895.45833333334</v>
+        <v>44895.04166666666</v>
       </c>
       <c r="B426" t="n">
         <v>16438.2</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44896.45833333334</v>
+        <v>44896.04166666666</v>
       </c>
       <c r="B427" t="n">
         <v>17168.27</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44897.45833333334</v>
+        <v>44897.04166666666</v>
       </c>
       <c r="B428" t="n">
         <v>16977.72</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44898.45833333334</v>
+        <v>44898.04166666666</v>
       </c>
       <c r="B429" t="n">
         <v>17092.77</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44899.45833333334</v>
+        <v>44899.04166666666</v>
       </c>
       <c r="B430" t="n">
         <v>16895.97</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44900.45833333334</v>
+        <v>44900.04166666666</v>
       </c>
       <c r="B431" t="n">
         <v>17109</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44901.45833333334</v>
+        <v>44901.04166666666</v>
       </c>
       <c r="B432" t="n">
         <v>16967.05</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44902.45833333334</v>
+        <v>44902.04166666666</v>
       </c>
       <c r="B433" t="n">
         <v>17090.1</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44903.45833333334</v>
+        <v>44903.04166666666</v>
       </c>
       <c r="B434" t="n">
         <v>16840.04</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44904.45833333334</v>
+        <v>44904.04166666666</v>
       </c>
       <c r="B435" t="n">
         <v>17228.56</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44905.45833333334</v>
+        <v>44905.04166666666</v>
       </c>
       <c r="B436" t="n">
         <v>17131.85</v>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44906.45833333334</v>
+        <v>44906.04166666666</v>
       </c>
       <c r="B437" t="n">
         <v>17130.32</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44907.45833333334</v>
+        <v>44907.04166666666</v>
       </c>
       <c r="B438" t="n">
         <v>17089.14</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44908.45833333334</v>
+        <v>44908.04166666666</v>
       </c>
       <c r="B439" t="n">
         <v>17213.08</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44909.45833333334</v>
+        <v>44909.04166666666</v>
       </c>
       <c r="B440" t="n">
         <v>17774.66</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44910.45833333334</v>
+        <v>44910.04166666666</v>
       </c>
       <c r="B441" t="n">
         <v>17806.08</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44911.45833333334</v>
+        <v>44911.04166666666</v>
       </c>
       <c r="B442" t="n">
         <v>17360.36</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44912.45833333334</v>
+        <v>44912.04166666666</v>
       </c>
       <c r="B443" t="n">
         <v>16634.35</v>
@@ -9313,7 +9313,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44913.45833333334</v>
+        <v>44913.04166666666</v>
       </c>
       <c r="B444" t="n">
         <v>16786.93</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44914.45833333334</v>
+        <v>44914.04166666666</v>
       </c>
       <c r="B445" t="n">
         <v>16744.57</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44915.45833333334</v>
+        <v>44915.04166666666</v>
       </c>
       <c r="B446" t="n">
         <v>16438.69</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44916.45833333334</v>
+        <v>44916.04166666666</v>
       </c>
       <c r="B447" t="n">
         <v>16900.14</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44917.45833333334</v>
+        <v>44917.04166666666</v>
       </c>
       <c r="B448" t="n">
         <v>16824.47</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44918.45833333334</v>
+        <v>44918.04166666666</v>
       </c>
       <c r="B449" t="n">
         <v>16818.25</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44919.45833333334</v>
+        <v>44919.04166666666</v>
       </c>
       <c r="B450" t="n">
         <v>16780.26</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44920.45833333334</v>
+        <v>44920.04166666666</v>
       </c>
       <c r="B451" t="n">
         <v>16840.57</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44921.45833333334</v>
+        <v>44921.04166666666</v>
       </c>
       <c r="B452" t="n">
         <v>16829.53</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44922.45833333334</v>
+        <v>44922.04166666666</v>
       </c>
       <c r="B453" t="n">
         <v>16917.32</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44923.45833333334</v>
+        <v>44923.04166666666</v>
       </c>
       <c r="B454" t="n">
         <v>16697.2</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44924.45833333334</v>
+        <v>44924.04166666666</v>
       </c>
       <c r="B455" t="n">
         <v>16539.03</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44925.45833333334</v>
+        <v>44925.04166666666</v>
       </c>
       <c r="B456" t="n">
         <v>16629.8</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44926.45833333334</v>
+        <v>44926.04166666666</v>
       </c>
       <c r="B457" t="n">
         <v>16596.97</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44927.45833333334</v>
+        <v>44927.04166666666</v>
       </c>
       <c r="B458" t="n">
         <v>16530.33</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44928.45833333334</v>
+        <v>44928.04166666666</v>
       </c>
       <c r="B459" t="n">
         <v>16613.59</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44929.45833333334</v>
+        <v>44929.04166666666</v>
       </c>
       <c r="B460" t="n">
         <v>16666.94</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44930.45833333334</v>
+        <v>44930.04166666666</v>
       </c>
       <c r="B461" t="n">
         <v>16670.41</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44931.45833333334</v>
+        <v>44931.04166666666</v>
       </c>
       <c r="B462" t="n">
         <v>16848.84</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44932.45833333334</v>
+        <v>44932.04166666666</v>
       </c>
       <c r="B463" t="n">
         <v>16825.98</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44933.45833333334</v>
+        <v>44933.04166666666</v>
       </c>
       <c r="B464" t="n">
         <v>16951.53</v>
@@ -9733,7 +9733,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44934.45833333334</v>
+        <v>44934.04166666666</v>
       </c>
       <c r="B465" t="n">
         <v>16946.8</v>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44935.45833333334</v>
+        <v>44935.04166666666</v>
       </c>
       <c r="B466" t="n">
         <v>17126.45</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44936.45833333334</v>
+        <v>44936.04166666666</v>
       </c>
       <c r="B467" t="n">
         <v>17179.19</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44937.45833333334</v>
+        <v>44937.04166666666</v>
       </c>
       <c r="B468" t="n">
         <v>17442.9</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44938.45833333334</v>
+        <v>44938.04166666666</v>
       </c>
       <c r="B469" t="n">
         <v>17946.85</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44939.45833333334</v>
+        <v>44939.04166666666</v>
       </c>
       <c r="B470" t="n">
         <v>18855.18</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44940.45833333334</v>
+        <v>44940.04166666666</v>
       </c>
       <c r="B471" t="n">
         <v>19934.34</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44941.45833333334</v>
+        <v>44941.04166666666</v>
       </c>
       <c r="B472" t="n">
         <v>20962.42</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44942.45833333334</v>
+        <v>44942.04166666666</v>
       </c>
       <c r="B473" t="n">
         <v>20877.28</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44943.45833333334</v>
+        <v>44943.04166666666</v>
       </c>
       <c r="B474" t="n">
         <v>21189.6</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44944.45833333334</v>
+        <v>44944.04166666666</v>
       </c>
       <c r="B475" t="n">
         <v>21141.05</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44945.45833333334</v>
+        <v>44945.04166666666</v>
       </c>
       <c r="B476" t="n">
         <v>20673.54</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44946.45833333334</v>
+        <v>44946.04166666666</v>
       </c>
       <c r="B477" t="n">
         <v>21083.73</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44947.45833333334</v>
+        <v>44947.04166666666</v>
       </c>
       <c r="B478" t="n">
         <v>22676.08</v>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44948.45833333334</v>
+        <v>44948.04166666666</v>
       </c>
       <c r="B479" t="n">
         <v>22787.22</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44949.45833333334</v>
+        <v>44949.04166666666</v>
       </c>
       <c r="B480" t="n">
         <v>22715.43</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44950.45833333334</v>
+        <v>44950.04166666666</v>
       </c>
       <c r="B481" t="n">
         <v>22921.4</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44951.45833333334</v>
+        <v>44951.04166666666</v>
       </c>
       <c r="B482" t="n">
         <v>22636.48</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44952.45833333334</v>
+        <v>44952.04166666666</v>
       </c>
       <c r="B483" t="n">
         <v>23068.83</v>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44953.45833333334</v>
+        <v>44953.04166666666</v>
       </c>
       <c r="B484" t="n">
         <v>23017.09</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44954.45833333334</v>
+        <v>44954.04166666666</v>
       </c>
       <c r="B485" t="n">
         <v>23080.26</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44955.45833333334</v>
+        <v>44955.04166666666</v>
       </c>
       <c r="B486" t="n">
         <v>23032.78</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44956.45833333334</v>
+        <v>44956.04166666666</v>
       </c>
       <c r="B487" t="n">
         <v>23747.5</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44957.45833333334</v>
+        <v>44957.04166666666</v>
       </c>
       <c r="B488" t="n">
         <v>22835.22</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44958.45833333334</v>
+        <v>44958.04166666666</v>
       </c>
       <c r="B489" t="n">
         <v>23134.83</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44959.45833333334</v>
+        <v>44959.04166666666</v>
       </c>
       <c r="B490" t="n">
         <v>23730.77</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44960.45833333334</v>
+        <v>44960.04166666666</v>
       </c>
       <c r="B491" t="n">
         <v>23503.23</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44961.45833333334</v>
+        <v>44961.04166666666</v>
       </c>
       <c r="B492" t="n">
         <v>23430.62</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44962.45833333334</v>
+        <v>44962.04166666666</v>
       </c>
       <c r="B493" t="n">
         <v>23330.84</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44963.45833333334</v>
+        <v>44963.04166666666</v>
       </c>
       <c r="B494" t="n">
         <v>22939.02</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44964.45833333334</v>
+        <v>44964.04166666666</v>
       </c>
       <c r="B495" t="n">
         <v>22762.97</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44965.45833333334</v>
+        <v>44965.04166666666</v>
       </c>
       <c r="B496" t="n">
         <v>23250.06</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44966.45833333334</v>
+        <v>44966.04166666666</v>
       </c>
       <c r="B497" t="n">
         <v>22966.96</v>
@@ -10393,7 +10393,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44967.45833333334</v>
+        <v>44967.04166666666</v>
       </c>
       <c r="B498" t="n">
         <v>21797.02</v>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44968.45833333334</v>
+        <v>44968.04166666666</v>
       </c>
       <c r="B499" t="n">
         <v>21633.76</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44969.45833333334</v>
+        <v>44969.04166666666</v>
       </c>
       <c r="B500" t="n">
         <v>21865.3</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44970.45833333334</v>
+        <v>44970.04166666666</v>
       </c>
       <c r="B501" t="n">
         <v>21787.57</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44971.45833333334</v>
+        <v>44971.04166666666</v>
       </c>
       <c r="B502" t="n">
         <v>21790.36</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44972.45833333334</v>
+        <v>44972.04166666666</v>
       </c>
       <c r="B503" t="n">
         <v>22209.55</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44973.45833333334</v>
+        <v>44973.04166666666</v>
       </c>
       <c r="B504" t="n">
         <v>24335.35</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44974.45833333334</v>
+        <v>44974.04166666666</v>
       </c>
       <c r="B505" t="n">
         <v>23519.6</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44975.45833333334</v>
+        <v>44975.04166666666</v>
       </c>
       <c r="B506" t="n">
         <v>24576.19</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44976.45833333334</v>
+        <v>44976.04166666666</v>
       </c>
       <c r="B507" t="n">
         <v>24637.8</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44977.45833333334</v>
+        <v>44977.04166666666</v>
       </c>
       <c r="B508" t="n">
         <v>24283.39</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44978.45833333334</v>
+        <v>44978.04166666666</v>
       </c>
       <c r="B509" t="n">
         <v>24843.1</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44979.45833333334</v>
+        <v>44979.04166666666</v>
       </c>
       <c r="B510" t="n">
         <v>24448.47</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44980.45833333334</v>
+        <v>44980.04166666666</v>
       </c>
       <c r="B511" t="n">
         <v>24187.82</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44981.45833333334</v>
+        <v>44981.04166666666</v>
       </c>
       <c r="B512" t="n">
         <v>23945.29</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44982.45833333334</v>
+        <v>44982.04166666666</v>
       </c>
       <c r="B513" t="n">
         <v>23191.08</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44983.45833333334</v>
+        <v>44983.04166666666</v>
       </c>
       <c r="B514" t="n">
         <v>23164.52</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44984.45833333334</v>
+        <v>44984.04166666666</v>
       </c>
       <c r="B515" t="n">
         <v>23559.27</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44985.45833333334</v>
+        <v>44985.04166666666</v>
       </c>
       <c r="B516" t="n">
         <v>23491.06</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44986.45833333334</v>
+        <v>44986.04166666666</v>
       </c>
       <c r="B517" t="n">
         <v>23142.91</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44987.45833333334</v>
+        <v>44987.04166666666</v>
       </c>
       <c r="B518" t="n">
         <v>23634.19</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44988.45833333334</v>
+        <v>44988.04166666666</v>
       </c>
       <c r="B519" t="n">
         <v>23468.8</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44989.45833333334</v>
+        <v>44989.04166666666</v>
       </c>
       <c r="B520" t="n">
         <v>22393.97</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44990.45833333334</v>
+        <v>44990.04166666666</v>
       </c>
       <c r="B521" t="n">
         <v>22348.79</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44991.45833333334</v>
+        <v>44991.04166666666</v>
       </c>
       <c r="B522" t="n">
         <v>22428.86</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44992.45833333334</v>
+        <v>44992.04166666666</v>
       </c>
       <c r="B523" t="n">
         <v>22415.57</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44993.45833333334</v>
+        <v>44993.04166666666</v>
       </c>
       <c r="B524" t="n">
         <v>22203.58</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44994.45833333334</v>
+        <v>44994.04166666666</v>
       </c>
       <c r="B525" t="n">
         <v>21699.33</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44995.45833333334</v>
+        <v>44995.04166666666</v>
       </c>
       <c r="B526" t="n">
         <v>20349.67</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44996.45833333334</v>
+        <v>44996.04166666666</v>
       </c>
       <c r="B527" t="n">
         <v>20222.45</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44997.45833333334</v>
+        <v>44997.04166666666</v>
       </c>
       <c r="B528" t="n">
         <v>20718.5</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44998.45833333334</v>
+        <v>44998.04166666666</v>
       </c>
       <c r="B529" t="n">
         <v>22248.46</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44999.45833333334</v>
+        <v>44999.04166666666</v>
       </c>
       <c r="B530" t="n">
         <v>24225.5</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45000.45833333334</v>
+        <v>45000.04166666666</v>
       </c>
       <c r="B531" t="n">
         <v>24759.19</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45001.45833333334</v>
+        <v>45001.04166666666</v>
       </c>
       <c r="B532" t="n">
         <v>24373.6</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45002.45833333334</v>
+        <v>45002.04166666666</v>
       </c>
       <c r="B533" t="n">
         <v>25052.31</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45003.45833333334</v>
+        <v>45003.04166666666</v>
       </c>
       <c r="B534" t="n">
         <v>27457.67</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45004.45833333334</v>
+        <v>45004.04166666666</v>
       </c>
       <c r="B535" t="n">
         <v>26984.87</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45005.45833333334</v>
+        <v>45005.04166666666</v>
       </c>
       <c r="B536" t="n">
         <v>28068.32</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45006.45833333334</v>
+        <v>45006.04166666666</v>
       </c>
       <c r="B537" t="n">
         <v>27803.43</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45007.45833333334</v>
+        <v>45007.04166666666</v>
       </c>
       <c r="B538" t="n">
         <v>28185.77</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45008.45833333334</v>
+        <v>45008.04166666666</v>
       </c>
       <c r="B539" t="n">
         <v>27318.69</v>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45009.45833333334</v>
+        <v>45009.04166666666</v>
       </c>
       <c r="B540" t="n">
         <v>28344.44</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45010.45833333334</v>
+        <v>45010.04166666666</v>
       </c>
       <c r="B541" t="n">
         <v>27494.34</v>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45011.45833333334</v>
+        <v>45011.04166666666</v>
       </c>
       <c r="B542" t="n">
         <v>27491.6</v>
@@ -11293,7 +11293,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45012.45833333334</v>
+        <v>45012.08333333334</v>
       </c>
       <c r="B543" t="n">
         <v>27995.81</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45013.45833333334</v>
+        <v>45013.08333333334</v>
       </c>
       <c r="B544" t="n">
         <v>27140.74</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45014.45833333334</v>
+        <v>45014.08333333334</v>
       </c>
       <c r="B545" t="n">
         <v>27276.35</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45015.45833333334</v>
+        <v>45015.08333333334</v>
       </c>
       <c r="B546" t="n">
         <v>28360.29</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45016.45833333334</v>
+        <v>45016.08333333334</v>
       </c>
       <c r="B547" t="n">
         <v>28017.76</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45017.45833333334</v>
+        <v>45017.08333333334</v>
       </c>
       <c r="B548" t="n">
         <v>28476.44</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45018.41666666666</v>
+        <v>45018.08333333334</v>
       </c>
       <c r="B549" t="n">
         <v>28469.51</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45019.41666666666</v>
+        <v>45019.08333333334</v>
       </c>
       <c r="B550" t="n">
         <v>28187.21</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45020.41666666666</v>
+        <v>45020.08333333334</v>
       </c>
       <c r="B551" t="n">
         <v>27809.95</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45021.41666666666</v>
+        <v>45021.08333333334</v>
       </c>
       <c r="B552" t="n">
         <v>28176.04</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45022.41666666666</v>
+        <v>45022.08333333334</v>
       </c>
       <c r="B553" t="n">
         <v>28179.83</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45023.41666666666</v>
+        <v>45023.08333333334</v>
       </c>
       <c r="B554" t="n">
         <v>28054.16</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45024.41666666666</v>
+        <v>45024.08333333334</v>
       </c>
       <c r="B555" t="n">
         <v>27928.86</v>
@@ -11553,7 +11553,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45025.41666666666</v>
+        <v>45025.08333333334</v>
       </c>
       <c r="B556" t="n">
         <v>27959.95</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45026.41666666666</v>
+        <v>45026.08333333334</v>
       </c>
       <c r="B557" t="n">
         <v>28343.16</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45027.41666666666</v>
+        <v>45027.08333333334</v>
       </c>
       <c r="B558" t="n">
         <v>29655.9</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45028.41666666666</v>
+        <v>45028.08333333334</v>
       </c>
       <c r="B559" t="n">
         <v>30233.95</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45029.41666666666</v>
+        <v>45029.08333333334</v>
       </c>
       <c r="B560" t="n">
         <v>29908.39</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45030.41666666666</v>
+        <v>45030.08333333334</v>
       </c>
       <c r="B561" t="n">
         <v>30409.77</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45031.41666666666</v>
+        <v>45031.08333333334</v>
       </c>
       <c r="B562" t="n">
         <v>30495.41</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45032.41666666666</v>
+        <v>45032.08333333334</v>
       </c>
       <c r="B563" t="n">
         <v>30323.78</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45033.41666666666</v>
+        <v>45033.08333333334</v>
       </c>
       <c r="B564" t="n">
         <v>30324.12</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45034.41666666666</v>
+        <v>45034.08333333334</v>
       </c>
       <c r="B565" t="n">
         <v>29451.47</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45035.41666666666</v>
+        <v>45035.08333333334</v>
       </c>
       <c r="B566" t="n">
         <v>30392.64</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45036.41666666666</v>
+        <v>45036.08333333334</v>
       </c>
       <c r="B567" t="n">
         <v>28819.72</v>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45037.41666666666</v>
+        <v>45037.08333333334</v>
       </c>
       <c r="B568" t="n">
         <v>28250.35</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45038.41666666666</v>
+        <v>45038.08333333334</v>
       </c>
       <c r="B569" t="n">
         <v>27263.69</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45039.41666666666</v>
+        <v>45039.08333333334</v>
       </c>
       <c r="B570" t="n">
         <v>27823.46</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45040.41666666666</v>
+        <v>45040.08333333334</v>
       </c>
       <c r="B571" t="n">
         <v>27596.46</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45041.41666666666</v>
+        <v>45041.08333333334</v>
       </c>
       <c r="B572" t="n">
         <v>27522.43</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45042.41666666666</v>
+        <v>45042.08333333334</v>
       </c>
       <c r="B573" t="n">
         <v>28308.65</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45043.41666666666</v>
+        <v>45043.08333333334</v>
       </c>
       <c r="B574" t="n">
         <v>28431.79</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45044.41666666666</v>
+        <v>45044.08333333334</v>
       </c>
       <c r="B575" t="n">
         <v>29484.73</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45045.41666666666</v>
+        <v>45045.08333333334</v>
       </c>
       <c r="B576" t="n">
         <v>29338.13</v>
@@ -11973,7 +11973,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45046.41666666666</v>
+        <v>45046.08333333334</v>
       </c>
       <c r="B577" t="n">
         <v>29252.33</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45047.41666666666</v>
+        <v>45047.08333333334</v>
       </c>
       <c r="B578" t="n">
         <v>29250.13</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45048.41666666666</v>
+        <v>45048.08333333334</v>
       </c>
       <c r="B579" t="n">
         <v>28086.08</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45049.41666666666</v>
+        <v>45049.08333333334</v>
       </c>
       <c r="B580" t="n">
         <v>28698.78</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45050.41666666666</v>
+        <v>45050.08333333334</v>
       </c>
       <c r="B581" t="n">
         <v>29046.46</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45051.41666666666</v>
+        <v>45051.08333333334</v>
       </c>
       <c r="B582" t="n">
         <v>28872.99</v>
@@ -12093,7 +12093,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45052.41666666666</v>
+        <v>45052.08333333334</v>
       </c>
       <c r="B583" t="n">
         <v>29552.32</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45053.41666666666</v>
+        <v>45053.08333333334</v>
       </c>
       <c r="B584" t="n">
         <v>28961.42</v>
@@ -12133,7 +12133,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45054.41666666666</v>
+        <v>45054.08333333334</v>
       </c>
       <c r="B585" t="n">
         <v>28596.43</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45055.41666666666</v>
+        <v>45055.08333333334</v>
       </c>
       <c r="B586" t="n">
         <v>27808.47</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45056.41666666666</v>
+        <v>45056.08333333334</v>
       </c>
       <c r="B587" t="n">
         <v>27649.6</v>
@@ -12193,7 +12193,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45057.41666666666</v>
+        <v>45057.08333333334</v>
       </c>
       <c r="B588" t="n">
         <v>27621.53</v>
@@ -12213,7 +12213,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45058.41666666666</v>
+        <v>45058.08333333334</v>
       </c>
       <c r="B589" t="n">
         <v>26989.42</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45059.41666666666</v>
+        <v>45059.08333333334</v>
       </c>
       <c r="B590" t="n">
         <v>26811.45</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45060.41666666666</v>
+        <v>45060.08333333334</v>
       </c>
       <c r="B591" t="n">
         <v>26794.1</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45061.41666666666</v>
+        <v>45061.08333333334</v>
       </c>
       <c r="B592" t="n">
         <v>26931.05</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45062.41666666666</v>
+        <v>45062.08333333334</v>
       </c>
       <c r="B593" t="n">
         <v>27171.37</v>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45063.41666666666</v>
+        <v>45063.08333333334</v>
       </c>
       <c r="B594" t="n">
         <v>27042.18</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45064.41666666666</v>
+        <v>45064.08333333334</v>
       </c>
       <c r="B595" t="n">
         <v>27413.52</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45065.41666666666</v>
+        <v>45065.08333333334</v>
       </c>
       <c r="B596" t="n">
         <v>26830.41</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45066.41666666666</v>
+        <v>45066.08333333334</v>
       </c>
       <c r="B597" t="n">
         <v>26894.17</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45067.41666666666</v>
+        <v>45067.08333333334</v>
       </c>
       <c r="B598" t="n">
         <v>27118.52</v>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45068.41666666666</v>
+        <v>45068.08333333334</v>
       </c>
       <c r="B599" t="n">
         <v>26753.38</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45069.41666666666</v>
+        <v>45069.08333333334</v>
       </c>
       <c r="B600" t="n">
         <v>26858.37</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45070.41666666666</v>
+        <v>45070.08333333334</v>
       </c>
       <c r="B601" t="n">
         <v>27226.84</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45071.41666666666</v>
+        <v>45071.08333333334</v>
       </c>
       <c r="B602" t="n">
         <v>26329.56</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45072.41666666666</v>
+        <v>45072.08333333334</v>
       </c>
       <c r="B603" t="n">
         <v>26484.94</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45073.41666666666</v>
+        <v>45073.08333333334</v>
       </c>
       <c r="B604" t="n">
         <v>26720.12</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45074.41666666666</v>
+        <v>45074.08333333334</v>
       </c>
       <c r="B605" t="n">
         <v>26876.21</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45075.41666666666</v>
+        <v>45075.08333333334</v>
       </c>
       <c r="B606" t="n">
         <v>28082.01</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45076.41666666666</v>
+        <v>45076.08333333334</v>
       </c>
       <c r="B607" t="n">
         <v>27751.3</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45077.41666666666</v>
+        <v>45077.08333333334</v>
       </c>
       <c r="B608" t="n">
         <v>27705.22</v>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45078.41666666666</v>
+        <v>45078.08333333334</v>
       </c>
       <c r="B609" t="n">
         <v>27223.41</v>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45079.41666666666</v>
+        <v>45079.08333333334</v>
       </c>
       <c r="B610" t="n">
         <v>26824.03</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45080.41666666666</v>
+        <v>45080.08333333334</v>
       </c>
       <c r="B611" t="n">
         <v>27252.19</v>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45081.41666666666</v>
+        <v>45081.08333333334</v>
       </c>
       <c r="B612" t="n">
         <v>27074.82</v>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45082.41666666666</v>
+        <v>45082.08333333334</v>
       </c>
       <c r="B613" t="n">
         <v>27120.98</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45083.41666666666</v>
+        <v>45083.08333333334</v>
       </c>
       <c r="B614" t="n">
         <v>25734.58</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45084.41666666666</v>
+        <v>45084.08333333334</v>
       </c>
       <c r="B615" t="n">
         <v>27242.36</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45085.41666666666</v>
+        <v>45085.08333333334</v>
       </c>
       <c r="B616" t="n">
         <v>26350.6</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45086.41666666666</v>
+        <v>45086.08333333334</v>
       </c>
       <c r="B617" t="n">
         <v>26511.1</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45087.41666666666</v>
+        <v>45087.08333333334</v>
       </c>
       <c r="B618" t="n">
         <v>26488.73</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45088.41666666666</v>
+        <v>45088.08333333334</v>
       </c>
       <c r="B619" t="n">
         <v>25858.78</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45089.41666666666</v>
+        <v>45089.08333333334</v>
       </c>
       <c r="B620" t="n">
         <v>25939.77</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45090.41666666666</v>
+        <v>45090.08333333334</v>
       </c>
       <c r="B621" t="n">
         <v>25910.95</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45091.41666666666</v>
+        <v>45091.08333333334</v>
       </c>
       <c r="B622" t="n">
         <v>25936.51</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45092.41666666666</v>
+        <v>45092.08333333334</v>
       </c>
       <c r="B623" t="n">
         <v>25128.85</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45093.41666666666</v>
+        <v>45093.08333333334</v>
       </c>
       <c r="B624" t="n">
         <v>25581</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45094.41666666666</v>
+        <v>45094.08333333334</v>
       </c>
       <c r="B625" t="n">
         <v>26336.15</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45095.41666666666</v>
+        <v>45095.08333333334</v>
       </c>
       <c r="B626" t="n">
         <v>26516.97</v>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45096.41666666666</v>
+        <v>45096.08333333334</v>
       </c>
       <c r="B627" t="n">
         <v>26341.04</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45097.41666666666</v>
+        <v>45097.08333333334</v>
       </c>
       <c r="B628" t="n">
         <v>26844.29</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45098.41666666666</v>
+        <v>45098.08333333334</v>
       </c>
       <c r="B629" t="n">
         <v>28317.8</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45099.41666666666</v>
+        <v>45099.08333333334</v>
       </c>
       <c r="B630" t="n">
         <v>30003.41</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45100.41666666666</v>
+        <v>45100.08333333334</v>
       </c>
       <c r="B631" t="n">
         <v>29897.34</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45101.41666666666</v>
+        <v>45101.08333333334</v>
       </c>
       <c r="B632" t="n">
         <v>30703.32</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45102.41666666666</v>
+        <v>45102.08333333334</v>
       </c>
       <c r="B633" t="n">
         <v>30547.68</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45103.41666666666</v>
+        <v>45103.08333333334</v>
       </c>
       <c r="B634" t="n">
         <v>30473.86</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45104.41666666666</v>
+        <v>45104.08333333334</v>
       </c>
       <c r="B635" t="n">
         <v>30274.11</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45105.41666666666</v>
+        <v>45105.08333333334</v>
       </c>
       <c r="B636" t="n">
         <v>30700.99</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45106.41666666666</v>
+        <v>45106.08333333334</v>
       </c>
       <c r="B637" t="n">
         <v>30083.03</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45107.41666666666</v>
+        <v>45107.08333333334</v>
       </c>
       <c r="B638" t="n">
         <v>30453.04</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45108.41666666666</v>
+        <v>45108.08333333334</v>
       </c>
       <c r="B639" t="n">
         <v>30477.43</v>
@@ -13233,7 +13233,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45109.41666666666</v>
+        <v>45109.08333333334</v>
       </c>
       <c r="B640" t="n">
         <v>30593.98</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45110.41666666666</v>
+        <v>45110.08333333334</v>
       </c>
       <c r="B641" t="n">
         <v>30626.82</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45111.41666666666</v>
+        <v>45111.08333333334</v>
       </c>
       <c r="B642" t="n">
         <v>31163.68</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45112.41666666666</v>
+        <v>45112.08333333334</v>
       </c>
       <c r="B643" t="n">
         <v>30776.21</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45113.41666666666</v>
+        <v>45113.08333333334</v>
       </c>
       <c r="B644" t="n">
         <v>30506.27</v>
@@ -13333,7 +13333,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45114.41666666666</v>
+        <v>45114.08333333334</v>
       </c>
       <c r="B645" t="n">
         <v>29908.33</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45115.41666666666</v>
+        <v>45115.08333333334</v>
       </c>
       <c r="B646" t="n">
         <v>30351.86</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45116.41666666666</v>
+        <v>45116.08333333334</v>
       </c>
       <c r="B647" t="n">
         <v>30299.25</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45117.41666666666</v>
+        <v>45117.08333333334</v>
       </c>
       <c r="B648" t="n">
         <v>30175.34</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45118.41666666666</v>
+        <v>45118.08333333334</v>
       </c>
       <c r="B649" t="n">
         <v>30422.95</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45119.41666666666</v>
+        <v>45119.08333333334</v>
       </c>
       <c r="B650" t="n">
         <v>30633.89</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45120.41666666666</v>
+        <v>45120.08333333334</v>
       </c>
       <c r="B651" t="n">
         <v>30395.64</v>
@@ -13473,7 +13473,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45121.41666666666</v>
+        <v>45121.08333333334</v>
       </c>
       <c r="B652" t="n">
         <v>31483.23</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45122.41666666666</v>
+        <v>45122.08333333334</v>
       </c>
       <c r="B653" t="n">
         <v>30332.66</v>
@@ -13513,7 +13513,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45123.41666666666</v>
+        <v>45123.08333333334</v>
       </c>
       <c r="B654" t="n">
         <v>30300.6</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45124.41666666666</v>
+        <v>45124.08333333334</v>
       </c>
       <c r="B655" t="n">
         <v>30248.97</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45125.41666666666</v>
+        <v>45125.08333333334</v>
       </c>
       <c r="B656" t="n">
         <v>30152.07</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45126.41666666666</v>
+        <v>45126.08333333334</v>
       </c>
       <c r="B657" t="n">
         <v>29863.81</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45127.41666666666</v>
+        <v>45127.08333333334</v>
       </c>
       <c r="B658" t="n">
         <v>29920.35</v>
@@ -13613,7 +13613,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45128.41666666666</v>
+        <v>45128.08333333334</v>
       </c>
       <c r="B659" t="n">
         <v>29813.51</v>
@@ -13633,7 +13633,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45129.41666666666</v>
+        <v>45129.08333333334</v>
       </c>
       <c r="B660" t="n">
         <v>29917.56</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45130.41666666666</v>
+        <v>45130.08333333334</v>
       </c>
       <c r="B661" t="n">
         <v>29792.83</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45131.41666666666</v>
+        <v>45131.08333333334</v>
       </c>
       <c r="B662" t="n">
         <v>30091.5</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45132.41666666666</v>
+        <v>45132.08333333334</v>
       </c>
       <c r="B663" t="n">
         <v>29188.72</v>
@@ -13713,7 +13713,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45133.41666666666</v>
+        <v>45133.08333333334</v>
       </c>
       <c r="B664" t="n">
         <v>29235.78</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45134.41666666666</v>
+        <v>45134.08333333334</v>
       </c>
       <c r="B665" t="n">
         <v>29358</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45135.41666666666</v>
+        <v>45135.08333333334</v>
       </c>
       <c r="B666" t="n">
         <v>29224.23</v>
@@ -13773,7 +13773,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45136.41666666666</v>
+        <v>45136.08333333334</v>
       </c>
       <c r="B667" t="n">
         <v>29327.86</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45137.41666666666</v>
+        <v>45137.08333333334</v>
       </c>
       <c r="B668" t="n">
         <v>29369.79</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45138.41666666666</v>
+        <v>45138.08333333334</v>
       </c>
       <c r="B669" t="n">
         <v>29288.05</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45139.41666666666</v>
+        <v>45139.08333333334</v>
       </c>
       <c r="B670" t="n">
         <v>29237.8</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45140.41666666666</v>
+        <v>45140.08333333334</v>
       </c>
       <c r="B671" t="n">
         <v>29706.04</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45141.41666666666</v>
+        <v>45141.08333333334</v>
       </c>
       <c r="B672" t="n">
         <v>29170.04</v>
@@ -13893,7 +13893,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45142.41666666666</v>
+        <v>45142.08333333334</v>
       </c>
       <c r="B673" t="n">
         <v>29185.76</v>
@@ -13913,7 +13913,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45143.41666666666</v>
+        <v>45143.08333333334</v>
       </c>
       <c r="B674" t="n">
         <v>29085.76</v>
@@ -13933,7 +13933,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45144.41666666666</v>
+        <v>45144.08333333334</v>
       </c>
       <c r="B675" t="n">
         <v>29054.38</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45145.41666666666</v>
+        <v>45145.08333333334</v>
       </c>
       <c r="B676" t="n">
         <v>29053.25</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45146.41666666666</v>
+        <v>45146.08333333334</v>
       </c>
       <c r="B677" t="n">
         <v>29192.57</v>
@@ -13993,7 +13993,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45147.41666666666</v>
+        <v>45147.08333333334</v>
       </c>
       <c r="B678" t="n">
         <v>29775.65</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45148.41666666666</v>
+        <v>45148.08333333334</v>
       </c>
       <c r="B679" t="n">
         <v>29573.92</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45149.41666666666</v>
+        <v>45149.08333333334</v>
       </c>
       <c r="B680" t="n">
         <v>29434.01</v>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45150.41666666666</v>
+        <v>45150.08333333334</v>
       </c>
       <c r="B681" t="n">
         <v>29407.86</v>
@@ -14073,7 +14073,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45151.41666666666</v>
+        <v>45151.08333333334</v>
       </c>
       <c r="B682" t="n">
         <v>29422.42</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45152.41666666666</v>
+        <v>45152.08333333334</v>
       </c>
       <c r="B683" t="n">
         <v>29288.97</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45153.41666666666</v>
+        <v>45153.08333333334</v>
       </c>
       <c r="B684" t="n">
         <v>29419</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45154.41666666666</v>
+        <v>45154.08333333334</v>
       </c>
       <c r="B685" t="n">
         <v>29176.63</v>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45155.41666666666</v>
+        <v>45155.08333333334</v>
       </c>
       <c r="B686" t="n">
         <v>28705.2</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45156.41666666666</v>
+        <v>45156.08333333334</v>
       </c>
       <c r="B687" t="n">
         <v>26631.58</v>
@@ -14188,12 +14188,12 @@
         <v>26053.12</v>
       </c>
       <c r="F687" t="n">
-        <v>28983.00011015</v>
+        <v>28983.9245236</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45157.41666666666</v>
+        <v>45157.08333333334</v>
       </c>
       <c r="B688" t="n">
         <v>26054.35</v>
@@ -14213,7 +14213,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45158.41666666666</v>
+        <v>45158.08333333334</v>
       </c>
       <c r="B689" t="n">
         <v>26096.9</v>
@@ -14228,12 +14228,12 @@
         <v>26196.16</v>
       </c>
       <c r="F689" t="n">
-        <v>6240.6993679</v>
+        <v>6240.72203112</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45159.41666666666</v>
+        <v>45159.08333333334</v>
       </c>
       <c r="B690" t="n">
         <v>26195.97</v>
@@ -14248,12 +14248,12 @@
         <v>26129.39</v>
       </c>
       <c r="F690" t="n">
-        <v>13690.79828458</v>
+        <v>13690.79997458</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45160.41666666666</v>
+        <v>45160.08333333334</v>
       </c>
       <c r="B691" t="n">
         <v>26129.39</v>
@@ -14269,6 +14269,486 @@
       </c>
       <c r="F691" t="n">
         <v>16916.00830198</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45161.08333333334</v>
+      </c>
+      <c r="B692" t="n">
+        <v>26049.11</v>
+      </c>
+      <c r="C692" t="n">
+        <v>26809.42</v>
+      </c>
+      <c r="D692" t="n">
+        <v>25811.22</v>
+      </c>
+      <c r="E692" t="n">
+        <v>26434.24</v>
+      </c>
+      <c r="F692" t="n">
+        <v>21807.95341474</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45162.08333333334</v>
+      </c>
+      <c r="B693" t="n">
+        <v>26432.81</v>
+      </c>
+      <c r="C693" t="n">
+        <v>26572.6</v>
+      </c>
+      <c r="D693" t="n">
+        <v>25869.43</v>
+      </c>
+      <c r="E693" t="n">
+        <v>26172.62</v>
+      </c>
+      <c r="F693" t="n">
+        <v>13929.78435091</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45163.08333333334</v>
+      </c>
+      <c r="B694" t="n">
+        <v>26173.37</v>
+      </c>
+      <c r="C694" t="n">
+        <v>26295.76</v>
+      </c>
+      <c r="D694" t="n">
+        <v>25773</v>
+      </c>
+      <c r="E694" t="n">
+        <v>26056.55</v>
+      </c>
+      <c r="F694" t="n">
+        <v>15551.82938398</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45164.08333333334</v>
+      </c>
+      <c r="B695" t="n">
+        <v>26057.07</v>
+      </c>
+      <c r="C695" t="n">
+        <v>26126.94</v>
+      </c>
+      <c r="D695" t="n">
+        <v>25987.59</v>
+      </c>
+      <c r="E695" t="n">
+        <v>26016.25</v>
+      </c>
+      <c r="F695" t="n">
+        <v>2677.35216228</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45165.08333333334</v>
+      </c>
+      <c r="B696" t="n">
+        <v>26016.25</v>
+      </c>
+      <c r="C696" t="n">
+        <v>26175.94</v>
+      </c>
+      <c r="D696" t="n">
+        <v>25971.85</v>
+      </c>
+      <c r="E696" t="n">
+        <v>26097.39</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3041.39404291</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45166.08333333334</v>
+      </c>
+      <c r="B697" t="n">
+        <v>26096.39</v>
+      </c>
+      <c r="C697" t="n">
+        <v>26237.7</v>
+      </c>
+      <c r="D697" t="n">
+        <v>25866.55</v>
+      </c>
+      <c r="E697" t="n">
+        <v>26115.16</v>
+      </c>
+      <c r="F697" t="n">
+        <v>8707.76909856</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45167.08333333334</v>
+      </c>
+      <c r="B698" t="n">
+        <v>26114.91</v>
+      </c>
+      <c r="C698" t="n">
+        <v>28167.47</v>
+      </c>
+      <c r="D698" t="n">
+        <v>25924.34</v>
+      </c>
+      <c r="E698" t="n">
+        <v>27731.92</v>
+      </c>
+      <c r="F698" t="n">
+        <v>33384.97357095</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45168.08333333334</v>
+      </c>
+      <c r="B699" t="n">
+        <v>27729.96</v>
+      </c>
+      <c r="C699" t="n">
+        <v>27770.58</v>
+      </c>
+      <c r="D699" t="n">
+        <v>27016.74</v>
+      </c>
+      <c r="E699" t="n">
+        <v>27309.12</v>
+      </c>
+      <c r="F699" t="n">
+        <v>15200.92465581</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45169.08333333334</v>
+      </c>
+      <c r="B700" t="n">
+        <v>27309.87</v>
+      </c>
+      <c r="C700" t="n">
+        <v>27567.37</v>
+      </c>
+      <c r="D700" t="n">
+        <v>25680.15</v>
+      </c>
+      <c r="E700" t="n">
+        <v>25941.91</v>
+      </c>
+      <c r="F700" t="n">
+        <v>23249.04099484</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45170.08333333334</v>
+      </c>
+      <c r="B701" t="n">
+        <v>25940.2</v>
+      </c>
+      <c r="C701" t="n">
+        <v>26142.32</v>
+      </c>
+      <c r="D701" t="n">
+        <v>25328.92</v>
+      </c>
+      <c r="E701" t="n">
+        <v>25804.3</v>
+      </c>
+      <c r="F701" t="n">
+        <v>21560.95561121</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45171.08333333334</v>
+      </c>
+      <c r="B702" t="n">
+        <v>25804.98</v>
+      </c>
+      <c r="C702" t="n">
+        <v>25982.82</v>
+      </c>
+      <c r="D702" t="n">
+        <v>25744.1</v>
+      </c>
+      <c r="E702" t="n">
+        <v>25869.38</v>
+      </c>
+      <c r="F702" t="n">
+        <v>6157.48782965</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45172.08333333334</v>
+      </c>
+      <c r="B703" t="n">
+        <v>25870.88</v>
+      </c>
+      <c r="C703" t="n">
+        <v>26122.75</v>
+      </c>
+      <c r="D703" t="n">
+        <v>25811.1</v>
+      </c>
+      <c r="E703" t="n">
+        <v>25972.31</v>
+      </c>
+      <c r="F703" t="n">
+        <v>5228.1736928</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45173.08333333334</v>
+      </c>
+      <c r="B704" t="n">
+        <v>25972.81</v>
+      </c>
+      <c r="C704" t="n">
+        <v>26088.32</v>
+      </c>
+      <c r="D704" t="n">
+        <v>25640.45</v>
+      </c>
+      <c r="E704" t="n">
+        <v>25816.11</v>
+      </c>
+      <c r="F704" t="n">
+        <v>7283.76622557</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45174.08333333334</v>
+      </c>
+      <c r="B705" t="n">
+        <v>25820.11</v>
+      </c>
+      <c r="C705" t="n">
+        <v>25880.96</v>
+      </c>
+      <c r="D705" t="n">
+        <v>25570.22</v>
+      </c>
+      <c r="E705" t="n">
+        <v>25787.15</v>
+      </c>
+      <c r="F705" t="n">
+        <v>9022.18246097</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45175.08333333334</v>
+      </c>
+      <c r="B706" t="n">
+        <v>25787.07</v>
+      </c>
+      <c r="C706" t="n">
+        <v>26023.2</v>
+      </c>
+      <c r="D706" t="n">
+        <v>25393.3</v>
+      </c>
+      <c r="E706" t="n">
+        <v>25760.61</v>
+      </c>
+      <c r="F706" t="n">
+        <v>12946.39878313</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45176.08333333334</v>
+      </c>
+      <c r="B707" t="n">
+        <v>25760.83</v>
+      </c>
+      <c r="C707" t="n">
+        <v>26451.56</v>
+      </c>
+      <c r="D707" t="n">
+        <v>25611.45</v>
+      </c>
+      <c r="E707" t="n">
+        <v>26256.68</v>
+      </c>
+      <c r="F707" t="n">
+        <v>15913.08259566</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45177.08333333334</v>
+      </c>
+      <c r="B708" t="n">
+        <v>26260.72</v>
+      </c>
+      <c r="C708" t="n">
+        <v>26439.6</v>
+      </c>
+      <c r="D708" t="n">
+        <v>25655.53</v>
+      </c>
+      <c r="E708" t="n">
+        <v>25909.39</v>
+      </c>
+      <c r="F708" t="n">
+        <v>15839.26870969</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45178.08333333334</v>
+      </c>
+      <c r="B709" t="n">
+        <v>25909.16</v>
+      </c>
+      <c r="C709" t="n">
+        <v>25934.72</v>
+      </c>
+      <c r="D709" t="n">
+        <v>25801.79</v>
+      </c>
+      <c r="E709" t="n">
+        <v>25899.53</v>
+      </c>
+      <c r="F709" t="n">
+        <v>3268.78856756</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45179.08333333334</v>
+      </c>
+      <c r="B710" t="n">
+        <v>25900.53</v>
+      </c>
+      <c r="C710" t="n">
+        <v>26031.15</v>
+      </c>
+      <c r="D710" t="n">
+        <v>25589.13</v>
+      </c>
+      <c r="E710" t="n">
+        <v>25839.44</v>
+      </c>
+      <c r="F710" t="n">
+        <v>6704.76216082</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45180.08333333334</v>
+      </c>
+      <c r="B711" t="n">
+        <v>25837.44</v>
+      </c>
+      <c r="C711" t="n">
+        <v>25887.9</v>
+      </c>
+      <c r="D711" t="n">
+        <v>24915.5</v>
+      </c>
+      <c r="E711" t="n">
+        <v>25163.39</v>
+      </c>
+      <c r="F711" t="n">
+        <v>19926.61208149</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45181.08333333334</v>
+      </c>
+      <c r="B712" t="n">
+        <v>25162.38</v>
+      </c>
+      <c r="C712" t="n">
+        <v>26547.45</v>
+      </c>
+      <c r="D712" t="n">
+        <v>25135.46</v>
+      </c>
+      <c r="E712" t="n">
+        <v>25842</v>
+      </c>
+      <c r="F712" t="n">
+        <v>29123.7362787</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45182.08333333334</v>
+      </c>
+      <c r="B713" t="n">
+        <v>25842.09</v>
+      </c>
+      <c r="C713" t="n">
+        <v>26612.65</v>
+      </c>
+      <c r="D713" t="n">
+        <v>25775.61</v>
+      </c>
+      <c r="E713" t="n">
+        <v>26230.6</v>
+      </c>
+      <c r="F713" t="n">
+        <v>15437.51678097</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45183.08333333334</v>
+      </c>
+      <c r="B714" t="n">
+        <v>26231.34</v>
+      </c>
+      <c r="C714" t="n">
+        <v>26855.02</v>
+      </c>
+      <c r="D714" t="n">
+        <v>26144.21</v>
+      </c>
+      <c r="E714" t="n">
+        <v>26535.32</v>
+      </c>
+      <c r="F714" t="n">
+        <v>20123.23346273</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45184.08333333334</v>
+      </c>
+      <c r="B715" t="n">
+        <v>26535</v>
+      </c>
+      <c r="C715" t="n">
+        <v>26892.09</v>
+      </c>
+      <c r="D715" t="n">
+        <v>26229.46</v>
+      </c>
+      <c r="E715" t="n">
+        <v>26611.11</v>
+      </c>
+      <c r="F715" t="n">
+        <v>14369.5985001</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F715"/>
+  <dimension ref="A1:F753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44471.08333333334</v>
+        <v>44471.41666666666</v>
       </c>
       <c r="B2" t="n">
         <v>48172.96</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44472.08333333334</v>
+        <v>44472.45833333334</v>
       </c>
       <c r="B3" t="n">
         <v>47659.6375</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44473.08333333334</v>
+        <v>44473.45833333334</v>
       </c>
       <c r="B4" t="n">
         <v>48232.78</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44474.08333333334</v>
+        <v>44474.45833333334</v>
       </c>
       <c r="B5" t="n">
         <v>49253.8525</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44475.08333333334</v>
+        <v>44475.45833333334</v>
       </c>
       <c r="B6" t="n">
         <v>51501.8725</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44476.08333333334</v>
+        <v>44476.45833333334</v>
       </c>
       <c r="B7" t="n">
         <v>55353.0225</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44477.08333333334</v>
+        <v>44477.45833333334</v>
       </c>
       <c r="B8" t="n">
         <v>53810.2225</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44478.08333333334</v>
+        <v>44478.45833333334</v>
       </c>
       <c r="B9" t="n">
         <v>53961.75</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44479.08333333334</v>
+        <v>44479.45833333334</v>
       </c>
       <c r="B10" t="n">
         <v>54971.6475</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44480.08333333334</v>
+        <v>44480.45833333334</v>
       </c>
       <c r="B11" t="n">
         <v>54677.15</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44481.08333333334</v>
+        <v>44481.45833333334</v>
       </c>
       <c r="B12" t="n">
         <v>57487.2875</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44482.08333333334</v>
+        <v>44482.45833333334</v>
       </c>
       <c r="B13" t="n">
         <v>56004.3125</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44483.08333333334</v>
+        <v>44483.45833333334</v>
       </c>
       <c r="B14" t="n">
         <v>57379.6475</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44484.08333333334</v>
+        <v>44484.45833333334</v>
       </c>
       <c r="B15" t="n">
         <v>57359.2725</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44485.08333333334</v>
+        <v>44485.45833333334</v>
       </c>
       <c r="B16" t="n">
         <v>61688.45</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44486.08333333334</v>
+        <v>44486.45833333334</v>
       </c>
       <c r="B17" t="n">
         <v>60874.1125</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44487.08333333334</v>
+        <v>44487.45833333334</v>
       </c>
       <c r="B18" t="n">
         <v>61527.5475</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44488.08333333334</v>
+        <v>44488.45833333334</v>
       </c>
       <c r="B19" t="n">
         <v>62026.64</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44489.08333333334</v>
+        <v>44489.45833333334</v>
       </c>
       <c r="B20" t="n">
         <v>64292.1875</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44490.08333333334</v>
+        <v>44490.45833333334</v>
       </c>
       <c r="B21" t="n">
         <v>66029.0125</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44491.08333333334</v>
+        <v>44491.45833333334</v>
       </c>
       <c r="B22" t="n">
         <v>62204.89</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44492.08333333334</v>
+        <v>44492.45833333334</v>
       </c>
       <c r="B23" t="n">
         <v>60689.78</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44493.08333333334</v>
+        <v>44493.45833333334</v>
       </c>
       <c r="B24" t="n">
         <v>61301.285</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44494.08333333334</v>
+        <v>44494.45833333334</v>
       </c>
       <c r="B25" t="n">
         <v>60862.76</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44495.08333333334</v>
+        <v>44495.45833333334</v>
       </c>
       <c r="B26" t="n">
         <v>63089.0325</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44496.08333333334</v>
+        <v>44496.45833333334</v>
       </c>
       <c r="B27" t="n">
         <v>60333.04</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44497.08333333334</v>
+        <v>44497.45833333334</v>
       </c>
       <c r="B28" t="n">
         <v>58482.7425</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44498.08333333334</v>
+        <v>44498.45833333334</v>
       </c>
       <c r="B29" t="n">
         <v>60601.56</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44499.08333333334</v>
+        <v>44499.45833333334</v>
       </c>
       <c r="B30" t="n">
         <v>62274.69</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44500.08333333334</v>
+        <v>44500.45833333334</v>
       </c>
       <c r="B31" t="n">
         <v>61898.1475</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44501.04166666666</v>
+        <v>44501.45833333334</v>
       </c>
       <c r="B32" t="n">
         <v>61359.0625</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44502.04166666666</v>
+        <v>44502.45833333334</v>
       </c>
       <c r="B33" t="n">
         <v>60951.91</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44503.04166666666</v>
+        <v>44503.45833333334</v>
       </c>
       <c r="B34" t="n">
         <v>63269.015</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44504.04166666666</v>
+        <v>44504.45833333334</v>
       </c>
       <c r="B35" t="n">
         <v>62937.955</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44505.04166666666</v>
+        <v>44505.45833333334</v>
       </c>
       <c r="B36" t="n">
         <v>61443.3825</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44506.04166666666</v>
+        <v>44506.45833333334</v>
       </c>
       <c r="B37" t="n">
         <v>61008.6225</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44507.04166666666</v>
+        <v>44507.45833333334</v>
       </c>
       <c r="B38" t="n">
         <v>61539.35</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44508.04166666666</v>
+        <v>44508.45833333334</v>
       </c>
       <c r="B39" t="n">
         <v>63313.0675</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44509.04166666666</v>
+        <v>44509.45833333334</v>
       </c>
       <c r="B40" t="n">
         <v>67551.1575</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44510.04166666666</v>
+        <v>44510.45833333334</v>
       </c>
       <c r="B41" t="n">
         <v>66943.36</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44511.04166666666</v>
+        <v>44511.45833333334</v>
       </c>
       <c r="B42" t="n">
         <v>64929.27</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44512.04166666666</v>
+        <v>44512.45833333334</v>
       </c>
       <c r="B43" t="n">
         <v>64805.79</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44513.04166666666</v>
+        <v>44513.45833333334</v>
       </c>
       <c r="B44" t="n">
         <v>64147.49</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44514.04166666666</v>
+        <v>44514.45833333334</v>
       </c>
       <c r="B45" t="n">
         <v>64403.79</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44515.04166666666</v>
+        <v>44515.45833333334</v>
       </c>
       <c r="B46" t="n">
         <v>65502.4725</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44516.04166666666</v>
+        <v>44516.45833333334</v>
       </c>
       <c r="B47" t="n">
         <v>63617.945</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44517.04166666666</v>
+        <v>44517.45833333334</v>
       </c>
       <c r="B48" t="n">
         <v>60114.9425</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44518.04166666666</v>
+        <v>44518.45833333334</v>
       </c>
       <c r="B49" t="n">
         <v>60364.3125</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44519.04166666666</v>
+        <v>44519.45833333334</v>
       </c>
       <c r="B50" t="n">
         <v>56907.94</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44520.04166666666</v>
+        <v>44520.45833333334</v>
       </c>
       <c r="B51" t="n">
         <v>58241.5675</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44521.04166666666</v>
+        <v>44521.45833333334</v>
       </c>
       <c r="B52" t="n">
         <v>59734.23</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44522.04166666666</v>
+        <v>44522.45833333334</v>
       </c>
       <c r="B53" t="n">
         <v>58689.245</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44523.04166666666</v>
+        <v>44523.45833333334</v>
       </c>
       <c r="B54" t="n">
         <v>56340.57</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44524.04166666666</v>
+        <v>44524.45833333334</v>
       </c>
       <c r="B55" t="n">
         <v>57571.15</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44525.04166666666</v>
+        <v>44525.45833333334</v>
       </c>
       <c r="B56" t="n">
         <v>57167.12</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44526.04166666666</v>
+        <v>44526.45833333334</v>
       </c>
       <c r="B57" t="n">
         <v>58983.1475</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44527.04166666666</v>
+        <v>44527.45833333334</v>
       </c>
       <c r="B58" t="n">
         <v>53745.595</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44528.04166666666</v>
+        <v>44528.45833333334</v>
       </c>
       <c r="B59" t="n">
         <v>54760.62</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44529.04166666666</v>
+        <v>44529.45833333334</v>
       </c>
       <c r="B60" t="n">
         <v>57319.83</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44530.04166666666</v>
+        <v>44530.45833333334</v>
       </c>
       <c r="B61" t="n">
         <v>57838.34</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44531.04166666666</v>
+        <v>44531.45833333334</v>
       </c>
       <c r="B62" t="n">
         <v>56962.59</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44532.04166666666</v>
+        <v>44532.45833333334</v>
       </c>
       <c r="B63" t="n">
         <v>57179.74</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44533.04166666666</v>
+        <v>44533.45833333334</v>
       </c>
       <c r="B64" t="n">
         <v>56529.34</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44534.04166666666</v>
+        <v>44534.45833333334</v>
       </c>
       <c r="B65" t="n">
         <v>53687.57</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44535.04166666666</v>
+        <v>44535.45833333334</v>
       </c>
       <c r="B66" t="n">
         <v>49347.03</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44536.04166666666</v>
+        <v>44536.45833333334</v>
       </c>
       <c r="B67" t="n">
         <v>49341.93</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44537.04166666666</v>
+        <v>44537.45833333334</v>
       </c>
       <c r="B68" t="n">
         <v>50543.04</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44538.04166666666</v>
+        <v>44538.45833333334</v>
       </c>
       <c r="B69" t="n">
         <v>50619.87</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44539.04166666666</v>
+        <v>44539.45833333334</v>
       </c>
       <c r="B70" t="n">
         <v>50535.33</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44540.04166666666</v>
+        <v>44540.45833333334</v>
       </c>
       <c r="B71" t="n">
         <v>47572.78</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44541.04166666666</v>
+        <v>44541.45833333334</v>
       </c>
       <c r="B72" t="n">
         <v>47492.5</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44542.04166666666</v>
+        <v>44542.45833333334</v>
       </c>
       <c r="B73" t="n">
         <v>49418.7</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44543.04166666666</v>
+        <v>44543.45833333334</v>
       </c>
       <c r="B74" t="n">
         <v>50020.94</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44544.04166666666</v>
+        <v>44544.45833333334</v>
       </c>
       <c r="B75" t="n">
         <v>46805.64</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44545.04166666666</v>
+        <v>44545.45833333334</v>
       </c>
       <c r="B76" t="n">
         <v>48404.61</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44546.04166666666</v>
+        <v>44546.45833333334</v>
       </c>
       <c r="B77" t="n">
         <v>48910.61</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44547.04166666666</v>
+        <v>44547.45833333334</v>
       </c>
       <c r="B78" t="n">
         <v>47692.79</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44548.04166666666</v>
+        <v>44548.45833333334</v>
       </c>
       <c r="B79" t="n">
         <v>46118.38</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44549.04166666666</v>
+        <v>44549.45833333334</v>
       </c>
       <c r="B80" t="n">
         <v>46860.38</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44550.04166666666</v>
+        <v>44550.45833333334</v>
       </c>
       <c r="B81" t="n">
         <v>46589.44</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44551.04166666666</v>
+        <v>44551.45833333334</v>
       </c>
       <c r="B82" t="n">
         <v>46925.73</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44552.04166666666</v>
+        <v>44552.45833333334</v>
       </c>
       <c r="B83" t="n">
         <v>48920.62</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44553.04166666666</v>
+        <v>44553.45833333334</v>
       </c>
       <c r="B84" t="n">
         <v>48493.68</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44554.04166666666</v>
+        <v>44554.45833333334</v>
       </c>
       <c r="B85" t="n">
         <v>50804.48</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44555.04166666666</v>
+        <v>44555.45833333334</v>
       </c>
       <c r="B86" t="n">
         <v>50858.64</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44556.04166666666</v>
+        <v>44556.45833333334</v>
       </c>
       <c r="B87" t="n">
         <v>50425.83</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44557.04166666666</v>
+        <v>44557.45833333334</v>
       </c>
       <c r="B88" t="n">
         <v>50818.91</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44558.04166666666</v>
+        <v>44558.45833333334</v>
       </c>
       <c r="B89" t="n">
         <v>50610.33</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44559.04166666666</v>
+        <v>44559.45833333334</v>
       </c>
       <c r="B90" t="n">
         <v>47574.12</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44560.04166666666</v>
+        <v>44560.45833333334</v>
       </c>
       <c r="B91" t="n">
         <v>46354.91</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44561.04166666666</v>
+        <v>44561.45833333334</v>
       </c>
       <c r="B92" t="n">
         <v>47143.37</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44562.04166666666</v>
+        <v>44562.45833333334</v>
       </c>
       <c r="B93" t="n">
         <v>46252.09</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44563.04166666666</v>
+        <v>44563.45833333334</v>
       </c>
       <c r="B94" t="n">
         <v>47686.69</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44564.04166666666</v>
+        <v>44564.45833333334</v>
       </c>
       <c r="B95" t="n">
         <v>47274.71</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44565.04166666666</v>
+        <v>44565.45833333334</v>
       </c>
       <c r="B96" t="n">
         <v>46416.36</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44566.04166666666</v>
+        <v>44566.45833333334</v>
       </c>
       <c r="B97" t="n">
         <v>45890.21</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44567.04166666666</v>
+        <v>44567.45833333334</v>
       </c>
       <c r="B98" t="n">
         <v>43482.42</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44568.04166666666</v>
+        <v>44568.45833333334</v>
       </c>
       <c r="B99" t="n">
         <v>43032.41</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44569.04166666666</v>
+        <v>44569.45833333334</v>
       </c>
       <c r="B100" t="n">
         <v>41618.99</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44570.04166666666</v>
+        <v>44570.45833333334</v>
       </c>
       <c r="B101" t="n">
         <v>41666.76</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44571.04166666666</v>
+        <v>44571.45833333334</v>
       </c>
       <c r="B102" t="n">
         <v>41883.5</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44572.04166666666</v>
+        <v>44572.45833333334</v>
       </c>
       <c r="B103" t="n">
         <v>41829.85</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44573.04166666666</v>
+        <v>44573.45833333334</v>
       </c>
       <c r="B104" t="n">
         <v>42794.49</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44574.04166666666</v>
+        <v>44574.45833333334</v>
       </c>
       <c r="B105" t="n">
         <v>43921.14</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44575.04166666666</v>
+        <v>44575.45833333334</v>
       </c>
       <c r="B106" t="n">
         <v>42530</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44576.04166666666</v>
+        <v>44576.45833333334</v>
       </c>
       <c r="B107" t="n">
         <v>43062.33</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44577.04166666666</v>
+        <v>44577.45833333334</v>
       </c>
       <c r="B108" t="n">
         <v>43099.11</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44578.04166666666</v>
+        <v>44578.45833333334</v>
       </c>
       <c r="B109" t="n">
         <v>43077.48</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44579.04166666666</v>
+        <v>44579.45833333334</v>
       </c>
       <c r="B110" t="n">
         <v>42256.15</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44580.04166666666</v>
+        <v>44580.45833333334</v>
       </c>
       <c r="B111" t="n">
         <v>42385.36</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44581.04166666666</v>
+        <v>44581.45833333334</v>
       </c>
       <c r="B112" t="n">
         <v>41706.74</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44582.04166666666</v>
+        <v>44582.45833333334</v>
       </c>
       <c r="B113" t="n">
         <v>40760.06</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44583.04166666666</v>
+        <v>44583.45833333334</v>
       </c>
       <c r="B114" t="n">
         <v>36486.55</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44584.04166666666</v>
+        <v>44584.45833333334</v>
       </c>
       <c r="B115" t="n">
         <v>35141.41</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44585.04166666666</v>
+        <v>44585.45833333334</v>
       </c>
       <c r="B116" t="n">
         <v>36172.62</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44586.04166666666</v>
+        <v>44586.45833333334</v>
       </c>
       <c r="B117" t="n">
         <v>36616.82</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44587.04166666666</v>
+        <v>44587.45833333334</v>
       </c>
       <c r="B118" t="n">
         <v>36974.81</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44588.04166666666</v>
+        <v>44588.45833333334</v>
       </c>
       <c r="B119" t="n">
         <v>36879.06</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44589.04166666666</v>
+        <v>44589.45833333334</v>
       </c>
       <c r="B120" t="n">
         <v>37181.8</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44590.04166666666</v>
+        <v>44590.45833333334</v>
       </c>
       <c r="B121" t="n">
         <v>37756.65</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44591.04166666666</v>
+        <v>44591.45833333334</v>
       </c>
       <c r="B122" t="n">
         <v>38116.16</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44592.04166666666</v>
+        <v>44592.45833333334</v>
       </c>
       <c r="B123" t="n">
         <v>37913.28</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44593.04166666666</v>
+        <v>44593.45833333334</v>
       </c>
       <c r="B124" t="n">
         <v>38497.02</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44594.04166666666</v>
+        <v>44594.45833333334</v>
       </c>
       <c r="B125" t="n">
         <v>38739.08</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44595.04166666666</v>
+        <v>44595.45833333334</v>
       </c>
       <c r="B126" t="n">
         <v>36921.39</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44596.04166666666</v>
+        <v>44596.45833333334</v>
       </c>
       <c r="B127" t="n">
         <v>37325.51</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44597.04166666666</v>
+        <v>44597.45833333334</v>
       </c>
       <c r="B128" t="n">
         <v>41609.07</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44598.04166666666</v>
+        <v>44598.45833333334</v>
       </c>
       <c r="B129" t="n">
         <v>41422.08</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44599.04166666666</v>
+        <v>44599.45833333334</v>
       </c>
       <c r="B130" t="n">
         <v>42419.63</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44600.04166666666</v>
+        <v>44600.45833333334</v>
       </c>
       <c r="B131" t="n">
         <v>43879.07</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44601.04166666666</v>
+        <v>44601.45833333334</v>
       </c>
       <c r="B132" t="n">
         <v>44089.95</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44602.04166666666</v>
+        <v>44602.45833333334</v>
       </c>
       <c r="B133" t="n">
         <v>44416.64</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44603.04166666666</v>
+        <v>44603.45833333334</v>
       </c>
       <c r="B134" t="n">
         <v>43533.39</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44604.04166666666</v>
+        <v>44604.45833333334</v>
       </c>
       <c r="B135" t="n">
         <v>42394.52</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44605.04166666666</v>
+        <v>44605.45833333334</v>
       </c>
       <c r="B136" t="n">
         <v>42239.14</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44606.04166666666</v>
+        <v>44606.45833333334</v>
       </c>
       <c r="B137" t="n">
         <v>42074.56</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44607.04166666666</v>
+        <v>44607.45833333334</v>
       </c>
       <c r="B138" t="n">
         <v>42560.06</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44608.04166666666</v>
+        <v>44608.45833333334</v>
       </c>
       <c r="B139" t="n">
         <v>44574.41</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44609.04166666666</v>
+        <v>44609.45833333334</v>
       </c>
       <c r="B140" t="n">
         <v>43894.58</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44610.04166666666</v>
+        <v>44610.45833333334</v>
       </c>
       <c r="B141" t="n">
         <v>40538.77</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44611.04166666666</v>
+        <v>44611.45833333334</v>
       </c>
       <c r="B142" t="n">
         <v>39996.5</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44612.04166666666</v>
+        <v>44612.45833333334</v>
       </c>
       <c r="B143" t="n">
         <v>40101.21</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44613.04166666666</v>
+        <v>44613.45833333334</v>
       </c>
       <c r="B144" t="n">
         <v>38391.53</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44614.04166666666</v>
+        <v>44614.45833333334</v>
       </c>
       <c r="B145" t="n">
         <v>37026.12</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44615.04166666666</v>
+        <v>44615.45833333334</v>
       </c>
       <c r="B146" t="n">
         <v>38260.84</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44616.04166666666</v>
+        <v>44616.45833333334</v>
       </c>
       <c r="B147" t="n">
         <v>37262.01</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44617.04166666666</v>
+        <v>44617.45833333334</v>
       </c>
       <c r="B148" t="n">
         <v>38351.44</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44618.04166666666</v>
+        <v>44618.45833333334</v>
       </c>
       <c r="B149" t="n">
         <v>39237.21</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44619.04166666666</v>
+        <v>44619.45833333334</v>
       </c>
       <c r="B150" t="n">
         <v>39139.87</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44620.04166666666</v>
+        <v>44620.45833333334</v>
       </c>
       <c r="B151" t="n">
         <v>37712.31</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44621.04166666666</v>
+        <v>44621.45833333334</v>
       </c>
       <c r="B152" t="n">
         <v>43201.82</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44622.04166666666</v>
+        <v>44622.45833333334</v>
       </c>
       <c r="B153" t="n">
         <v>44439.96</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44623.04166666666</v>
+        <v>44623.45833333334</v>
       </c>
       <c r="B154" t="n">
         <v>43925.65</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44624.04166666666</v>
+        <v>44624.45833333334</v>
       </c>
       <c r="B155" t="n">
         <v>42467.35</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44625.04166666666</v>
+        <v>44625.45833333334</v>
       </c>
       <c r="B156" t="n">
         <v>39160.35</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44626.04166666666</v>
+        <v>44626.45833333334</v>
       </c>
       <c r="B157" t="n">
         <v>39401.93</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44627.04166666666</v>
+        <v>44627.45833333334</v>
       </c>
       <c r="B158" t="n">
         <v>38412.97</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44628.04166666666</v>
+        <v>44628.45833333334</v>
       </c>
       <c r="B159" t="n">
         <v>38000.69</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44629.04166666666</v>
+        <v>44629.45833333334</v>
       </c>
       <c r="B160" t="n">
         <v>38753.58</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44630.04166666666</v>
+        <v>44630.45833333334</v>
       </c>
       <c r="B161" t="n">
         <v>41952.6</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44631.04166666666</v>
+        <v>44631.45833333334</v>
       </c>
       <c r="B162" t="n">
         <v>39433.9</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44632.04166666666</v>
+        <v>44632.45833333334</v>
       </c>
       <c r="B163" t="n">
         <v>38734.32</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44633.04166666666</v>
+        <v>44633.45833333334</v>
       </c>
       <c r="B164" t="n">
         <v>38803.72</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44634.04166666666</v>
+        <v>44634.45833333334</v>
       </c>
       <c r="B165" t="n">
         <v>37785.75</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44635.04166666666</v>
+        <v>44635.45833333334</v>
       </c>
       <c r="B166" t="n">
         <v>39679.69</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44636.04166666666</v>
+        <v>44636.45833333334</v>
       </c>
       <c r="B167" t="n">
         <v>39307.23</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44637.04166666666</v>
+        <v>44637.45833333334</v>
       </c>
       <c r="B168" t="n">
         <v>41133.7</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44638.04166666666</v>
+        <v>44638.45833333334</v>
       </c>
       <c r="B169" t="n">
         <v>40950.66</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44639.04166666666</v>
+        <v>44639.45833333334</v>
       </c>
       <c r="B170" t="n">
         <v>41779.98</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44640.04166666666</v>
+        <v>44640.45833333334</v>
       </c>
       <c r="B171" t="n">
         <v>42229.39</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44641.04166666666</v>
+        <v>44641.45833333334</v>
       </c>
       <c r="B172" t="n">
         <v>41291.68</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44642.04166666666</v>
+        <v>44642.45833333334</v>
       </c>
       <c r="B173" t="n">
         <v>41017.81</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44643.04166666666</v>
+        <v>44643.45833333334</v>
       </c>
       <c r="B174" t="n">
         <v>42380.32</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44644.04166666666</v>
+        <v>44644.45833333334</v>
       </c>
       <c r="B175" t="n">
         <v>42906.53</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44645.04166666666</v>
+        <v>44645.45833333334</v>
       </c>
       <c r="B176" t="n">
         <v>44009.1</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44646.04166666666</v>
+        <v>44646.45833333334</v>
       </c>
       <c r="B177" t="n">
         <v>44331.57</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44647.04166666666</v>
+        <v>44647.45833333334</v>
       </c>
       <c r="B178" t="n">
         <v>44545.73</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44648.08333333334</v>
+        <v>44648.45833333334</v>
       </c>
       <c r="B179" t="n">
         <v>46852.57</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44649.08333333334</v>
+        <v>44649.45833333334</v>
       </c>
       <c r="B180" t="n">
         <v>47146.63</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44650.08333333334</v>
+        <v>44650.45833333334</v>
       </c>
       <c r="B181" t="n">
         <v>47450.46</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44651.08333333334</v>
+        <v>44651.45833333334</v>
       </c>
       <c r="B182" t="n">
         <v>47081.31</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44652.08333333334</v>
+        <v>44652.45833333334</v>
       </c>
       <c r="B183" t="n">
         <v>45520.97</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44653.08333333334</v>
+        <v>44653.45833333334</v>
       </c>
       <c r="B184" t="n">
         <v>46305.9</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44654.08333333334</v>
+        <v>44654.41666666666</v>
       </c>
       <c r="B185" t="n">
         <v>45821.98</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44655.08333333334</v>
+        <v>44655.41666666666</v>
       </c>
       <c r="B186" t="n">
         <v>46420.72</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44656.08333333334</v>
+        <v>44656.41666666666</v>
       </c>
       <c r="B187" t="n">
         <v>46580.72</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44657.08333333334</v>
+        <v>44657.41666666666</v>
       </c>
       <c r="B188" t="n">
         <v>45506.57</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44658.08333333334</v>
+        <v>44658.41666666666</v>
       </c>
       <c r="B189" t="n">
         <v>43173.92</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44659.08333333334</v>
+        <v>44659.41666666666</v>
       </c>
       <c r="B190" t="n">
         <v>43458.09</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44660.08333333334</v>
+        <v>44660.41666666666</v>
       </c>
       <c r="B191" t="n">
         <v>42267.51</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44661.08333333334</v>
+        <v>44661.41666666666</v>
       </c>
       <c r="B192" t="n">
         <v>42774.7</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44662.08333333334</v>
+        <v>44662.41666666666</v>
       </c>
       <c r="B193" t="n">
         <v>42161.99</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44663.08333333334</v>
+        <v>44663.41666666666</v>
       </c>
       <c r="B194" t="n">
         <v>39536.79</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44664.08333333334</v>
+        <v>44664.41666666666</v>
       </c>
       <c r="B195" t="n">
         <v>40090.95</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44665.08333333334</v>
+        <v>44665.41666666666</v>
       </c>
       <c r="B196" t="n">
         <v>41149.44</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44666.08333333334</v>
+        <v>44666.41666666666</v>
       </c>
       <c r="B197" t="n">
         <v>39957.1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44667.08333333334</v>
+        <v>44667.41666666666</v>
       </c>
       <c r="B198" t="n">
         <v>40565.32</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44668.08333333334</v>
+        <v>44668.41666666666</v>
       </c>
       <c r="B199" t="n">
         <v>40384.85</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44669.08333333334</v>
+        <v>44669.41666666666</v>
       </c>
       <c r="B200" t="n">
         <v>39674.59</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44670.08333333334</v>
+        <v>44670.41666666666</v>
       </c>
       <c r="B201" t="n">
         <v>40810.1</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44671.08333333334</v>
+        <v>44671.41666666666</v>
       </c>
       <c r="B202" t="n">
         <v>41496.42</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44672.08333333334</v>
+        <v>44672.41666666666</v>
       </c>
       <c r="B203" t="n">
         <v>41375.89</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44673.08333333334</v>
+        <v>44673.41666666666</v>
       </c>
       <c r="B204" t="n">
         <v>40486.74</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44674.08333333334</v>
+        <v>44674.41666666666</v>
       </c>
       <c r="B205" t="n">
         <v>39711.92</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44675.08333333334</v>
+        <v>44675.41666666666</v>
       </c>
       <c r="B206" t="n">
         <v>39448.61</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44676.08333333334</v>
+        <v>44676.41666666666</v>
       </c>
       <c r="B207" t="n">
         <v>39460.95</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44677.08333333334</v>
+        <v>44677.41666666666</v>
       </c>
       <c r="B208" t="n">
         <v>40444.29</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44678.08333333334</v>
+        <v>44678.41666666666</v>
       </c>
       <c r="B209" t="n">
         <v>38117.16</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44679.08333333334</v>
+        <v>44679.41666666666</v>
       </c>
       <c r="B210" t="n">
         <v>39252.42</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44680.08333333334</v>
+        <v>44680.41666666666</v>
       </c>
       <c r="B211" t="n">
         <v>39748.42</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44681.08333333334</v>
+        <v>44681.41666666666</v>
       </c>
       <c r="B212" t="n">
         <v>38595.69</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44682.08333333334</v>
+        <v>44682.41666666666</v>
       </c>
       <c r="B213" t="n">
         <v>37644.98</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44683.08333333334</v>
+        <v>44683.41666666666</v>
       </c>
       <c r="B214" t="n">
         <v>38475.51</v>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44684.08333333334</v>
+        <v>44684.41666666666</v>
       </c>
       <c r="B215" t="n">
         <v>38507.81</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44685.08333333334</v>
+        <v>44685.41666666666</v>
       </c>
       <c r="B216" t="n">
         <v>37728.01</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44686.08333333334</v>
+        <v>44686.41666666666</v>
       </c>
       <c r="B217" t="n">
         <v>39678.74</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44687.08333333334</v>
+        <v>44687.41666666666</v>
       </c>
       <c r="B218" t="n">
         <v>36540.54</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44688.08333333334</v>
+        <v>44688.41666666666</v>
       </c>
       <c r="B219" t="n">
         <v>36010.16</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44689.08333333334</v>
+        <v>44689.41666666666</v>
       </c>
       <c r="B220" t="n">
         <v>35462.2</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44690.08333333334</v>
+        <v>44690.41666666666</v>
       </c>
       <c r="B221" t="n">
         <v>34035.88</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44691.08333333334</v>
+        <v>44691.41666666666</v>
       </c>
       <c r="B222" t="n">
         <v>30067.43</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44692.08333333334</v>
+        <v>44692.41666666666</v>
       </c>
       <c r="B223" t="n">
         <v>31004.06</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44693.08333333334</v>
+        <v>44693.41666666666</v>
       </c>
       <c r="B224" t="n">
         <v>28993.17</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44694.08333333334</v>
+        <v>44694.41666666666</v>
       </c>
       <c r="B225" t="n">
         <v>28937</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44695.08333333334</v>
+        <v>44695.41666666666</v>
       </c>
       <c r="B226" t="n">
         <v>29237.6</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44696.08333333334</v>
+        <v>44696.41666666666</v>
       </c>
       <c r="B227" t="n">
         <v>30046.96</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44697.08333333334</v>
+        <v>44697.41666666666</v>
       </c>
       <c r="B228" t="n">
         <v>31287.47</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44698.08333333334</v>
+        <v>44698.41666666666</v>
       </c>
       <c r="B229" t="n">
         <v>29838.75</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44699.08333333334</v>
+        <v>44699.41666666666</v>
       </c>
       <c r="B230" t="n">
         <v>30414.26</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44700.08333333334</v>
+        <v>44700.41666666666</v>
       </c>
       <c r="B231" t="n">
         <v>28667.77</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44701.08333333334</v>
+        <v>44701.41666666666</v>
       </c>
       <c r="B232" t="n">
         <v>30278.32</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44702.08333333334</v>
+        <v>44702.41666666666</v>
       </c>
       <c r="B233" t="n">
         <v>29168.29</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44703.08333333334</v>
+        <v>44703.41666666666</v>
       </c>
       <c r="B234" t="n">
         <v>29400.27</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44704.08333333334</v>
+        <v>44704.41666666666</v>
       </c>
       <c r="B235" t="n">
         <v>30260.6</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44705.08333333334</v>
+        <v>44705.41666666666</v>
       </c>
       <c r="B236" t="n">
         <v>29077.88</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44706.08333333334</v>
+        <v>44706.41666666666</v>
       </c>
       <c r="B237" t="n">
         <v>29627.35</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44707.08333333334</v>
+        <v>44707.41666666666</v>
       </c>
       <c r="B238" t="n">
         <v>29511.88</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44708.08333333334</v>
+        <v>44708.41666666666</v>
       </c>
       <c r="B239" t="n">
         <v>29169.81</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44709.08333333334</v>
+        <v>44709.41666666666</v>
       </c>
       <c r="B240" t="n">
         <v>28596.1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44710.08333333334</v>
+        <v>44710.41666666666</v>
       </c>
       <c r="B241" t="n">
         <v>29013.88</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44711.08333333334</v>
+        <v>44711.41666666666</v>
       </c>
       <c r="B242" t="n">
         <v>29451.01</v>
@@ -5293,7 +5293,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44712.08333333334</v>
+        <v>44712.41666666666</v>
       </c>
       <c r="B243" t="n">
         <v>31706.31</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44713.08333333334</v>
+        <v>44713.41666666666</v>
       </c>
       <c r="B244" t="n">
         <v>31781.64</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44714.08333333334</v>
+        <v>44714.41666666666</v>
       </c>
       <c r="B245" t="n">
         <v>29789.19</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44715.08333333334</v>
+        <v>44715.41666666666</v>
       </c>
       <c r="B246" t="n">
         <v>30433.56</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44716.08333333334</v>
+        <v>44716.41666666666</v>
       </c>
       <c r="B247" t="n">
         <v>29678.33</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44717.08333333334</v>
+        <v>44717.41666666666</v>
       </c>
       <c r="B248" t="n">
         <v>29839.87</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44718.08333333334</v>
+        <v>44718.41666666666</v>
       </c>
       <c r="B249" t="n">
         <v>29902.42</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44719.08333333334</v>
+        <v>44719.41666666666</v>
       </c>
       <c r="B250" t="n">
         <v>31350.82</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44720.08333333334</v>
+        <v>44720.41666666666</v>
       </c>
       <c r="B251" t="n">
         <v>31104.91</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44721.08333333334</v>
+        <v>44721.41666666666</v>
       </c>
       <c r="B252" t="n">
         <v>30187.24</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44722.08333333334</v>
+        <v>44722.41666666666</v>
       </c>
       <c r="B253" t="n">
         <v>30078.77</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>44723.08333333334</v>
+        <v>44723.41666666666</v>
       </c>
       <c r="B254" t="n">
         <v>29059.17</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>44724.08333333334</v>
+        <v>44724.41666666666</v>
       </c>
       <c r="B255" t="n">
         <v>28395.94</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>44725.08333333334</v>
+        <v>44725.41666666666</v>
       </c>
       <c r="B256" t="n">
         <v>26546.5</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>44726.08333333334</v>
+        <v>44726.41666666666</v>
       </c>
       <c r="B257" t="n">
         <v>22445.38</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>44727.08333333334</v>
+        <v>44727.41666666666</v>
       </c>
       <c r="B258" t="n">
         <v>22106.02</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>44728.08333333334</v>
+        <v>44728.41666666666</v>
       </c>
       <c r="B259" t="n">
         <v>22558.72</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>44729.08333333334</v>
+        <v>44729.41666666666</v>
       </c>
       <c r="B260" t="n">
         <v>20375.95</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>44730.08333333334</v>
+        <v>44730.41666666666</v>
       </c>
       <c r="B261" t="n">
         <v>20440.54</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>44731.08333333334</v>
+        <v>44731.41666666666</v>
       </c>
       <c r="B262" t="n">
         <v>18948.38</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>44732.08333333334</v>
+        <v>44732.41666666666</v>
       </c>
       <c r="B263" t="n">
         <v>20550.63</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>44733.08333333334</v>
+        <v>44733.41666666666</v>
       </c>
       <c r="B264" t="n">
         <v>20551.51</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>44734.08333333334</v>
+        <v>44734.41666666666</v>
       </c>
       <c r="B265" t="n">
         <v>20702.41</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>44735.08333333334</v>
+        <v>44735.41666666666</v>
       </c>
       <c r="B266" t="n">
         <v>19964.18</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>44736.08333333334</v>
+        <v>44736.41666666666</v>
       </c>
       <c r="B267" t="n">
         <v>21099.88</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>44737.08333333334</v>
+        <v>44737.41666666666</v>
       </c>
       <c r="B268" t="n">
         <v>21223.24</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>44738.08333333334</v>
+        <v>44738.41666666666</v>
       </c>
       <c r="B269" t="n">
         <v>21478.41</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>44739.08333333334</v>
+        <v>44739.41666666666</v>
       </c>
       <c r="B270" t="n">
         <v>21026.47</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>44740.08333333334</v>
+        <v>44740.41666666666</v>
       </c>
       <c r="B271" t="n">
         <v>20721.5</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>44741.08333333334</v>
+        <v>44741.41666666666</v>
       </c>
       <c r="B272" t="n">
         <v>20253.69</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>44742.08333333334</v>
+        <v>44742.41666666666</v>
       </c>
       <c r="B273" t="n">
         <v>20096.49</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>44743.08333333334</v>
+        <v>44743.41666666666</v>
       </c>
       <c r="B274" t="n">
         <v>19960.39</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>44744.08333333334</v>
+        <v>44744.41666666666</v>
       </c>
       <c r="B275" t="n">
         <v>19254.56</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44745.08333333334</v>
+        <v>44745.41666666666</v>
       </c>
       <c r="B276" t="n">
         <v>19228.29</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44746.08333333334</v>
+        <v>44746.41666666666</v>
       </c>
       <c r="B277" t="n">
         <v>19294.22</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44747.08333333334</v>
+        <v>44747.41666666666</v>
       </c>
       <c r="B278" t="n">
         <v>20209.38</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>44748.08333333334</v>
+        <v>44748.41666666666</v>
       </c>
       <c r="B279" t="n">
         <v>20161.75</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>44749.08333333334</v>
+        <v>44749.41666666666</v>
       </c>
       <c r="B280" t="n">
         <v>20543.08</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44750.08333333334</v>
+        <v>44750.41666666666</v>
       </c>
       <c r="B281" t="n">
         <v>21617.25</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44751.08333333334</v>
+        <v>44751.41666666666</v>
       </c>
       <c r="B282" t="n">
         <v>21583.22</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>44752.08333333334</v>
+        <v>44752.41666666666</v>
       </c>
       <c r="B283" t="n">
         <v>21580.64</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44753.08333333334</v>
+        <v>44753.41666666666</v>
       </c>
       <c r="B284" t="n">
         <v>20845.93</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>44754.08333333334</v>
+        <v>44754.41666666666</v>
       </c>
       <c r="B285" t="n">
         <v>19945.38</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44755.08333333334</v>
+        <v>44755.41666666666</v>
       </c>
       <c r="B286" t="n">
         <v>19315.26</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44756.08333333334</v>
+        <v>44756.41666666666</v>
       </c>
       <c r="B287" t="n">
         <v>20222.12</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44757.08333333334</v>
+        <v>44757.41666666666</v>
       </c>
       <c r="B288" t="n">
         <v>20575.24</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44758.08333333334</v>
+        <v>44758.41666666666</v>
       </c>
       <c r="B289" t="n">
         <v>20825.38</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44759.08333333334</v>
+        <v>44759.41666666666</v>
       </c>
       <c r="B290" t="n">
         <v>21190.9</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>44760.08333333334</v>
+        <v>44760.41666666666</v>
       </c>
       <c r="B291" t="n">
         <v>20790.02</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44761.08333333334</v>
+        <v>44761.41666666666</v>
       </c>
       <c r="B292" t="n">
         <v>22441.38</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44762.08333333334</v>
+        <v>44762.41666666666</v>
       </c>
       <c r="B293" t="n">
         <v>23399.61</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>44763.08333333334</v>
+        <v>44763.41666666666</v>
       </c>
       <c r="B294" t="n">
         <v>23218.69</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44764.08333333334</v>
+        <v>44764.41666666666</v>
       </c>
       <c r="B295" t="n">
         <v>23156.26</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44765.08333333334</v>
+        <v>44765.41666666666</v>
       </c>
       <c r="B296" t="n">
         <v>22690.43</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44766.08333333334</v>
+        <v>44766.41666666666</v>
       </c>
       <c r="B297" t="n">
         <v>22459.72</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44767.08333333334</v>
+        <v>44767.41666666666</v>
       </c>
       <c r="B298" t="n">
         <v>22586.23</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44768.08333333334</v>
+        <v>44768.41666666666</v>
       </c>
       <c r="B299" t="n">
         <v>21308.58</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44769.08333333334</v>
+        <v>44769.41666666666</v>
       </c>
       <c r="B300" t="n">
         <v>21263.12</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44770.08333333334</v>
+        <v>44770.41666666666</v>
       </c>
       <c r="B301" t="n">
         <v>22969.77</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44771.08333333334</v>
+        <v>44771.41666666666</v>
       </c>
       <c r="B302" t="n">
         <v>23852.54</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44772.08333333334</v>
+        <v>44772.41666666666</v>
       </c>
       <c r="B303" t="n">
         <v>23788.07</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44773.08333333334</v>
+        <v>44773.41666666666</v>
       </c>
       <c r="B304" t="n">
         <v>23648.58</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44774.08333333334</v>
+        <v>44774.41666666666</v>
       </c>
       <c r="B305" t="n">
         <v>23304.94</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44775.08333333334</v>
+        <v>44775.41666666666</v>
       </c>
       <c r="B306" t="n">
         <v>23278.74</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44776.08333333334</v>
+        <v>44776.41666666666</v>
       </c>
       <c r="B307" t="n">
         <v>22995.62</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44777.08333333334</v>
+        <v>44777.41666666666</v>
       </c>
       <c r="B308" t="n">
         <v>22826.58</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44778.08333333334</v>
+        <v>44778.41666666666</v>
       </c>
       <c r="B309" t="n">
         <v>22627.17</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44779.08333333334</v>
+        <v>44779.41666666666</v>
       </c>
       <c r="B310" t="n">
         <v>23319.95</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44780.08333333334</v>
+        <v>44780.41666666666</v>
       </c>
       <c r="B311" t="n">
         <v>22957.86</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44781.08333333334</v>
+        <v>44781.41666666666</v>
       </c>
       <c r="B312" t="n">
         <v>23179.86</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44782.08333333334</v>
+        <v>44782.41666666666</v>
       </c>
       <c r="B313" t="n">
         <v>23816.39</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44783.08333333334</v>
+        <v>44783.41666666666</v>
       </c>
       <c r="B314" t="n">
         <v>23157.94</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44784.08333333334</v>
+        <v>44784.41666666666</v>
       </c>
       <c r="B315" t="n">
         <v>23960.8</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44785.08333333334</v>
+        <v>44785.41666666666</v>
       </c>
       <c r="B316" t="n">
         <v>23954.4</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44786.08333333334</v>
+        <v>44786.41666666666</v>
       </c>
       <c r="B317" t="n">
         <v>24417.98</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44787.08333333334</v>
+        <v>44787.41666666666</v>
       </c>
       <c r="B318" t="n">
         <v>24455.15</v>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44788.08333333334</v>
+        <v>44788.41666666666</v>
       </c>
       <c r="B319" t="n">
         <v>24315.41</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44789.08333333334</v>
+        <v>44789.41666666666</v>
       </c>
       <c r="B320" t="n">
         <v>24100.88</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44790.08333333334</v>
+        <v>44790.41666666666</v>
       </c>
       <c r="B321" t="n">
         <v>23862.83</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44791.08333333334</v>
+        <v>44791.41666666666</v>
       </c>
       <c r="B322" t="n">
         <v>23343.34</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44792.08333333334</v>
+        <v>44792.41666666666</v>
       </c>
       <c r="B323" t="n">
         <v>23192.52</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44793.08333333334</v>
+        <v>44793.41666666666</v>
       </c>
       <c r="B324" t="n">
         <v>20836.46</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44794.08333333334</v>
+        <v>44794.41666666666</v>
       </c>
       <c r="B325" t="n">
         <v>21144.06</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44795.08333333334</v>
+        <v>44795.41666666666</v>
       </c>
       <c r="B326" t="n">
         <v>21519.23</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44796.08333333334</v>
+        <v>44796.41666666666</v>
       </c>
       <c r="B327" t="n">
         <v>21404.18</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44797.08333333334</v>
+        <v>44797.41666666666</v>
       </c>
       <c r="B328" t="n">
         <v>21524.67</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44798.08333333334</v>
+        <v>44798.41666666666</v>
       </c>
       <c r="B329" t="n">
         <v>21368.69</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>44799.08333333334</v>
+        <v>44799.41666666666</v>
       </c>
       <c r="B330" t="n">
         <v>21559.81</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44800.08333333334</v>
+        <v>44800.41666666666</v>
       </c>
       <c r="B331" t="n">
         <v>20240.68</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44801.08333333334</v>
+        <v>44801.41666666666</v>
       </c>
       <c r="B332" t="n">
         <v>20038.21</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44802.08333333334</v>
+        <v>44802.41666666666</v>
       </c>
       <c r="B333" t="n">
         <v>19553.98</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44803.08333333334</v>
+        <v>44803.41666666666</v>
       </c>
       <c r="B334" t="n">
         <v>20292.52</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44804.08333333334</v>
+        <v>44804.41666666666</v>
       </c>
       <c r="B335" t="n">
         <v>19821.28</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44805.08333333334</v>
+        <v>44805.41666666666</v>
       </c>
       <c r="B336" t="n">
         <v>20050.07</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44806.08333333334</v>
+        <v>44806.41666666666</v>
       </c>
       <c r="B337" t="n">
         <v>20130.6</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44807.08333333334</v>
+        <v>44807.41666666666</v>
       </c>
       <c r="B338" t="n">
         <v>19953.02</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44808.08333333334</v>
+        <v>44808.41666666666</v>
       </c>
       <c r="B339" t="n">
         <v>19835.06</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44809.08333333334</v>
+        <v>44809.41666666666</v>
       </c>
       <c r="B340" t="n">
         <v>20006.61</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44810.08333333334</v>
+        <v>44810.41666666666</v>
       </c>
       <c r="B341" t="n">
         <v>19794.9</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44811.08333333334</v>
+        <v>44811.41666666666</v>
       </c>
       <c r="B342" t="n">
         <v>18795.9</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44812.08333333334</v>
+        <v>44812.41666666666</v>
       </c>
       <c r="B343" t="n">
         <v>19295.25</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44813.08333333334</v>
+        <v>44813.41666666666</v>
       </c>
       <c r="B344" t="n">
         <v>19323.45</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44814.08333333334</v>
+        <v>44814.41666666666</v>
       </c>
       <c r="B345" t="n">
         <v>21373.53</v>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44815.08333333334</v>
+        <v>44815.41666666666</v>
       </c>
       <c r="B346" t="n">
         <v>21658.13</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44816.08333333334</v>
+        <v>44816.41666666666</v>
       </c>
       <c r="B347" t="n">
         <v>21834.42</v>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44817.08333333334</v>
+        <v>44817.41666666666</v>
       </c>
       <c r="B348" t="n">
         <v>22399.41</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44818.08333333334</v>
+        <v>44818.41666666666</v>
       </c>
       <c r="B349" t="n">
         <v>20174.37</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>44819.08333333334</v>
+        <v>44819.41666666666</v>
       </c>
       <c r="B350" t="n">
         <v>20229.49</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>44820.08333333334</v>
+        <v>44820.41666666666</v>
       </c>
       <c r="B351" t="n">
         <v>19703.79</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>44821.08333333334</v>
+        <v>44821.41666666666</v>
       </c>
       <c r="B352" t="n">
         <v>19800.38</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>44822.08333333334</v>
+        <v>44822.41666666666</v>
       </c>
       <c r="B353" t="n">
         <v>20117.31</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>44823.08333333334</v>
+        <v>44823.41666666666</v>
       </c>
       <c r="B354" t="n">
         <v>19421.18</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>44824.08333333334</v>
+        <v>44824.41666666666</v>
       </c>
       <c r="B355" t="n">
         <v>19536.8</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44825.08333333334</v>
+        <v>44825.41666666666</v>
       </c>
       <c r="B356" t="n">
         <v>18875.49</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44826.08333333334</v>
+        <v>44826.41666666666</v>
       </c>
       <c r="B357" t="n">
         <v>18463.28</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44827.08333333334</v>
+        <v>44827.41666666666</v>
       </c>
       <c r="B358" t="n">
         <v>19405.34</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44828.08333333334</v>
+        <v>44828.41666666666</v>
       </c>
       <c r="B359" t="n">
         <v>19288.92</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>44829.08333333334</v>
+        <v>44829.41666666666</v>
       </c>
       <c r="B360" t="n">
         <v>18922.73</v>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>44830.08333333334</v>
+        <v>44830.41666666666</v>
       </c>
       <c r="B361" t="n">
         <v>18807.41</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>44831.08333333334</v>
+        <v>44831.41666666666</v>
       </c>
       <c r="B362" t="n">
         <v>19229.51</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>44832.08333333334</v>
+        <v>44832.41666666666</v>
       </c>
       <c r="B363" t="n">
         <v>19082.54</v>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>44833.08333333334</v>
+        <v>44833.41666666666</v>
       </c>
       <c r="B364" t="n">
         <v>19406.77</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>44834.08333333334</v>
+        <v>44834.41666666666</v>
       </c>
       <c r="B365" t="n">
         <v>19596.28</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44835.08333333334</v>
+        <v>44835.41666666666</v>
       </c>
       <c r="B366" t="n">
         <v>19423.86</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44836.08333333334</v>
+        <v>44836.45833333334</v>
       </c>
       <c r="B367" t="n">
         <v>19313.69</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44837.08333333334</v>
+        <v>44837.45833333334</v>
       </c>
       <c r="B368" t="n">
         <v>19061.28</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44838.08333333334</v>
+        <v>44838.45833333334</v>
       </c>
       <c r="B369" t="n">
         <v>19633.27</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44839.08333333334</v>
+        <v>44839.45833333334</v>
       </c>
       <c r="B370" t="n">
         <v>20344.06</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44840.08333333334</v>
+        <v>44840.45833333334</v>
       </c>
       <c r="B371" t="n">
         <v>20161.99</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>44841.08333333334</v>
+        <v>44841.45833333334</v>
       </c>
       <c r="B372" t="n">
         <v>19960.63</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>44842.08333333334</v>
+        <v>44842.45833333334</v>
       </c>
       <c r="B373" t="n">
         <v>19533.12</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>44843.08333333334</v>
+        <v>44843.45833333334</v>
       </c>
       <c r="B374" t="n">
         <v>19421.01</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>44844.08333333334</v>
+        <v>44844.45833333334</v>
       </c>
       <c r="B375" t="n">
         <v>19442.08</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>44845.08333333334</v>
+        <v>44845.45833333334</v>
       </c>
       <c r="B376" t="n">
         <v>19131.19</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>44846.08333333334</v>
+        <v>44846.45833333334</v>
       </c>
       <c r="B377" t="n">
         <v>19057.97</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44847.08333333334</v>
+        <v>44847.45833333334</v>
       </c>
       <c r="B378" t="n">
         <v>19155.81</v>
@@ -8013,7 +8013,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>44848.08333333334</v>
+        <v>44848.45833333334</v>
       </c>
       <c r="B379" t="n">
         <v>19378.24</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44849.08333333334</v>
+        <v>44849.45833333334</v>
       </c>
       <c r="B380" t="n">
         <v>19181.89</v>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44850.08333333334</v>
+        <v>44850.45833333334</v>
       </c>
       <c r="B381" t="n">
         <v>19071.81</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>44851.08333333334</v>
+        <v>44851.45833333334</v>
       </c>
       <c r="B382" t="n">
         <v>19262.52</v>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>44852.08333333334</v>
+        <v>44852.45833333334</v>
       </c>
       <c r="B383" t="n">
         <v>19549.83</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>44853.08333333334</v>
+        <v>44853.45833333334</v>
       </c>
       <c r="B384" t="n">
         <v>19329.63</v>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>44854.08333333334</v>
+        <v>44854.45833333334</v>
       </c>
       <c r="B385" t="n">
         <v>19127.11</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44855.08333333334</v>
+        <v>44855.45833333334</v>
       </c>
       <c r="B386" t="n">
         <v>19043.92</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>44856.08333333334</v>
+        <v>44856.45833333334</v>
       </c>
       <c r="B387" t="n">
         <v>19169.34</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44857.08333333334</v>
+        <v>44857.45833333334</v>
       </c>
       <c r="B388" t="n">
         <v>19206.9</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>44858.08333333334</v>
+        <v>44858.45833333334</v>
       </c>
       <c r="B389" t="n">
         <v>19573.54</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>44859.08333333334</v>
+        <v>44859.45833333334</v>
       </c>
       <c r="B390" t="n">
         <v>19332.62</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44860.08333333334</v>
+        <v>44860.45833333334</v>
       </c>
       <c r="B391" t="n">
         <v>20089.41</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44861.08333333334</v>
+        <v>44861.45833333334</v>
       </c>
       <c r="B392" t="n">
         <v>20774.83</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>44862.08333333334</v>
+        <v>44862.45833333334</v>
       </c>
       <c r="B393" t="n">
         <v>20292.45</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>44863.08333333334</v>
+        <v>44863.45833333334</v>
       </c>
       <c r="B394" t="n">
         <v>20598.95</v>
@@ -8333,7 +8333,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>44864.08333333334</v>
+        <v>44864.45833333334</v>
       </c>
       <c r="B395" t="n">
         <v>20819.83</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44865.04166666666</v>
+        <v>44865.45833333334</v>
       </c>
       <c r="B396" t="n">
         <v>20628.02</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>44866.04166666666</v>
+        <v>44866.45833333334</v>
       </c>
       <c r="B397" t="n">
         <v>20493.23</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44867.04166666666</v>
+        <v>44867.45833333334</v>
       </c>
       <c r="B398" t="n">
         <v>20481.35</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>44868.04166666666</v>
+        <v>44868.45833333334</v>
       </c>
       <c r="B399" t="n">
         <v>20152.86</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>44869.04166666666</v>
+        <v>44869.45833333334</v>
       </c>
       <c r="B400" t="n">
         <v>20208.54</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>44870.04166666666</v>
+        <v>44870.45833333334</v>
       </c>
       <c r="B401" t="n">
         <v>21152.19</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>44871.04166666666</v>
+        <v>44871.45833333334</v>
       </c>
       <c r="B402" t="n">
         <v>21300.8</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>44872.04166666666</v>
+        <v>44872.45833333334</v>
       </c>
       <c r="B403" t="n">
         <v>20906.7</v>
@@ -8513,7 +8513,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>44873.04166666666</v>
+        <v>44873.45833333334</v>
       </c>
       <c r="B404" t="n">
         <v>20573</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>44874.04166666666</v>
+        <v>44874.45833333334</v>
       </c>
       <c r="B405" t="n">
         <v>18544.75</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44875.04166666666</v>
+        <v>44875.45833333334</v>
       </c>
       <c r="B406" t="n">
         <v>15892.93</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>44876.04166666666</v>
+        <v>44876.45833333334</v>
       </c>
       <c r="B407" t="n">
         <v>17556.68</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>44877.04166666666</v>
+        <v>44877.45833333334</v>
       </c>
       <c r="B408" t="n">
         <v>16998.57</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>44878.04166666666</v>
+        <v>44878.45833333334</v>
       </c>
       <c r="B409" t="n">
         <v>16777.98</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>44879.04166666666</v>
+        <v>44879.45833333334</v>
       </c>
       <c r="B410" t="n">
         <v>16302.19</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>44880.04166666666</v>
+        <v>44880.45833333334</v>
       </c>
       <c r="B411" t="n">
         <v>16589.69</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>44881.04166666666</v>
+        <v>44881.45833333334</v>
       </c>
       <c r="B412" t="n">
         <v>16879.1</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>44882.04166666666</v>
+        <v>44882.45833333334</v>
       </c>
       <c r="B413" t="n">
         <v>16651.97</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>44883.04166666666</v>
+        <v>44883.45833333334</v>
       </c>
       <c r="B414" t="n">
         <v>16678.18</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>44884.04166666666</v>
+        <v>44884.45833333334</v>
       </c>
       <c r="B415" t="n">
         <v>16684.05</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>44885.04166666666</v>
+        <v>44885.45833333334</v>
       </c>
       <c r="B416" t="n">
         <v>16684.22</v>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>44886.04166666666</v>
+        <v>44886.45833333334</v>
       </c>
       <c r="B417" t="n">
         <v>16253.6</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>44887.04166666666</v>
+        <v>44887.45833333334</v>
       </c>
       <c r="B418" t="n">
         <v>15758.89</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>44888.04166666666</v>
+        <v>44888.45833333334</v>
       </c>
       <c r="B419" t="n">
         <v>16198.75</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>44889.04166666666</v>
+        <v>44889.45833333334</v>
       </c>
       <c r="B420" t="n">
         <v>16592.59</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>44890.04166666666</v>
+        <v>44890.45833333334</v>
       </c>
       <c r="B421" t="n">
         <v>16587.42</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>44891.04166666666</v>
+        <v>44891.45833333334</v>
       </c>
       <c r="B422" t="n">
         <v>16510.55</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>44892.04166666666</v>
+        <v>44892.45833333334</v>
       </c>
       <c r="B423" t="n">
         <v>16451.83</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>44893.04166666666</v>
+        <v>44893.45833333334</v>
       </c>
       <c r="B424" t="n">
         <v>16420.78</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>44894.04166666666</v>
+        <v>44894.45833333334</v>
       </c>
       <c r="B425" t="n">
         <v>16207</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>44895.04166666666</v>
+        <v>44895.45833333334</v>
       </c>
       <c r="B426" t="n">
         <v>16438.2</v>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>44896.04166666666</v>
+        <v>44896.45833333334</v>
       </c>
       <c r="B427" t="n">
         <v>17168.27</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>44897.04166666666</v>
+        <v>44897.45833333334</v>
       </c>
       <c r="B428" t="n">
         <v>16977.72</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>44898.04166666666</v>
+        <v>44898.45833333334</v>
       </c>
       <c r="B429" t="n">
         <v>17092.77</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>44899.04166666666</v>
+        <v>44899.45833333334</v>
       </c>
       <c r="B430" t="n">
         <v>16895.97</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>44900.04166666666</v>
+        <v>44900.45833333334</v>
       </c>
       <c r="B431" t="n">
         <v>17109</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>44901.04166666666</v>
+        <v>44901.45833333334</v>
       </c>
       <c r="B432" t="n">
         <v>16967.05</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>44902.04166666666</v>
+        <v>44902.45833333334</v>
       </c>
       <c r="B433" t="n">
         <v>17090.1</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>44903.04166666666</v>
+        <v>44903.45833333334</v>
       </c>
       <c r="B434" t="n">
         <v>16840.04</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>44904.04166666666</v>
+        <v>44904.45833333334</v>
       </c>
       <c r="B435" t="n">
         <v>17228.56</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>44905.04166666666</v>
+        <v>44905.45833333334</v>
       </c>
       <c r="B436" t="n">
         <v>17131.85</v>
@@ -9173,7 +9173,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>44906.04166666666</v>
+        <v>44906.45833333334</v>
       </c>
       <c r="B437" t="n">
         <v>17130.32</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>44907.04166666666</v>
+        <v>44907.45833333334</v>
       </c>
       <c r="B438" t="n">
         <v>17089.14</v>
@@ -9213,7 +9213,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>44908.04166666666</v>
+        <v>44908.45833333334</v>
       </c>
       <c r="B439" t="n">
         <v>17213.08</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>44909.04166666666</v>
+        <v>44909.45833333334</v>
       </c>
       <c r="B440" t="n">
         <v>17774.66</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>44910.04166666666</v>
+        <v>44910.45833333334</v>
       </c>
       <c r="B441" t="n">
         <v>17806.08</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>44911.04166666666</v>
+        <v>44911.45833333334</v>
       </c>
       <c r="B442" t="n">
         <v>17360.36</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>44912.04166666666</v>
+        <v>44912.45833333334</v>
       </c>
       <c r="B443" t="n">
         <v>16634.35</v>
@@ -9313,7 +9313,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>44913.04166666666</v>
+        <v>44913.45833333334</v>
       </c>
       <c r="B444" t="n">
         <v>16786.93</v>
@@ -9333,7 +9333,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>44914.04166666666</v>
+        <v>44914.45833333334</v>
       </c>
       <c r="B445" t="n">
         <v>16744.57</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>44915.04166666666</v>
+        <v>44915.45833333334</v>
       </c>
       <c r="B446" t="n">
         <v>16438.69</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>44916.04166666666</v>
+        <v>44916.45833333334</v>
       </c>
       <c r="B447" t="n">
         <v>16900.14</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>44917.04166666666</v>
+        <v>44917.45833333334</v>
       </c>
       <c r="B448" t="n">
         <v>16824.47</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44918.04166666666</v>
+        <v>44918.45833333334</v>
       </c>
       <c r="B449" t="n">
         <v>16818.25</v>
@@ -9433,7 +9433,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44919.04166666666</v>
+        <v>44919.45833333334</v>
       </c>
       <c r="B450" t="n">
         <v>16780.26</v>
@@ -9453,7 +9453,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44920.04166666666</v>
+        <v>44920.45833333334</v>
       </c>
       <c r="B451" t="n">
         <v>16840.57</v>
@@ -9473,7 +9473,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44921.04166666666</v>
+        <v>44921.45833333334</v>
       </c>
       <c r="B452" t="n">
         <v>16829.53</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44922.04166666666</v>
+        <v>44922.45833333334</v>
       </c>
       <c r="B453" t="n">
         <v>16917.32</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44923.04166666666</v>
+        <v>44923.45833333334</v>
       </c>
       <c r="B454" t="n">
         <v>16697.2</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44924.04166666666</v>
+        <v>44924.45833333334</v>
       </c>
       <c r="B455" t="n">
         <v>16539.03</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44925.04166666666</v>
+        <v>44925.45833333334</v>
       </c>
       <c r="B456" t="n">
         <v>16629.8</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44926.04166666666</v>
+        <v>44926.45833333334</v>
       </c>
       <c r="B457" t="n">
         <v>16596.97</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44927.04166666666</v>
+        <v>44927.45833333334</v>
       </c>
       <c r="B458" t="n">
         <v>16530.33</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44928.04166666666</v>
+        <v>44928.45833333334</v>
       </c>
       <c r="B459" t="n">
         <v>16613.59</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44929.04166666666</v>
+        <v>44929.45833333334</v>
       </c>
       <c r="B460" t="n">
         <v>16666.94</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44930.04166666666</v>
+        <v>44930.45833333334</v>
       </c>
       <c r="B461" t="n">
         <v>16670.41</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44931.04166666666</v>
+        <v>44931.45833333334</v>
       </c>
       <c r="B462" t="n">
         <v>16848.84</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44932.04166666666</v>
+        <v>44932.45833333334</v>
       </c>
       <c r="B463" t="n">
         <v>16825.98</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44933.04166666666</v>
+        <v>44933.45833333334</v>
       </c>
       <c r="B464" t="n">
         <v>16951.53</v>
@@ -9733,7 +9733,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44934.04166666666</v>
+        <v>44934.45833333334</v>
       </c>
       <c r="B465" t="n">
         <v>16946.8</v>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44935.04166666666</v>
+        <v>44935.45833333334</v>
       </c>
       <c r="B466" t="n">
         <v>17126.45</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44936.04166666666</v>
+        <v>44936.45833333334</v>
       </c>
       <c r="B467" t="n">
         <v>17179.19</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44937.04166666666</v>
+        <v>44937.45833333334</v>
       </c>
       <c r="B468" t="n">
         <v>17442.9</v>
@@ -9813,7 +9813,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44938.04166666666</v>
+        <v>44938.45833333334</v>
       </c>
       <c r="B469" t="n">
         <v>17946.85</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44939.04166666666</v>
+        <v>44939.45833333334</v>
       </c>
       <c r="B470" t="n">
         <v>18855.18</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44940.04166666666</v>
+        <v>44940.45833333334</v>
       </c>
       <c r="B471" t="n">
         <v>19934.34</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44941.04166666666</v>
+        <v>44941.45833333334</v>
       </c>
       <c r="B472" t="n">
         <v>20962.42</v>
@@ -9893,7 +9893,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44942.04166666666</v>
+        <v>44942.45833333334</v>
       </c>
       <c r="B473" t="n">
         <v>20877.28</v>
@@ -9913,7 +9913,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44943.04166666666</v>
+        <v>44943.45833333334</v>
       </c>
       <c r="B474" t="n">
         <v>21189.6</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44944.04166666666</v>
+        <v>44944.45833333334</v>
       </c>
       <c r="B475" t="n">
         <v>21141.05</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44945.04166666666</v>
+        <v>44945.45833333334</v>
       </c>
       <c r="B476" t="n">
         <v>20673.54</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44946.04166666666</v>
+        <v>44946.45833333334</v>
       </c>
       <c r="B477" t="n">
         <v>21083.73</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44947.04166666666</v>
+        <v>44947.45833333334</v>
       </c>
       <c r="B478" t="n">
         <v>22676.08</v>
@@ -10013,7 +10013,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44948.04166666666</v>
+        <v>44948.45833333334</v>
       </c>
       <c r="B479" t="n">
         <v>22787.22</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44949.04166666666</v>
+        <v>44949.45833333334</v>
       </c>
       <c r="B480" t="n">
         <v>22715.43</v>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44950.04166666666</v>
+        <v>44950.45833333334</v>
       </c>
       <c r="B481" t="n">
         <v>22921.4</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44951.04166666666</v>
+        <v>44951.45833333334</v>
       </c>
       <c r="B482" t="n">
         <v>22636.48</v>
@@ -10093,7 +10093,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44952.04166666666</v>
+        <v>44952.45833333334</v>
       </c>
       <c r="B483" t="n">
         <v>23068.83</v>
@@ -10113,7 +10113,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44953.04166666666</v>
+        <v>44953.45833333334</v>
       </c>
       <c r="B484" t="n">
         <v>23017.09</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44954.04166666666</v>
+        <v>44954.45833333334</v>
       </c>
       <c r="B485" t="n">
         <v>23080.26</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44955.04166666666</v>
+        <v>44955.45833333334</v>
       </c>
       <c r="B486" t="n">
         <v>23032.78</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44956.04166666666</v>
+        <v>44956.45833333334</v>
       </c>
       <c r="B487" t="n">
         <v>23747.5</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44957.04166666666</v>
+        <v>44957.45833333334</v>
       </c>
       <c r="B488" t="n">
         <v>22835.22</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44958.04166666666</v>
+        <v>44958.45833333334</v>
       </c>
       <c r="B489" t="n">
         <v>23134.83</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44959.04166666666</v>
+        <v>44959.45833333334</v>
       </c>
       <c r="B490" t="n">
         <v>23730.77</v>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44960.04166666666</v>
+        <v>44960.45833333334</v>
       </c>
       <c r="B491" t="n">
         <v>23503.23</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44961.04166666666</v>
+        <v>44961.45833333334</v>
       </c>
       <c r="B492" t="n">
         <v>23430.62</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44962.04166666666</v>
+        <v>44962.45833333334</v>
       </c>
       <c r="B493" t="n">
         <v>23330.84</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44963.04166666666</v>
+        <v>44963.45833333334</v>
       </c>
       <c r="B494" t="n">
         <v>22939.02</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44964.04166666666</v>
+        <v>44964.45833333334</v>
       </c>
       <c r="B495" t="n">
         <v>22762.97</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44965.04166666666</v>
+        <v>44965.45833333334</v>
       </c>
       <c r="B496" t="n">
         <v>23250.06</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44966.04166666666</v>
+        <v>44966.45833333334</v>
       </c>
       <c r="B497" t="n">
         <v>22966.96</v>
@@ -10393,7 +10393,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44967.04166666666</v>
+        <v>44967.45833333334</v>
       </c>
       <c r="B498" t="n">
         <v>21797.02</v>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44968.04166666666</v>
+        <v>44968.45833333334</v>
       </c>
       <c r="B499" t="n">
         <v>21633.76</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44969.04166666666</v>
+        <v>44969.45833333334</v>
       </c>
       <c r="B500" t="n">
         <v>21865.3</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44970.04166666666</v>
+        <v>44970.45833333334</v>
       </c>
       <c r="B501" t="n">
         <v>21787.57</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44971.04166666666</v>
+        <v>44971.45833333334</v>
       </c>
       <c r="B502" t="n">
         <v>21790.36</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44972.04166666666</v>
+        <v>44972.45833333334</v>
       </c>
       <c r="B503" t="n">
         <v>22209.55</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44973.04166666666</v>
+        <v>44973.45833333334</v>
       </c>
       <c r="B504" t="n">
         <v>24335.35</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44974.04166666666</v>
+        <v>44974.45833333334</v>
       </c>
       <c r="B505" t="n">
         <v>23519.6</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44975.04166666666</v>
+        <v>44975.45833333334</v>
       </c>
       <c r="B506" t="n">
         <v>24576.19</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44976.04166666666</v>
+        <v>44976.45833333334</v>
       </c>
       <c r="B507" t="n">
         <v>24637.8</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44977.04166666666</v>
+        <v>44977.45833333334</v>
       </c>
       <c r="B508" t="n">
         <v>24283.39</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44978.04166666666</v>
+        <v>44978.45833333334</v>
       </c>
       <c r="B509" t="n">
         <v>24843.1</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44979.04166666666</v>
+        <v>44979.45833333334</v>
       </c>
       <c r="B510" t="n">
         <v>24448.47</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44980.04166666666</v>
+        <v>44980.45833333334</v>
       </c>
       <c r="B511" t="n">
         <v>24187.82</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44981.04166666666</v>
+        <v>44981.45833333334</v>
       </c>
       <c r="B512" t="n">
         <v>23945.29</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44982.04166666666</v>
+        <v>44982.45833333334</v>
       </c>
       <c r="B513" t="n">
         <v>23191.08</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44983.04166666666</v>
+        <v>44983.45833333334</v>
       </c>
       <c r="B514" t="n">
         <v>23164.52</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44984.04166666666</v>
+        <v>44984.45833333334</v>
       </c>
       <c r="B515" t="n">
         <v>23559.27</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44985.04166666666</v>
+        <v>44985.45833333334</v>
       </c>
       <c r="B516" t="n">
         <v>23491.06</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44986.04166666666</v>
+        <v>44986.45833333334</v>
       </c>
       <c r="B517" t="n">
         <v>23142.91</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44987.04166666666</v>
+        <v>44987.45833333334</v>
       </c>
       <c r="B518" t="n">
         <v>23634.19</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>44988.04166666666</v>
+        <v>44988.45833333334</v>
       </c>
       <c r="B519" t="n">
         <v>23468.8</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>44989.04166666666</v>
+        <v>44989.45833333334</v>
       </c>
       <c r="B520" t="n">
         <v>22393.97</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>44990.04166666666</v>
+        <v>44990.45833333334</v>
       </c>
       <c r="B521" t="n">
         <v>22348.79</v>
@@ -10873,7 +10873,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>44991.04166666666</v>
+        <v>44991.45833333334</v>
       </c>
       <c r="B522" t="n">
         <v>22428.86</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>44992.04166666666</v>
+        <v>44992.45833333334</v>
       </c>
       <c r="B523" t="n">
         <v>22415.57</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>44993.04166666666</v>
+        <v>44993.45833333334</v>
       </c>
       <c r="B524" t="n">
         <v>22203.58</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>44994.04166666666</v>
+        <v>44994.45833333334</v>
       </c>
       <c r="B525" t="n">
         <v>21699.33</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>44995.04166666666</v>
+        <v>44995.45833333334</v>
       </c>
       <c r="B526" t="n">
         <v>20349.67</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>44996.04166666666</v>
+        <v>44996.45833333334</v>
       </c>
       <c r="B527" t="n">
         <v>20222.45</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>44997.04166666666</v>
+        <v>44997.45833333334</v>
       </c>
       <c r="B528" t="n">
         <v>20718.5</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>44998.04166666666</v>
+        <v>44998.45833333334</v>
       </c>
       <c r="B529" t="n">
         <v>22248.46</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>44999.04166666666</v>
+        <v>44999.45833333334</v>
       </c>
       <c r="B530" t="n">
         <v>24225.5</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45000.04166666666</v>
+        <v>45000.45833333334</v>
       </c>
       <c r="B531" t="n">
         <v>24759.19</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45001.04166666666</v>
+        <v>45001.45833333334</v>
       </c>
       <c r="B532" t="n">
         <v>24373.6</v>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45002.04166666666</v>
+        <v>45002.45833333334</v>
       </c>
       <c r="B533" t="n">
         <v>25052.31</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45003.04166666666</v>
+        <v>45003.45833333334</v>
       </c>
       <c r="B534" t="n">
         <v>27457.67</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45004.04166666666</v>
+        <v>45004.45833333334</v>
       </c>
       <c r="B535" t="n">
         <v>26984.87</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45005.04166666666</v>
+        <v>45005.45833333334</v>
       </c>
       <c r="B536" t="n">
         <v>28068.32</v>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45006.04166666666</v>
+        <v>45006.45833333334</v>
       </c>
       <c r="B537" t="n">
         <v>27803.43</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45007.04166666666</v>
+        <v>45007.45833333334</v>
       </c>
       <c r="B538" t="n">
         <v>28185.77</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45008.04166666666</v>
+        <v>45008.45833333334</v>
       </c>
       <c r="B539" t="n">
         <v>27318.69</v>
@@ -11233,7 +11233,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45009.04166666666</v>
+        <v>45009.45833333334</v>
       </c>
       <c r="B540" t="n">
         <v>28344.44</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45010.04166666666</v>
+        <v>45010.45833333334</v>
       </c>
       <c r="B541" t="n">
         <v>27494.34</v>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45011.04166666666</v>
+        <v>45011.45833333334</v>
       </c>
       <c r="B542" t="n">
         <v>27491.6</v>
@@ -11293,7 +11293,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45012.08333333334</v>
+        <v>45012.45833333334</v>
       </c>
       <c r="B543" t="n">
         <v>27995.81</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45013.08333333334</v>
+        <v>45013.45833333334</v>
       </c>
       <c r="B544" t="n">
         <v>27140.74</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45014.08333333334</v>
+        <v>45014.45833333334</v>
       </c>
       <c r="B545" t="n">
         <v>27276.35</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45015.08333333334</v>
+        <v>45015.45833333334</v>
       </c>
       <c r="B546" t="n">
         <v>28360.29</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45016.08333333334</v>
+        <v>45016.45833333334</v>
       </c>
       <c r="B547" t="n">
         <v>28017.76</v>
@@ -11393,7 +11393,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45017.08333333334</v>
+        <v>45017.45833333334</v>
       </c>
       <c r="B548" t="n">
         <v>28476.44</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45018.08333333334</v>
+        <v>45018.41666666666</v>
       </c>
       <c r="B549" t="n">
         <v>28469.51</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45019.08333333334</v>
+        <v>45019.41666666666</v>
       </c>
       <c r="B550" t="n">
         <v>28187.21</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45020.08333333334</v>
+        <v>45020.41666666666</v>
       </c>
       <c r="B551" t="n">
         <v>27809.95</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45021.08333333334</v>
+        <v>45021.41666666666</v>
       </c>
       <c r="B552" t="n">
         <v>28176.04</v>
@@ -11493,7 +11493,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45022.08333333334</v>
+        <v>45022.41666666666</v>
       </c>
       <c r="B553" t="n">
         <v>28179.83</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45023.08333333334</v>
+        <v>45023.41666666666</v>
       </c>
       <c r="B554" t="n">
         <v>28054.16</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45024.08333333334</v>
+        <v>45024.41666666666</v>
       </c>
       <c r="B555" t="n">
         <v>27928.86</v>
@@ -11553,7 +11553,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45025.08333333334</v>
+        <v>45025.41666666666</v>
       </c>
       <c r="B556" t="n">
         <v>27959.95</v>
@@ -11573,7 +11573,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45026.08333333334</v>
+        <v>45026.41666666666</v>
       </c>
       <c r="B557" t="n">
         <v>28343.16</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45027.08333333334</v>
+        <v>45027.41666666666</v>
       </c>
       <c r="B558" t="n">
         <v>29655.9</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45028.08333333334</v>
+        <v>45028.41666666666</v>
       </c>
       <c r="B559" t="n">
         <v>30233.95</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45029.08333333334</v>
+        <v>45029.41666666666</v>
       </c>
       <c r="B560" t="n">
         <v>29908.39</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45030.08333333334</v>
+        <v>45030.41666666666</v>
       </c>
       <c r="B561" t="n">
         <v>30409.77</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45031.08333333334</v>
+        <v>45031.41666666666</v>
       </c>
       <c r="B562" t="n">
         <v>30495.41</v>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45032.08333333334</v>
+        <v>45032.41666666666</v>
       </c>
       <c r="B563" t="n">
         <v>30323.78</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45033.08333333334</v>
+        <v>45033.41666666666</v>
       </c>
       <c r="B564" t="n">
         <v>30324.12</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45034.08333333334</v>
+        <v>45034.41666666666</v>
       </c>
       <c r="B565" t="n">
         <v>29451.47</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45035.08333333334</v>
+        <v>45035.41666666666</v>
       </c>
       <c r="B566" t="n">
         <v>30392.64</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45036.08333333334</v>
+        <v>45036.41666666666</v>
       </c>
       <c r="B567" t="n">
         <v>28819.72</v>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45037.08333333334</v>
+        <v>45037.41666666666</v>
       </c>
       <c r="B568" t="n">
         <v>28250.35</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45038.08333333334</v>
+        <v>45038.41666666666</v>
       </c>
       <c r="B569" t="n">
         <v>27263.69</v>
@@ -11833,7 +11833,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45039.08333333334</v>
+        <v>45039.41666666666</v>
       </c>
       <c r="B570" t="n">
         <v>27823.46</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45040.08333333334</v>
+        <v>45040.41666666666</v>
       </c>
       <c r="B571" t="n">
         <v>27596.46</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45041.08333333334</v>
+        <v>45041.41666666666</v>
       </c>
       <c r="B572" t="n">
         <v>27522.43</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45042.08333333334</v>
+        <v>45042.41666666666</v>
       </c>
       <c r="B573" t="n">
         <v>28308.65</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45043.08333333334</v>
+        <v>45043.41666666666</v>
       </c>
       <c r="B574" t="n">
         <v>28431.79</v>
@@ -11933,7 +11933,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45044.08333333334</v>
+        <v>45044.41666666666</v>
       </c>
       <c r="B575" t="n">
         <v>29484.73</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45045.08333333334</v>
+        <v>45045.41666666666</v>
       </c>
       <c r="B576" t="n">
         <v>29338.13</v>
@@ -11973,7 +11973,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45046.08333333334</v>
+        <v>45046.41666666666</v>
       </c>
       <c r="B577" t="n">
         <v>29252.33</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45047.08333333334</v>
+        <v>45047.41666666666</v>
       </c>
       <c r="B578" t="n">
         <v>29250.13</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45048.08333333334</v>
+        <v>45048.41666666666</v>
       </c>
       <c r="B579" t="n">
         <v>28086.08</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45049.08333333334</v>
+        <v>45049.41666666666</v>
       </c>
       <c r="B580" t="n">
         <v>28698.78</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45050.08333333334</v>
+        <v>45050.41666666666</v>
       </c>
       <c r="B581" t="n">
         <v>29046.46</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45051.08333333334</v>
+        <v>45051.41666666666</v>
       </c>
       <c r="B582" t="n">
         <v>28872.99</v>
@@ -12093,7 +12093,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45052.08333333334</v>
+        <v>45052.41666666666</v>
       </c>
       <c r="B583" t="n">
         <v>29552.32</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45053.08333333334</v>
+        <v>45053.41666666666</v>
       </c>
       <c r="B584" t="n">
         <v>28961.42</v>
@@ -12133,7 +12133,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45054.08333333334</v>
+        <v>45054.41666666666</v>
       </c>
       <c r="B585" t="n">
         <v>28596.43</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45055.08333333334</v>
+        <v>45055.41666666666</v>
       </c>
       <c r="B586" t="n">
         <v>27808.47</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45056.08333333334</v>
+        <v>45056.41666666666</v>
       </c>
       <c r="B587" t="n">
         <v>27649.6</v>
@@ -12193,7 +12193,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45057.08333333334</v>
+        <v>45057.41666666666</v>
       </c>
       <c r="B588" t="n">
         <v>27621.53</v>
@@ -12213,7 +12213,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45058.08333333334</v>
+        <v>45058.41666666666</v>
       </c>
       <c r="B589" t="n">
         <v>26989.42</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45059.08333333334</v>
+        <v>45059.41666666666</v>
       </c>
       <c r="B590" t="n">
         <v>26811.45</v>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45060.08333333334</v>
+        <v>45060.41666666666</v>
       </c>
       <c r="B591" t="n">
         <v>26794.1</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45061.08333333334</v>
+        <v>45061.41666666666</v>
       </c>
       <c r="B592" t="n">
         <v>26931.05</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45062.08333333334</v>
+        <v>45062.41666666666</v>
       </c>
       <c r="B593" t="n">
         <v>27171.37</v>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45063.08333333334</v>
+        <v>45063.41666666666</v>
       </c>
       <c r="B594" t="n">
         <v>27042.18</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45064.08333333334</v>
+        <v>45064.41666666666</v>
       </c>
       <c r="B595" t="n">
         <v>27413.52</v>
@@ -12353,7 +12353,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45065.08333333334</v>
+        <v>45065.41666666666</v>
       </c>
       <c r="B596" t="n">
         <v>26830.41</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45066.08333333334</v>
+        <v>45066.41666666666</v>
       </c>
       <c r="B597" t="n">
         <v>26894.17</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45067.08333333334</v>
+        <v>45067.41666666666</v>
       </c>
       <c r="B598" t="n">
         <v>27118.52</v>
@@ -12413,7 +12413,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45068.08333333334</v>
+        <v>45068.41666666666</v>
       </c>
       <c r="B599" t="n">
         <v>26753.38</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45069.08333333334</v>
+        <v>45069.41666666666</v>
       </c>
       <c r="B600" t="n">
         <v>26858.37</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45070.08333333334</v>
+        <v>45070.41666666666</v>
       </c>
       <c r="B601" t="n">
         <v>27226.84</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45071.08333333334</v>
+        <v>45071.41666666666</v>
       </c>
       <c r="B602" t="n">
         <v>26329.56</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45072.08333333334</v>
+        <v>45072.41666666666</v>
       </c>
       <c r="B603" t="n">
         <v>26484.94</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45073.08333333334</v>
+        <v>45073.41666666666</v>
       </c>
       <c r="B604" t="n">
         <v>26720.12</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45074.08333333334</v>
+        <v>45074.41666666666</v>
       </c>
       <c r="B605" t="n">
         <v>26876.21</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45075.08333333334</v>
+        <v>45075.41666666666</v>
       </c>
       <c r="B606" t="n">
         <v>28082.01</v>
@@ -12573,7 +12573,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45076.08333333334</v>
+        <v>45076.41666666666</v>
       </c>
       <c r="B607" t="n">
         <v>27751.3</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45077.08333333334</v>
+        <v>45077.41666666666</v>
       </c>
       <c r="B608" t="n">
         <v>27705.22</v>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45078.08333333334</v>
+        <v>45078.41666666666</v>
       </c>
       <c r="B609" t="n">
         <v>27223.41</v>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45079.08333333334</v>
+        <v>45079.41666666666</v>
       </c>
       <c r="B610" t="n">
         <v>26824.03</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45080.08333333334</v>
+        <v>45080.41666666666</v>
       </c>
       <c r="B611" t="n">
         <v>27252.19</v>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45081.08333333334</v>
+        <v>45081.41666666666</v>
       </c>
       <c r="B612" t="n">
         <v>27074.82</v>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45082.08333333334</v>
+        <v>45082.41666666666</v>
       </c>
       <c r="B613" t="n">
         <v>27120.98</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45083.08333333334</v>
+        <v>45083.41666666666</v>
       </c>
       <c r="B614" t="n">
         <v>25734.58</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45084.08333333334</v>
+        <v>45084.41666666666</v>
       </c>
       <c r="B615" t="n">
         <v>27242.36</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45085.08333333334</v>
+        <v>45085.41666666666</v>
       </c>
       <c r="B616" t="n">
         <v>26350.6</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45086.08333333334</v>
+        <v>45086.41666666666</v>
       </c>
       <c r="B617" t="n">
         <v>26511.1</v>
@@ -12793,7 +12793,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45087.08333333334</v>
+        <v>45087.41666666666</v>
       </c>
       <c r="B618" t="n">
         <v>26488.73</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45088.08333333334</v>
+        <v>45088.41666666666</v>
       </c>
       <c r="B619" t="n">
         <v>25858.78</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45089.08333333334</v>
+        <v>45089.41666666666</v>
       </c>
       <c r="B620" t="n">
         <v>25939.77</v>
@@ -12853,7 +12853,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45090.08333333334</v>
+        <v>45090.41666666666</v>
       </c>
       <c r="B621" t="n">
         <v>25910.95</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45091.08333333334</v>
+        <v>45091.41666666666</v>
       </c>
       <c r="B622" t="n">
         <v>25936.51</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45092.08333333334</v>
+        <v>45092.41666666666</v>
       </c>
       <c r="B623" t="n">
         <v>25128.85</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45093.08333333334</v>
+        <v>45093.41666666666</v>
       </c>
       <c r="B624" t="n">
         <v>25581</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45094.08333333334</v>
+        <v>45094.41666666666</v>
       </c>
       <c r="B625" t="n">
         <v>26336.15</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45095.08333333334</v>
+        <v>45095.41666666666</v>
       </c>
       <c r="B626" t="n">
         <v>26516.97</v>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45096.08333333334</v>
+        <v>45096.41666666666</v>
       </c>
       <c r="B627" t="n">
         <v>26341.04</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45097.08333333334</v>
+        <v>45097.41666666666</v>
       </c>
       <c r="B628" t="n">
         <v>26844.29</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45098.08333333334</v>
+        <v>45098.41666666666</v>
       </c>
       <c r="B629" t="n">
         <v>28317.8</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45099.08333333334</v>
+        <v>45099.41666666666</v>
       </c>
       <c r="B630" t="n">
         <v>30003.41</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45100.08333333334</v>
+        <v>45100.41666666666</v>
       </c>
       <c r="B631" t="n">
         <v>29897.34</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45101.08333333334</v>
+        <v>45101.41666666666</v>
       </c>
       <c r="B632" t="n">
         <v>30703.32</v>
@@ -13093,7 +13093,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45102.08333333334</v>
+        <v>45102.41666666666</v>
       </c>
       <c r="B633" t="n">
         <v>30547.68</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45103.08333333334</v>
+        <v>45103.41666666666</v>
       </c>
       <c r="B634" t="n">
         <v>30473.86</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45104.08333333334</v>
+        <v>45104.41666666666</v>
       </c>
       <c r="B635" t="n">
         <v>30274.11</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45105.08333333334</v>
+        <v>45105.41666666666</v>
       </c>
       <c r="B636" t="n">
         <v>30700.99</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45106.08333333334</v>
+        <v>45106.41666666666</v>
       </c>
       <c r="B637" t="n">
         <v>30083.03</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45107.08333333334</v>
+        <v>45107.41666666666</v>
       </c>
       <c r="B638" t="n">
         <v>30453.04</v>
@@ -13213,7 +13213,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45108.08333333334</v>
+        <v>45108.41666666666</v>
       </c>
       <c r="B639" t="n">
         <v>30477.43</v>
@@ -13233,7 +13233,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45109.08333333334</v>
+        <v>45109.41666666666</v>
       </c>
       <c r="B640" t="n">
         <v>30593.98</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45110.08333333334</v>
+        <v>45110.41666666666</v>
       </c>
       <c r="B641" t="n">
         <v>30626.82</v>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45111.08333333334</v>
+        <v>45111.41666666666</v>
       </c>
       <c r="B642" t="n">
         <v>31163.68</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45112.08333333334</v>
+        <v>45112.41666666666</v>
       </c>
       <c r="B643" t="n">
         <v>30776.21</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45113.08333333334</v>
+        <v>45113.41666666666</v>
       </c>
       <c r="B644" t="n">
         <v>30506.27</v>
@@ -13333,7 +13333,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45114.08333333334</v>
+        <v>45114.41666666666</v>
       </c>
       <c r="B645" t="n">
         <v>29908.33</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45115.08333333334</v>
+        <v>45115.41666666666</v>
       </c>
       <c r="B646" t="n">
         <v>30351.86</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45116.08333333334</v>
+        <v>45116.41666666666</v>
       </c>
       <c r="B647" t="n">
         <v>30299.25</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45117.08333333334</v>
+        <v>45117.41666666666</v>
       </c>
       <c r="B648" t="n">
         <v>30175.34</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45118.08333333334</v>
+        <v>45118.41666666666</v>
       </c>
       <c r="B649" t="n">
         <v>30422.95</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45119.08333333334</v>
+        <v>45119.41666666666</v>
       </c>
       <c r="B650" t="n">
         <v>30633.89</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45120.08333333334</v>
+        <v>45120.41666666666</v>
       </c>
       <c r="B651" t="n">
         <v>30395.64</v>
@@ -13473,7 +13473,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45121.08333333334</v>
+        <v>45121.41666666666</v>
       </c>
       <c r="B652" t="n">
         <v>31483.23</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45122.08333333334</v>
+        <v>45122.41666666666</v>
       </c>
       <c r="B653" t="n">
         <v>30332.66</v>
@@ -13513,7 +13513,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45123.08333333334</v>
+        <v>45123.41666666666</v>
       </c>
       <c r="B654" t="n">
         <v>30300.6</v>
@@ -13533,7 +13533,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45124.08333333334</v>
+        <v>45124.41666666666</v>
       </c>
       <c r="B655" t="n">
         <v>30248.97</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45125.08333333334</v>
+        <v>45125.41666666666</v>
       </c>
       <c r="B656" t="n">
         <v>30152.07</v>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45126.08333333334</v>
+        <v>45126.41666666666</v>
       </c>
       <c r="B657" t="n">
         <v>29863.81</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45127.08333333334</v>
+        <v>45127.41666666666</v>
       </c>
       <c r="B658" t="n">
         <v>29920.35</v>
@@ -13613,7 +13613,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45128.08333333334</v>
+        <v>45128.41666666666</v>
       </c>
       <c r="B659" t="n">
         <v>29813.51</v>
@@ -13633,7 +13633,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45129.08333333334</v>
+        <v>45129.41666666666</v>
       </c>
       <c r="B660" t="n">
         <v>29917.56</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45130.08333333334</v>
+        <v>45130.41666666666</v>
       </c>
       <c r="B661" t="n">
         <v>29792.83</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45131.08333333334</v>
+        <v>45131.41666666666</v>
       </c>
       <c r="B662" t="n">
         <v>30091.5</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45132.08333333334</v>
+        <v>45132.41666666666</v>
       </c>
       <c r="B663" t="n">
         <v>29188.72</v>
@@ -13713,7 +13713,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45133.08333333334</v>
+        <v>45133.41666666666</v>
       </c>
       <c r="B664" t="n">
         <v>29235.78</v>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45134.08333333334</v>
+        <v>45134.41666666666</v>
       </c>
       <c r="B665" t="n">
         <v>29358</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45135.08333333334</v>
+        <v>45135.41666666666</v>
       </c>
       <c r="B666" t="n">
         <v>29224.23</v>
@@ -13773,7 +13773,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45136.08333333334</v>
+        <v>45136.41666666666</v>
       </c>
       <c r="B667" t="n">
         <v>29327.86</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45137.08333333334</v>
+        <v>45137.41666666666</v>
       </c>
       <c r="B668" t="n">
         <v>29369.79</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45138.08333333334</v>
+        <v>45138.41666666666</v>
       </c>
       <c r="B669" t="n">
         <v>29288.05</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45139.08333333334</v>
+        <v>45139.41666666666</v>
       </c>
       <c r="B670" t="n">
         <v>29237.8</v>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45140.08333333334</v>
+        <v>45140.41666666666</v>
       </c>
       <c r="B671" t="n">
         <v>29706.04</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45141.08333333334</v>
+        <v>45141.41666666666</v>
       </c>
       <c r="B672" t="n">
         <v>29170.04</v>
@@ -13893,7 +13893,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45142.08333333334</v>
+        <v>45142.41666666666</v>
       </c>
       <c r="B673" t="n">
         <v>29185.76</v>
@@ -13913,7 +13913,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45143.08333333334</v>
+        <v>45143.41666666666</v>
       </c>
       <c r="B674" t="n">
         <v>29085.76</v>
@@ -13933,7 +13933,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45144.08333333334</v>
+        <v>45144.41666666666</v>
       </c>
       <c r="B675" t="n">
         <v>29054.38</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45145.08333333334</v>
+        <v>45145.41666666666</v>
       </c>
       <c r="B676" t="n">
         <v>29053.25</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45146.08333333334</v>
+        <v>45146.41666666666</v>
       </c>
       <c r="B677" t="n">
         <v>29192.57</v>
@@ -13993,7 +13993,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45147.08333333334</v>
+        <v>45147.41666666666</v>
       </c>
       <c r="B678" t="n">
         <v>29775.65</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45148.08333333334</v>
+        <v>45148.41666666666</v>
       </c>
       <c r="B679" t="n">
         <v>29573.92</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45149.08333333334</v>
+        <v>45149.41666666666</v>
       </c>
       <c r="B680" t="n">
         <v>29434.01</v>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45150.08333333334</v>
+        <v>45150.41666666666</v>
       </c>
       <c r="B681" t="n">
         <v>29407.86</v>
@@ -14073,7 +14073,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45151.08333333334</v>
+        <v>45151.41666666666</v>
       </c>
       <c r="B682" t="n">
         <v>29422.42</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45152.08333333334</v>
+        <v>45152.41666666666</v>
       </c>
       <c r="B683" t="n">
         <v>29288.97</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45153.08333333334</v>
+        <v>45153.41666666666</v>
       </c>
       <c r="B684" t="n">
         <v>29419</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45154.08333333334</v>
+        <v>45154.41666666666</v>
       </c>
       <c r="B685" t="n">
         <v>29176.63</v>
@@ -14153,7 +14153,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45155.08333333334</v>
+        <v>45155.41666666666</v>
       </c>
       <c r="B686" t="n">
         <v>28705.2</v>
@@ -14173,7 +14173,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45156.08333333334</v>
+        <v>45156.41666666666</v>
       </c>
       <c r="B687" t="n">
         <v>26631.58</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>45157.08333333334</v>
+        <v>45157.41666666666</v>
       </c>
       <c r="B688" t="n">
         <v>26054.35</v>
@@ -14213,7 +14213,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>45158.08333333334</v>
+        <v>45158.41666666666</v>
       </c>
       <c r="B689" t="n">
         <v>26096.9</v>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>45159.08333333334</v>
+        <v>45159.41666666666</v>
       </c>
       <c r="B690" t="n">
         <v>26195.97</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>45160.08333333334</v>
+        <v>45160.41666666666</v>
       </c>
       <c r="B691" t="n">
         <v>26129.39</v>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>45161.08333333334</v>
+        <v>45161.41666666666</v>
       </c>
       <c r="B692" t="n">
         <v>26049.11</v>
@@ -14293,7 +14293,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>45162.08333333334</v>
+        <v>45162.41666666666</v>
       </c>
       <c r="B693" t="n">
         <v>26432.81</v>
@@ -14313,7 +14313,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>45163.08333333334</v>
+        <v>45163.41666666666</v>
       </c>
       <c r="B694" t="n">
         <v>26173.37</v>
@@ -14333,7 +14333,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>45164.08333333334</v>
+        <v>45164.41666666666</v>
       </c>
       <c r="B695" t="n">
         <v>26057.07</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>45165.08333333334</v>
+        <v>45165.41666666666</v>
       </c>
       <c r="B696" t="n">
         <v>26016.25</v>
@@ -14373,7 +14373,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>45166.08333333334</v>
+        <v>45166.41666666666</v>
       </c>
       <c r="B697" t="n">
         <v>26096.39</v>
@@ -14393,7 +14393,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
-        <v>45167.08333333334</v>
+        <v>45167.41666666666</v>
       </c>
       <c r="B698" t="n">
         <v>26114.91</v>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
-        <v>45168.08333333334</v>
+        <v>45168.41666666666</v>
       </c>
       <c r="B699" t="n">
         <v>27729.96</v>
@@ -14433,7 +14433,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
-        <v>45169.08333333334</v>
+        <v>45169.41666666666</v>
       </c>
       <c r="B700" t="n">
         <v>27309.87</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
-        <v>45170.08333333334</v>
+        <v>45170.41666666666</v>
       </c>
       <c r="B701" t="n">
         <v>25940.2</v>
@@ -14473,7 +14473,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
-        <v>45171.08333333334</v>
+        <v>45171.41666666666</v>
       </c>
       <c r="B702" t="n">
         <v>25804.98</v>
@@ -14493,7 +14493,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
-        <v>45172.08333333334</v>
+        <v>45172.41666666666</v>
       </c>
       <c r="B703" t="n">
         <v>25870.88</v>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
-        <v>45173.08333333334</v>
+        <v>45173.41666666666</v>
       </c>
       <c r="B704" t="n">
         <v>25972.81</v>
@@ -14533,7 +14533,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
-        <v>45174.08333333334</v>
+        <v>45174.41666666666</v>
       </c>
       <c r="B705" t="n">
         <v>25820.11</v>
@@ -14553,7 +14553,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
-        <v>45175.08333333334</v>
+        <v>45175.41666666666</v>
       </c>
       <c r="B706" t="n">
         <v>25787.07</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
-        <v>45176.08333333334</v>
+        <v>45176.41666666666</v>
       </c>
       <c r="B707" t="n">
         <v>25760.83</v>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
-        <v>45177.08333333334</v>
+        <v>45177.41666666666</v>
       </c>
       <c r="B708" t="n">
         <v>26260.72</v>
@@ -14613,7 +14613,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
-        <v>45178.08333333334</v>
+        <v>45178.41666666666</v>
       </c>
       <c r="B709" t="n">
         <v>25909.16</v>
@@ -14633,7 +14633,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
-        <v>45179.08333333334</v>
+        <v>45179.41666666666</v>
       </c>
       <c r="B710" t="n">
         <v>25900.53</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
-        <v>45180.08333333334</v>
+        <v>45180.41666666666</v>
       </c>
       <c r="B711" t="n">
         <v>25837.44</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
-        <v>45181.08333333334</v>
+        <v>45181.41666666666</v>
       </c>
       <c r="B712" t="n">
         <v>25162.38</v>
@@ -14688,12 +14688,12 @@
         <v>25842</v>
       </c>
       <c r="F712" t="n">
-        <v>29123.7362787</v>
+        <v>29119.59768614</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
-        <v>45182.08333333334</v>
+        <v>45182.41666666666</v>
       </c>
       <c r="B713" t="n">
         <v>25842.09</v>
@@ -14705,15 +14705,15 @@
         <v>25775.61</v>
       </c>
       <c r="E713" t="n">
-        <v>26230.6</v>
+        <v>26230.44</v>
       </c>
       <c r="F713" t="n">
-        <v>15437.51678097</v>
+        <v>15438.54159662</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
-        <v>45183.08333333334</v>
+        <v>45183.41666666666</v>
       </c>
       <c r="B714" t="n">
         <v>26231.34</v>
@@ -14728,12 +14728,12 @@
         <v>26535.32</v>
       </c>
       <c r="F714" t="n">
-        <v>20123.23346273</v>
+        <v>20151.51642913</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
-        <v>45184.08333333334</v>
+        <v>45184.41666666666</v>
       </c>
       <c r="B715" t="n">
         <v>26535</v>
@@ -14748,7 +14748,767 @@
         <v>26611.11</v>
       </c>
       <c r="F715" t="n">
-        <v>14369.5985001</v>
+        <v>14373.34972977</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45185.41666666666</v>
+      </c>
+      <c r="B716" t="n">
+        <v>26611.45</v>
+      </c>
+      <c r="C716" t="n">
+        <v>26773.2</v>
+      </c>
+      <c r="D716" t="n">
+        <v>26466.96</v>
+      </c>
+      <c r="E716" t="n">
+        <v>26571.3</v>
+      </c>
+      <c r="F716" t="n">
+        <v>5565.4093674</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45186.41666666666</v>
+      </c>
+      <c r="B717" t="n">
+        <v>26571.02</v>
+      </c>
+      <c r="C717" t="n">
+        <v>26620.42</v>
+      </c>
+      <c r="D717" t="n">
+        <v>26418.76</v>
+      </c>
+      <c r="E717" t="n">
+        <v>26538.19</v>
+      </c>
+      <c r="F717" t="n">
+        <v>4504.51084357</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45187.41666666666</v>
+      </c>
+      <c r="B718" t="n">
+        <v>26536.71</v>
+      </c>
+      <c r="C718" t="n">
+        <v>27442.36</v>
+      </c>
+      <c r="D718" t="n">
+        <v>26403.46</v>
+      </c>
+      <c r="E718" t="n">
+        <v>26770.2</v>
+      </c>
+      <c r="F718" t="n">
+        <v>25422.54174867</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45188.41666666666</v>
+      </c>
+      <c r="B719" t="n">
+        <v>26769.08</v>
+      </c>
+      <c r="C719" t="n">
+        <v>27497.13</v>
+      </c>
+      <c r="D719" t="n">
+        <v>26685.03</v>
+      </c>
+      <c r="E719" t="n">
+        <v>27225.68</v>
+      </c>
+      <c r="F719" t="n">
+        <v>20763.94179524</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45189.41666666666</v>
+      </c>
+      <c r="B720" t="n">
+        <v>27227.53</v>
+      </c>
+      <c r="C720" t="n">
+        <v>27398.65</v>
+      </c>
+      <c r="D720" t="n">
+        <v>26820.42</v>
+      </c>
+      <c r="E720" t="n">
+        <v>27132.76</v>
+      </c>
+      <c r="F720" t="n">
+        <v>17481.68795298</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45190.41666666666</v>
+      </c>
+      <c r="B721" t="n">
+        <v>27131.44</v>
+      </c>
+      <c r="C721" t="n">
+        <v>27164.37</v>
+      </c>
+      <c r="D721" t="n">
+        <v>26376.48</v>
+      </c>
+      <c r="E721" t="n">
+        <v>26572.29</v>
+      </c>
+      <c r="F721" t="n">
+        <v>17414.36402635</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45191.41666666666</v>
+      </c>
+      <c r="B722" t="n">
+        <v>26573.54</v>
+      </c>
+      <c r="C722" t="n">
+        <v>26735.44</v>
+      </c>
+      <c r="D722" t="n">
+        <v>26490.49</v>
+      </c>
+      <c r="E722" t="n">
+        <v>26587.3</v>
+      </c>
+      <c r="F722" t="n">
+        <v>12653.76197816</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45192.41666666666</v>
+      </c>
+      <c r="B723" t="n">
+        <v>26586.55</v>
+      </c>
+      <c r="C723" t="n">
+        <v>26678.15</v>
+      </c>
+      <c r="D723" t="n">
+        <v>26521.75</v>
+      </c>
+      <c r="E723" t="n">
+        <v>26588.1</v>
+      </c>
+      <c r="F723" t="n">
+        <v>4299.77089143</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45193.41666666666</v>
+      </c>
+      <c r="B724" t="n">
+        <v>26587.6</v>
+      </c>
+      <c r="C724" t="n">
+        <v>26735.03</v>
+      </c>
+      <c r="D724" t="n">
+        <v>26153.72</v>
+      </c>
+      <c r="E724" t="n">
+        <v>26262.39</v>
+      </c>
+      <c r="F724" t="n">
+        <v>8123.19226322</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45194.41666666666</v>
+      </c>
+      <c r="B725" t="n">
+        <v>26252.14</v>
+      </c>
+      <c r="C725" t="n">
+        <v>26441.74</v>
+      </c>
+      <c r="D725" t="n">
+        <v>26000.2</v>
+      </c>
+      <c r="E725" t="n">
+        <v>26303.22</v>
+      </c>
+      <c r="F725" t="n">
+        <v>16113.28714041</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45195.41666666666</v>
+      </c>
+      <c r="B726" t="n">
+        <v>26303.72</v>
+      </c>
+      <c r="C726" t="n">
+        <v>26396.7</v>
+      </c>
+      <c r="D726" t="n">
+        <v>26097.08</v>
+      </c>
+      <c r="E726" t="n">
+        <v>26218.84</v>
+      </c>
+      <c r="F726" t="n">
+        <v>10060.77626091</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45196.41666666666</v>
+      </c>
+      <c r="B727" t="n">
+        <v>26219.08</v>
+      </c>
+      <c r="C727" t="n">
+        <v>26836.8</v>
+      </c>
+      <c r="D727" t="n">
+        <v>26107.62</v>
+      </c>
+      <c r="E727" t="n">
+        <v>26367.38</v>
+      </c>
+      <c r="F727" t="n">
+        <v>19904.84391442</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45197.41666666666</v>
+      </c>
+      <c r="B728" t="n">
+        <v>26367.62</v>
+      </c>
+      <c r="C728" t="n">
+        <v>27314.69</v>
+      </c>
+      <c r="D728" t="n">
+        <v>26336.07</v>
+      </c>
+      <c r="E728" t="n">
+        <v>27031.49</v>
+      </c>
+      <c r="F728" t="n">
+        <v>25325.02830995</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45198.41666666666</v>
+      </c>
+      <c r="B729" t="n">
+        <v>27036.19</v>
+      </c>
+      <c r="C729" t="n">
+        <v>27240.9</v>
+      </c>
+      <c r="D729" t="n">
+        <v>26685.93</v>
+      </c>
+      <c r="E729" t="n">
+        <v>26916.78</v>
+      </c>
+      <c r="F729" t="n">
+        <v>17338.77176634</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45199.41666666666</v>
+      </c>
+      <c r="B730" t="n">
+        <v>26915.92</v>
+      </c>
+      <c r="C730" t="n">
+        <v>27099.06</v>
+      </c>
+      <c r="D730" t="n">
+        <v>26891.54</v>
+      </c>
+      <c r="E730" t="n">
+        <v>26969.98</v>
+      </c>
+      <c r="F730" t="n">
+        <v>5869.42193194</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B731" t="n">
+        <v>26968.53</v>
+      </c>
+      <c r="C731" t="n">
+        <v>28077.13</v>
+      </c>
+      <c r="D731" t="n">
+        <v>26963.24</v>
+      </c>
+      <c r="E731" t="n">
+        <v>27995.39</v>
+      </c>
+      <c r="F731" t="n">
+        <v>13645.7557133</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45201.45833333334</v>
+      </c>
+      <c r="B732" t="n">
+        <v>27998.64</v>
+      </c>
+      <c r="C732" t="n">
+        <v>28597.22</v>
+      </c>
+      <c r="D732" t="n">
+        <v>27317.08</v>
+      </c>
+      <c r="E732" t="n">
+        <v>27510.99</v>
+      </c>
+      <c r="F732" t="n">
+        <v>35188.68386174</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45202.45833333334</v>
+      </c>
+      <c r="B733" t="n">
+        <v>27511.48</v>
+      </c>
+      <c r="C733" t="n">
+        <v>27675.08</v>
+      </c>
+      <c r="D733" t="n">
+        <v>27173.87</v>
+      </c>
+      <c r="E733" t="n">
+        <v>27430.79</v>
+      </c>
+      <c r="F733" t="n">
+        <v>18675.76497343</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45203.45833333334</v>
+      </c>
+      <c r="B734" t="n">
+        <v>27429.79</v>
+      </c>
+      <c r="C734" t="n">
+        <v>27836.42</v>
+      </c>
+      <c r="D734" t="n">
+        <v>27217.61</v>
+      </c>
+      <c r="E734" t="n">
+        <v>27797.44</v>
+      </c>
+      <c r="F734" t="n">
+        <v>14063.3468351</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45204.45833333334</v>
+      </c>
+      <c r="B735" t="n">
+        <v>27797.03</v>
+      </c>
+      <c r="C735" t="n">
+        <v>28128.85</v>
+      </c>
+      <c r="D735" t="n">
+        <v>27365.54</v>
+      </c>
+      <c r="E735" t="n">
+        <v>27415.44</v>
+      </c>
+      <c r="F735" t="n">
+        <v>19537.54663456</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45205.45833333334</v>
+      </c>
+      <c r="B736" t="n">
+        <v>27416.24</v>
+      </c>
+      <c r="C736" t="n">
+        <v>28292.95</v>
+      </c>
+      <c r="D736" t="n">
+        <v>27184.63</v>
+      </c>
+      <c r="E736" t="n">
+        <v>27945.74</v>
+      </c>
+      <c r="F736" t="n">
+        <v>18951.79096686</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="B737" t="n">
+        <v>27941.24</v>
+      </c>
+      <c r="C737" t="n">
+        <v>28032.39</v>
+      </c>
+      <c r="D737" t="n">
+        <v>27857.73</v>
+      </c>
+      <c r="E737" t="n">
+        <v>27971.96</v>
+      </c>
+      <c r="F737" t="n">
+        <v>5103.58301243</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45207.45833333334</v>
+      </c>
+      <c r="B738" t="n">
+        <v>27972.46</v>
+      </c>
+      <c r="C738" t="n">
+        <v>28103.54</v>
+      </c>
+      <c r="D738" t="n">
+        <v>27718.43</v>
+      </c>
+      <c r="E738" t="n">
+        <v>27932.56</v>
+      </c>
+      <c r="F738" t="n">
+        <v>5658.36680849</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45208.45833333334</v>
+      </c>
+      <c r="B739" t="n">
+        <v>27931.31</v>
+      </c>
+      <c r="C739" t="n">
+        <v>27996.38</v>
+      </c>
+      <c r="D739" t="n">
+        <v>27288.66</v>
+      </c>
+      <c r="E739" t="n">
+        <v>27598.69</v>
+      </c>
+      <c r="F739" t="n">
+        <v>16781.51815588</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45209.45833333334</v>
+      </c>
+      <c r="B740" t="n">
+        <v>27601.19</v>
+      </c>
+      <c r="C740" t="n">
+        <v>27734.64</v>
+      </c>
+      <c r="D740" t="n">
+        <v>27302.7</v>
+      </c>
+      <c r="E740" t="n">
+        <v>27399.9</v>
+      </c>
+      <c r="F740" t="n">
+        <v>14304.27146727</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45210.45833333334</v>
+      </c>
+      <c r="B741" t="n">
+        <v>27402.4</v>
+      </c>
+      <c r="C741" t="n">
+        <v>27478.38</v>
+      </c>
+      <c r="D741" t="n">
+        <v>26541.83</v>
+      </c>
+      <c r="E741" t="n">
+        <v>26876.35</v>
+      </c>
+      <c r="F741" t="n">
+        <v>23575.60273306</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45211.45833333334</v>
+      </c>
+      <c r="B742" t="n">
+        <v>26873.79</v>
+      </c>
+      <c r="C742" t="n">
+        <v>26940.39</v>
+      </c>
+      <c r="D742" t="n">
+        <v>26555.68</v>
+      </c>
+      <c r="E742" t="n">
+        <v>26765.6</v>
+      </c>
+      <c r="F742" t="n">
+        <v>12017.91966627</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45212.45833333334</v>
+      </c>
+      <c r="B743" t="n">
+        <v>26762.74</v>
+      </c>
+      <c r="C743" t="n">
+        <v>27126.81</v>
+      </c>
+      <c r="D743" t="n">
+        <v>26677.91</v>
+      </c>
+      <c r="E743" t="n">
+        <v>26868.36</v>
+      </c>
+      <c r="F743" t="n">
+        <v>12947.78613857</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45213.45833333334</v>
+      </c>
+      <c r="B744" t="n">
+        <v>26868.36</v>
+      </c>
+      <c r="C744" t="n">
+        <v>26985.16</v>
+      </c>
+      <c r="D744" t="n">
+        <v>26809.25</v>
+      </c>
+      <c r="E744" t="n">
+        <v>26858.75</v>
+      </c>
+      <c r="F744" t="n">
+        <v>4300.24668492</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45214.45833333334</v>
+      </c>
+      <c r="B745" t="n">
+        <v>26859.25</v>
+      </c>
+      <c r="C745" t="n">
+        <v>27299.12</v>
+      </c>
+      <c r="D745" t="n">
+        <v>26818.04</v>
+      </c>
+      <c r="E745" t="n">
+        <v>27174.56</v>
+      </c>
+      <c r="F745" t="n">
+        <v>8468.73844773</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45215.45833333334</v>
+      </c>
+      <c r="B746" t="n">
+        <v>27171.56</v>
+      </c>
+      <c r="C746" t="n">
+        <v>30027</v>
+      </c>
+      <c r="D746" t="n">
+        <v>27126.96</v>
+      </c>
+      <c r="E746" t="n">
+        <v>28519.76</v>
+      </c>
+      <c r="F746" t="n">
+        <v>53346.46029096</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45216.45833333334</v>
+      </c>
+      <c r="B747" t="n">
+        <v>28520.76</v>
+      </c>
+      <c r="C747" t="n">
+        <v>28623.63</v>
+      </c>
+      <c r="D747" t="n">
+        <v>28090.8</v>
+      </c>
+      <c r="E747" t="n">
+        <v>28410.66</v>
+      </c>
+      <c r="F747" t="n">
+        <v>19191.36367171</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45217.45833333334</v>
+      </c>
+      <c r="B748" t="n">
+        <v>28410.33</v>
+      </c>
+      <c r="C748" t="n">
+        <v>28988.64</v>
+      </c>
+      <c r="D748" t="n">
+        <v>28160.9</v>
+      </c>
+      <c r="E748" t="n">
+        <v>28330.4</v>
+      </c>
+      <c r="F748" t="n">
+        <v>16289.43046889</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45218.45833333334</v>
+      </c>
+      <c r="B749" t="n">
+        <v>28328.84</v>
+      </c>
+      <c r="C749" t="n">
+        <v>28927.49</v>
+      </c>
+      <c r="D749" t="n">
+        <v>28139.52</v>
+      </c>
+      <c r="E749" t="n">
+        <v>28735.86</v>
+      </c>
+      <c r="F749" t="n">
+        <v>18140.02675939</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45219.45833333334</v>
+      </c>
+      <c r="B750" t="n">
+        <v>28736.88</v>
+      </c>
+      <c r="C750" t="n">
+        <v>30239</v>
+      </c>
+      <c r="D750" t="n">
+        <v>28601.49</v>
+      </c>
+      <c r="E750" t="n">
+        <v>29685.66</v>
+      </c>
+      <c r="F750" t="n">
+        <v>29803.00457027</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="B751" t="n">
+        <v>29683.91</v>
+      </c>
+      <c r="C751" t="n">
+        <v>30359.58</v>
+      </c>
+      <c r="D751" t="n">
+        <v>29479.89</v>
+      </c>
+      <c r="E751" t="n">
+        <v>29923.51</v>
+      </c>
+      <c r="F751" t="n">
+        <v>10329.64166079</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45221.45833333334</v>
+      </c>
+      <c r="B752" t="n">
+        <v>29921.03</v>
+      </c>
+      <c r="C752" t="n">
+        <v>30246.43</v>
+      </c>
+      <c r="D752" t="n">
+        <v>29677.53</v>
+      </c>
+      <c r="E752" t="n">
+        <v>30004.11</v>
+      </c>
+      <c r="F752" t="n">
+        <v>8473.589539250001</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45222.45833333334</v>
+      </c>
+      <c r="B753" t="n">
+        <v>30005.36</v>
+      </c>
+      <c r="C753" t="n">
+        <v>34406.25</v>
+      </c>
+      <c r="D753" t="n">
+        <v>29906.47</v>
+      </c>
+      <c r="E753" t="n">
+        <v>33082.5</v>
+      </c>
+      <c r="F753" t="n">
+        <v>52240.45867998</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F753"/>
+  <dimension ref="A1:F759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15388,7 +15388,7 @@
         <v>28410.66</v>
       </c>
       <c r="F747" t="n">
-        <v>19191.36367171</v>
+        <v>19191.3777181</v>
       </c>
     </row>
     <row r="748">
@@ -15408,7 +15408,7 @@
         <v>28330.4</v>
       </c>
       <c r="F748" t="n">
-        <v>16289.43046889</v>
+        <v>16287.16137352</v>
       </c>
     </row>
     <row r="749">
@@ -15425,10 +15425,10 @@
         <v>28139.52</v>
       </c>
       <c r="E749" t="n">
-        <v>28735.86</v>
+        <v>28736.56</v>
       </c>
       <c r="F749" t="n">
-        <v>18140.02675939</v>
+        <v>18142.28484619</v>
       </c>
     </row>
     <row r="750">
@@ -15448,7 +15448,7 @@
         <v>29685.66</v>
       </c>
       <c r="F750" t="n">
-        <v>29803.00457027</v>
+        <v>29833.16305011</v>
       </c>
     </row>
     <row r="751">
@@ -15468,7 +15468,7 @@
         <v>29923.51</v>
       </c>
       <c r="F751" t="n">
-        <v>10329.64166079</v>
+        <v>10331.73605071</v>
       </c>
     </row>
     <row r="752">
@@ -15488,7 +15488,7 @@
         <v>30004.11</v>
       </c>
       <c r="F752" t="n">
-        <v>8473.589539250001</v>
+        <v>8474.812737419999</v>
       </c>
     </row>
     <row r="753">
@@ -15508,7 +15508,127 @@
         <v>33082.5</v>
       </c>
       <c r="F753" t="n">
-        <v>52240.45867998</v>
+        <v>52258.73659405</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45223.45833333334</v>
+      </c>
+      <c r="B754" t="n">
+        <v>33083.03</v>
+      </c>
+      <c r="C754" t="n">
+        <v>35194.81</v>
+      </c>
+      <c r="D754" t="n">
+        <v>32858.64</v>
+      </c>
+      <c r="E754" t="n">
+        <v>33927.73</v>
+      </c>
+      <c r="F754" t="n">
+        <v>57162.7070855</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45224.45833333334</v>
+      </c>
+      <c r="B755" t="n">
+        <v>33931.07</v>
+      </c>
+      <c r="C755" t="n">
+        <v>35143.57</v>
+      </c>
+      <c r="D755" t="n">
+        <v>33700.75</v>
+      </c>
+      <c r="E755" t="n">
+        <v>34499.56</v>
+      </c>
+      <c r="F755" t="n">
+        <v>27342.63976911</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>45225.45833333334</v>
+      </c>
+      <c r="B756" t="n">
+        <v>34497.31</v>
+      </c>
+      <c r="C756" t="n">
+        <v>34836.26</v>
+      </c>
+      <c r="D756" t="n">
+        <v>33739.77</v>
+      </c>
+      <c r="E756" t="n">
+        <v>34164.73</v>
+      </c>
+      <c r="F756" t="n">
+        <v>22824.9425057</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>45226.45833333334</v>
+      </c>
+      <c r="B757" t="n">
+        <v>34160.14</v>
+      </c>
+      <c r="C757" t="n">
+        <v>34250.92</v>
+      </c>
+      <c r="D757" t="n">
+        <v>33388.4</v>
+      </c>
+      <c r="E757" t="n">
+        <v>33915.05</v>
+      </c>
+      <c r="F757" t="n">
+        <v>19773.73172418</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="B758" t="n">
+        <v>33914.02</v>
+      </c>
+      <c r="C758" t="n">
+        <v>34500.18</v>
+      </c>
+      <c r="D758" t="n">
+        <v>33876.05</v>
+      </c>
+      <c r="E758" t="n">
+        <v>34093.13</v>
+      </c>
+      <c r="F758" t="n">
+        <v>7105.88206642</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="B759" t="n">
+        <v>34092.6</v>
+      </c>
+      <c r="C759" t="n">
+        <v>34764.88</v>
+      </c>
+      <c r="D759" t="n">
+        <v>33952.85</v>
+      </c>
+      <c r="E759" t="n">
+        <v>34538.5</v>
+      </c>
+      <c r="F759" t="n">
+        <v>9509.96349226</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F759"/>
+  <dimension ref="A1:F776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15568,7 +15568,7 @@
         <v>34164.73</v>
       </c>
       <c r="F756" t="n">
-        <v>22824.9425057</v>
+        <v>22827.81872859</v>
       </c>
     </row>
     <row r="757">
@@ -15588,7 +15588,7 @@
         <v>33915.05</v>
       </c>
       <c r="F757" t="n">
-        <v>19773.73172418</v>
+        <v>19774.57609774</v>
       </c>
     </row>
     <row r="758">
@@ -15608,7 +15608,7 @@
         <v>34093.13</v>
       </c>
       <c r="F758" t="n">
-        <v>7105.88206642</v>
+        <v>7119.13938709</v>
       </c>
     </row>
     <row r="759">
@@ -15629,6 +15629,346 @@
       </c>
       <c r="F759" t="n">
         <v>9509.96349226</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>45229.45833333334</v>
+      </c>
+      <c r="B760" t="n">
+        <v>34541.25</v>
+      </c>
+      <c r="C760" t="n">
+        <v>34890.1</v>
+      </c>
+      <c r="D760" t="n">
+        <v>34093.25</v>
+      </c>
+      <c r="E760" t="n">
+        <v>34496.72</v>
+      </c>
+      <c r="F760" t="n">
+        <v>15919.46738428</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>45230.45833333334</v>
+      </c>
+      <c r="B761" t="n">
+        <v>34495.65</v>
+      </c>
+      <c r="C761" t="n">
+        <v>34728.52</v>
+      </c>
+      <c r="D761" t="n">
+        <v>34067.72</v>
+      </c>
+      <c r="E761" t="n">
+        <v>34660.4</v>
+      </c>
+      <c r="F761" t="n">
+        <v>14095.02202241</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>45231.45833333334</v>
+      </c>
+      <c r="B762" t="n">
+        <v>34661.82</v>
+      </c>
+      <c r="C762" t="n">
+        <v>35623.42</v>
+      </c>
+      <c r="D762" t="n">
+        <v>34103.12</v>
+      </c>
+      <c r="E762" t="n">
+        <v>35442.2</v>
+      </c>
+      <c r="F762" t="n">
+        <v>24062.65560488</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>45232.45833333334</v>
+      </c>
+      <c r="B763" t="n">
+        <v>35442.2</v>
+      </c>
+      <c r="C763" t="n">
+        <v>35971.45</v>
+      </c>
+      <c r="D763" t="n">
+        <v>34328.68</v>
+      </c>
+      <c r="E763" t="n">
+        <v>34939.68</v>
+      </c>
+      <c r="F763" t="n">
+        <v>21258.38865655</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>45233.45833333334</v>
+      </c>
+      <c r="B764" t="n">
+        <v>34942.43</v>
+      </c>
+      <c r="C764" t="n">
+        <v>34945.85</v>
+      </c>
+      <c r="D764" t="n">
+        <v>34129.75</v>
+      </c>
+      <c r="E764" t="n">
+        <v>34737.62</v>
+      </c>
+      <c r="F764" t="n">
+        <v>18937.77715037</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="B765" t="n">
+        <v>34740.63</v>
+      </c>
+      <c r="C765" t="n">
+        <v>35277.07</v>
+      </c>
+      <c r="D765" t="n">
+        <v>34617.56</v>
+      </c>
+      <c r="E765" t="n">
+        <v>35091.58</v>
+      </c>
+      <c r="F765" t="n">
+        <v>7827.22204273</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="B766" t="n">
+        <v>35091.88</v>
+      </c>
+      <c r="C766" t="n">
+        <v>35406.78</v>
+      </c>
+      <c r="D766" t="n">
+        <v>34498.53</v>
+      </c>
+      <c r="E766" t="n">
+        <v>35051.1</v>
+      </c>
+      <c r="F766" t="n">
+        <v>9146.861512789999</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>45236.45833333334</v>
+      </c>
+      <c r="B767" t="n">
+        <v>35047.72</v>
+      </c>
+      <c r="C767" t="n">
+        <v>35293.56</v>
+      </c>
+      <c r="D767" t="n">
+        <v>34771.24</v>
+      </c>
+      <c r="E767" t="n">
+        <v>35045.77</v>
+      </c>
+      <c r="F767" t="n">
+        <v>10104.89174993</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>45237.45833333334</v>
+      </c>
+      <c r="B768" t="n">
+        <v>35054.27</v>
+      </c>
+      <c r="C768" t="n">
+        <v>35921.03</v>
+      </c>
+      <c r="D768" t="n">
+        <v>34534.67</v>
+      </c>
+      <c r="E768" t="n">
+        <v>35433.57</v>
+      </c>
+      <c r="F768" t="n">
+        <v>19161.17642952</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>45238.45833333334</v>
+      </c>
+      <c r="B769" t="n">
+        <v>35430.43</v>
+      </c>
+      <c r="C769" t="n">
+        <v>36115.15</v>
+      </c>
+      <c r="D769" t="n">
+        <v>35105.04</v>
+      </c>
+      <c r="E769" t="n">
+        <v>35633.63</v>
+      </c>
+      <c r="F769" t="n">
+        <v>16869.41308207</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>45239.45833333334</v>
+      </c>
+      <c r="B770" t="n">
+        <v>35631.88</v>
+      </c>
+      <c r="C770" t="n">
+        <v>37980.5</v>
+      </c>
+      <c r="D770" t="n">
+        <v>35553.71</v>
+      </c>
+      <c r="E770" t="n">
+        <v>36698.15</v>
+      </c>
+      <c r="F770" t="n">
+        <v>43641.33845299</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>45240.45833333334</v>
+      </c>
+      <c r="B771" t="n">
+        <v>36703.63</v>
+      </c>
+      <c r="C771" t="n">
+        <v>37532.2</v>
+      </c>
+      <c r="D771" t="n">
+        <v>36341.89</v>
+      </c>
+      <c r="E771" t="n">
+        <v>37314.13</v>
+      </c>
+      <c r="F771" t="n">
+        <v>22200.106037</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="B772" t="n">
+        <v>37321.88</v>
+      </c>
+      <c r="C772" t="n">
+        <v>37415.68</v>
+      </c>
+      <c r="D772" t="n">
+        <v>36670.88</v>
+      </c>
+      <c r="E772" t="n">
+        <v>37142.98</v>
+      </c>
+      <c r="F772" t="n">
+        <v>9095.515949119999</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>45242.45833333334</v>
+      </c>
+      <c r="B773" t="n">
+        <v>37137.21</v>
+      </c>
+      <c r="C773" t="n">
+        <v>37231.65</v>
+      </c>
+      <c r="D773" t="n">
+        <v>36744.3</v>
+      </c>
+      <c r="E773" t="n">
+        <v>37067.98</v>
+      </c>
+      <c r="F773" t="n">
+        <v>5490.90603995</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>45243.45833333334</v>
+      </c>
+      <c r="B774" t="n">
+        <v>37067.6</v>
+      </c>
+      <c r="C774" t="n">
+        <v>37432.62</v>
+      </c>
+      <c r="D774" t="n">
+        <v>36364</v>
+      </c>
+      <c r="E774" t="n">
+        <v>36489.44</v>
+      </c>
+      <c r="F774" t="n">
+        <v>16552.71020945</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>45244.45833333334</v>
+      </c>
+      <c r="B775" t="n">
+        <v>36485.95</v>
+      </c>
+      <c r="C775" t="n">
+        <v>36752.82</v>
+      </c>
+      <c r="D775" t="n">
+        <v>34801.41</v>
+      </c>
+      <c r="E775" t="n">
+        <v>35551.12</v>
+      </c>
+      <c r="F775" t="n">
+        <v>24435.69447612</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>45245.45833333334</v>
+      </c>
+      <c r="B776" t="n">
+        <v>35551.63</v>
+      </c>
+      <c r="C776" t="n">
+        <v>37965.5</v>
+      </c>
+      <c r="D776" t="n">
+        <v>35368.04</v>
+      </c>
+      <c r="E776" t="n">
+        <v>37881.01</v>
+      </c>
+      <c r="F776" t="n">
+        <v>28876.22667493</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F776"/>
+  <dimension ref="A1:F781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15948,7 +15948,7 @@
         <v>35551.12</v>
       </c>
       <c r="F775" t="n">
-        <v>24435.69447612</v>
+        <v>24435.70866071</v>
       </c>
     </row>
     <row r="776">
@@ -15968,7 +15968,107 @@
         <v>37881.01</v>
       </c>
       <c r="F776" t="n">
-        <v>28876.22667493</v>
+        <v>28857.67768154</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>45246.45833333334</v>
+      </c>
+      <c r="B777" t="n">
+        <v>37881.01</v>
+      </c>
+      <c r="C777" t="n">
+        <v>37949.44</v>
+      </c>
+      <c r="D777" t="n">
+        <v>35521.08</v>
+      </c>
+      <c r="E777" t="n">
+        <v>36161.56</v>
+      </c>
+      <c r="F777" t="n">
+        <v>27907.12403802</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>45247.45833333334</v>
+      </c>
+      <c r="B778" t="n">
+        <v>36167.06</v>
+      </c>
+      <c r="C778" t="n">
+        <v>36841.5</v>
+      </c>
+      <c r="D778" t="n">
+        <v>35869.3</v>
+      </c>
+      <c r="E778" t="n">
+        <v>36627.85</v>
+      </c>
+      <c r="F778" t="n">
+        <v>19584.73492323</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>45248.45833333334</v>
+      </c>
+      <c r="B779" t="n">
+        <v>36628.39</v>
+      </c>
+      <c r="C779" t="n">
+        <v>36852.04</v>
+      </c>
+      <c r="D779" t="n">
+        <v>36214.97</v>
+      </c>
+      <c r="E779" t="n">
+        <v>36588</v>
+      </c>
+      <c r="F779" t="n">
+        <v>5562.2901741</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>45249.45833333334</v>
+      </c>
+      <c r="B780" t="n">
+        <v>36589.81</v>
+      </c>
+      <c r="C780" t="n">
+        <v>37526.88</v>
+      </c>
+      <c r="D780" t="n">
+        <v>36412.73</v>
+      </c>
+      <c r="E780" t="n">
+        <v>37390.02</v>
+      </c>
+      <c r="F780" t="n">
+        <v>7887.89129009</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>45250.45833333334</v>
+      </c>
+      <c r="B781" t="n">
+        <v>37394.49</v>
+      </c>
+      <c r="C781" t="n">
+        <v>37768.77</v>
+      </c>
+      <c r="D781" t="n">
+        <v>36692.75</v>
+      </c>
+      <c r="E781" t="n">
+        <v>37471.79</v>
+      </c>
+      <c r="F781" t="n">
+        <v>22396.92267967</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F784"/>
+  <dimension ref="A1:F790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16078,7 +16078,127 @@
         <v>37296.49</v>
       </c>
       <c r="F784">
-        <v>12274.32992254</v>
+        <v>12272.78137091</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
+      <c r="A785" s="2">
+        <v>45254.45833333334</v>
+      </c>
+      <c r="B785">
+        <v>37301.74</v>
+      </c>
+      <c r="C785">
+        <v>38433.48</v>
+      </c>
+      <c r="D785">
+        <v>37262.19</v>
+      </c>
+      <c r="E785">
+        <v>37726.56</v>
+      </c>
+      <c r="F785">
+        <v>27122.76441803</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
+      <c r="A786" s="2">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="B786">
+        <v>37730.62</v>
+      </c>
+      <c r="C786">
+        <v>37905.32</v>
+      </c>
+      <c r="D786">
+        <v>37607.98</v>
+      </c>
+      <c r="E786">
+        <v>37799.05</v>
+      </c>
+      <c r="F786">
+        <v>6320.63262059</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6">
+      <c r="A787" s="2">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="B787">
+        <v>37799.76</v>
+      </c>
+      <c r="C787">
+        <v>37821.79</v>
+      </c>
+      <c r="D787">
+        <v>37149.46</v>
+      </c>
+      <c r="E787">
+        <v>37458.92</v>
+      </c>
+      <c r="F787">
+        <v>10209.26108278</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6">
+      <c r="A788" s="2">
+        <v>45257.45833333334</v>
+      </c>
+      <c r="B788">
+        <v>37460.23</v>
+      </c>
+      <c r="C788">
+        <v>37566.25</v>
+      </c>
+      <c r="D788">
+        <v>36723.53</v>
+      </c>
+      <c r="E788">
+        <v>37249.68</v>
+      </c>
+      <c r="F788">
+        <v>18841.72492513</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="A789" s="2">
+        <v>45258.45833333334</v>
+      </c>
+      <c r="B789">
+        <v>37251.19</v>
+      </c>
+      <c r="C789">
+        <v>38396.41</v>
+      </c>
+      <c r="D789">
+        <v>36887.14</v>
+      </c>
+      <c r="E789">
+        <v>37831.24</v>
+      </c>
+      <c r="F789">
+        <v>26437.69720883</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790" s="2">
+        <v>45259.45833333334</v>
+      </c>
+      <c r="B790">
+        <v>37831.99</v>
+      </c>
+      <c r="C790">
+        <v>38439.5</v>
+      </c>
+      <c r="D790">
+        <v>37584.71</v>
+      </c>
+      <c r="E790">
+        <v>37857.71</v>
+      </c>
+      <c r="F790">
+        <v>20323.83809097</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/CompAssets/Bitcoin.xlsx
+++ b/NetLiquidity/CompAssets/Bitcoin.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1135"/>
+  <dimension ref="A1:F1146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23098,7 +23098,227 @@
         <v>47149.6</v>
       </c>
       <c r="F1135">
-        <v>33560.34992019</v>
+        <v>33560.74022322</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6">
+      <c r="A1136" s="2">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="B1136">
+        <v>47147.53</v>
+      </c>
+      <c r="C1136">
+        <v>48177.36</v>
+      </c>
+      <c r="D1136">
+        <v>46895.88</v>
+      </c>
+      <c r="E1136">
+        <v>47776.32</v>
+      </c>
+      <c r="F1136">
+        <v>9060.23118866</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6">
+      <c r="A1137" s="2">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="B1137">
+        <v>47776.07</v>
+      </c>
+      <c r="C1137">
+        <v>48576.25</v>
+      </c>
+      <c r="D1137">
+        <v>47593.3</v>
+      </c>
+      <c r="E1137">
+        <v>48311.33</v>
+      </c>
+      <c r="F1137">
+        <v>9287.79161319</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6">
+      <c r="A1138" s="2">
+        <v>45334.45833333334</v>
+      </c>
+      <c r="B1138">
+        <v>48317.79</v>
+      </c>
+      <c r="C1138">
+        <v>50329.73</v>
+      </c>
+      <c r="D1138">
+        <v>47694.17</v>
+      </c>
+      <c r="E1138">
+        <v>49942.38</v>
+      </c>
+      <c r="F1138">
+        <v>30635.4132391</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6">
+      <c r="A1139" s="2">
+        <v>45335.45833333334</v>
+      </c>
+      <c r="B1139">
+        <v>49940.41</v>
+      </c>
+      <c r="C1139">
+        <v>50386.91</v>
+      </c>
+      <c r="D1139">
+        <v>48303.7</v>
+      </c>
+      <c r="E1139">
+        <v>49744.44</v>
+      </c>
+      <c r="F1139">
+        <v>29012.70423406</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6">
+      <c r="A1140" s="2">
+        <v>45336.45833333334</v>
+      </c>
+      <c r="B1140">
+        <v>49744.16</v>
+      </c>
+      <c r="C1140">
+        <v>52086.45</v>
+      </c>
+      <c r="D1140">
+        <v>49268.53</v>
+      </c>
+      <c r="E1140">
+        <v>51829.17</v>
+      </c>
+      <c r="F1140">
+        <v>30512.56563906</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6">
+      <c r="A1141" s="2">
+        <v>45337.45833333334</v>
+      </c>
+      <c r="B1141">
+        <v>51830.68</v>
+      </c>
+      <c r="C1141">
+        <v>52829.25</v>
+      </c>
+      <c r="D1141">
+        <v>51333.17</v>
+      </c>
+      <c r="E1141">
+        <v>51929.1</v>
+      </c>
+      <c r="F1141">
+        <v>27682.90238556</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6">
+      <c r="A1142" s="2">
+        <v>45338.45833333334</v>
+      </c>
+      <c r="B1142">
+        <v>51926.83</v>
+      </c>
+      <c r="C1142">
+        <v>52590.6</v>
+      </c>
+      <c r="D1142">
+        <v>51604.47</v>
+      </c>
+      <c r="E1142">
+        <v>52160.74</v>
+      </c>
+      <c r="F1142">
+        <v>18921.49605583</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6">
+      <c r="A1143" s="2">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="B1143">
+        <v>52163.49</v>
+      </c>
+      <c r="C1143">
+        <v>52193.01</v>
+      </c>
+      <c r="D1143">
+        <v>50500.14</v>
+      </c>
+      <c r="E1143">
+        <v>51666.81</v>
+      </c>
+      <c r="F1143">
+        <v>9885.2726035</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6">
+      <c r="A1144" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="B1144">
+        <v>51665.83</v>
+      </c>
+      <c r="C1144">
+        <v>52409.03</v>
+      </c>
+      <c r="D1144">
+        <v>51191.62</v>
+      </c>
+      <c r="E1144">
+        <v>52127.48</v>
+      </c>
+      <c r="F1144">
+        <v>7478.84408703</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6">
+      <c r="A1145" s="2">
+        <v>45341.45833333334</v>
+      </c>
+      <c r="B1145">
+        <v>52135.18</v>
+      </c>
+      <c r="C1145">
+        <v>52484.65</v>
+      </c>
+      <c r="D1145">
+        <v>51683.7</v>
+      </c>
+      <c r="E1145">
+        <v>51769.54</v>
+      </c>
+      <c r="F1145">
+        <v>9955.600155820001</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6">
+      <c r="A1146" s="2">
+        <v>45342.45833333334</v>
+      </c>
+      <c r="B1146">
+        <v>51766.56</v>
+      </c>
+      <c r="C1146">
+        <v>52971.7</v>
+      </c>
+      <c r="D1146">
+        <v>50695.43</v>
+      </c>
+      <c r="E1146">
+        <v>52247.41</v>
+      </c>
+      <c r="F1146">
+        <v>25550.69137969</v>
       </c>
     </row>
   </sheetData>
